--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A984FF69-B720-4E92-9C4E-AB35023C9602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C40750-74B1-4EEE-9841-4C23EFF7C0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,15 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Revise  need</t>
   </si>
 </sst>
 </file>
@@ -1492,15 +1501,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1508,12 +1523,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1537,6 +1567,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1852,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1863,19 +1903,20 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1885,35 +1926,39 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+      <c r="C7" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1923,8 +1968,11 @@
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+      <c r="D8" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -7375,5 +7423,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C40750-74B1-4EEE-9841-4C23EFF7C0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67630AF-B22E-4FCB-8FDC-D31D5FDC3686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1895,7 +1895,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1959,39 +1959,45 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+      <c r="C10" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67630AF-B22E-4FCB-8FDC-D31D5FDC3686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F5CA4-CC22-40D0-AD47-E45DAEE44C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,7 +1438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1500,8 +1500,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1511,6 +1518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,7 +1556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1575,6 +1588,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1895,7 +1914,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1968,7 +1987,7 @@
       <c r="C8" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2001,36 +2020,45 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
+      <c r="C11" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="C12" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
+      <c r="C13" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2042,6 +2070,9 @@
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F5CA4-CC22-40D0-AD47-E45DAEE44C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F48ED7-9AF5-4FEF-87E3-8D15A2E5A7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1508,7 +1508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1527,8 +1527,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1551,12 +1557,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1596,6 +1615,17 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1913,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2057,80 +2087,95 @@
       <c r="C13" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
+      <c r="C15" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21">
+      <c r="C19" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2152,7 +2197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2196,7 +2241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2207,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2229,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2240,7 +2285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2251,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259CFB5A-A92B-4BE4-9797-830A896129EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A60B021-FF46-4C13-9346-C8F40496CD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2193,36 +2193,48 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="21">
-      <c r="A28" s="4" t="s">
+      <c r="C27" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="21">
-      <c r="A29" s="4" t="s">
+      <c r="C28" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="21">
-      <c r="A30" s="4" t="s">
+      <c r="C29" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="11" t="s">
         <v>28</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
@@ -2233,63 +2245,84 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="21">
-      <c r="A33" s="4" t="s">
+      <c r="C32" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="21">
-      <c r="A34" s="4" t="s">
+      <c r="C33" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="21">
-      <c r="A35" s="4" t="s">
+      <c r="C34" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="21">
-      <c r="A36" s="4" t="s">
+      <c r="C35" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="21">
-      <c r="A37" s="4" t="s">
+      <c r="C36" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="21">
-      <c r="A38" s="4" t="s">
+      <c r="C37" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="21">
+      <c r="C38" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
@@ -2297,7 +2330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
@@ -2305,7 +2338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
@@ -2313,14 +2346,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:2" ht="21">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="4"/>
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:2" ht="21">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="7" t="s">
         <v>40</v>
       </c>
@@ -2328,7 +2361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="21">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="7" t="s">
         <v>40</v>
       </c>
@@ -2336,7 +2369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="21">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="7" t="s">
         <v>40</v>
       </c>
@@ -2344,7 +2377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="21">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="7" t="s">
         <v>40</v>
       </c>
@@ -2352,7 +2385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="21">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="7" t="s">
         <v>40</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A60B021-FF46-4C13-9346-C8F40496CD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17ED0AA-981B-4C64-8FDC-DD30F4236822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2322,28 +2322,35 @@
         <v>464</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A39" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="21">
-      <c r="A40" s="4" t="s">
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="21">
-      <c r="A41" s="4" t="s">
+      <c r="C40" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="19" customFormat="1" ht="21">
+      <c r="A41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="11" t="s">
         <v>39</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
@@ -3009,7 +3016,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="21">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="4" t="s">
         <v>95</v>
       </c>
@@ -3017,7 +3024,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="21">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="4" t="s">
         <v>95</v>
       </c>
@@ -3025,7 +3032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="21">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="4" t="s">
         <v>95</v>
       </c>
@@ -3033,7 +3040,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="21">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="4" t="s">
         <v>95</v>
       </c>
@@ -3041,7 +3048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="21">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="4" t="s">
         <v>95</v>
       </c>
@@ -3049,7 +3056,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="21">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="4" t="s">
         <v>95</v>
       </c>
@@ -3057,7 +3064,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="21">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="4" t="s">
         <v>95</v>
       </c>
@@ -3065,7 +3072,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="21">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="4" t="s">
         <v>95</v>
       </c>
@@ -3073,55 +3080,73 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="21">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="1:2" ht="21">
-      <c r="A139" s="7" t="s">
+    <row r="139" spans="1:3" ht="21">
+      <c r="A139" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="21">
-      <c r="A140" s="7" t="s">
+      <c r="C139" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="21">
+      <c r="A140" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="21">
-      <c r="A141" s="7" t="s">
+      <c r="C140" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="21">
+      <c r="A141" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="21">
-      <c r="A142" s="7" t="s">
+      <c r="C141" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="21">
+      <c r="A142" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="21">
-      <c r="A143" s="7" t="s">
+      <c r="C142" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="21">
+      <c r="A143" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="21">
+      <c r="C143" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>138</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17ED0AA-981B-4C64-8FDC-DD30F4236822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA954E2-FA02-49A0-A267-195B2374849C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,12 @@
   </si>
   <si>
     <t>Revise  need</t>
+  </si>
+  <si>
+    <t>S.No:</t>
+  </si>
+  <si>
+    <t>Y(IMP)</t>
   </si>
 </sst>
 </file>
@@ -1928,4271 +1934,4580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:XFD144"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="3"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="123" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="24.6">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:4">
+      <c r="C2" s="9" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="21">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:4" ht="21">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:4" ht="21">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:4" ht="21">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:4" ht="21">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="D18" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:4" ht="21">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="D38" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A40" s="10" t="s">
+      <c r="D39" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="19" customFormat="1" ht="21">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="7" t="s">
+    <row r="42" spans="1:4" ht="21">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="21">
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="21">
+      <c r="B44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:4" ht="21">
+      <c r="B45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:4" ht="21">
+      <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:4" ht="21">
+      <c r="B47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:4" ht="21">
+      <c r="B48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="21">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="2:3" ht="21">
+      <c r="B49" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="2:3" ht="21">
+      <c r="B50" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="21">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="2:3" ht="21">
+      <c r="B51" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="21">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="2:3" ht="21">
+      <c r="B52" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="21">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="2:3" ht="21">
+      <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="21">
-      <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="1:2" ht="21">
-      <c r="A56" s="4" t="s">
+    <row r="55" spans="2:3" ht="21">
+      <c r="B55" s="4"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="2:3" ht="21">
+      <c r="B56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="21">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="2:3" ht="21">
+      <c r="B57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="21">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="2:3" ht="21">
+      <c r="B58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="21">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="2:3" ht="21">
+      <c r="B59" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="21">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="2:3" ht="21">
+      <c r="B60" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="21">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="2:3" ht="21">
+      <c r="B61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="21">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="2:3" ht="21">
+      <c r="B62" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="21">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="2:3" ht="21">
+      <c r="B63" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="21">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="2:3" ht="21">
+      <c r="B64" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="21">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="2:3" ht="21">
+      <c r="B65" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="21">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="2:3" ht="21">
+      <c r="B66" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="21">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="2:3" ht="21">
+      <c r="B67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="21">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="2:3" ht="21">
+      <c r="B68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="21">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="2:3" ht="21">
+      <c r="B69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="21">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="2:3" ht="21">
+      <c r="B70" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="21">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="2:3" ht="21">
+      <c r="B71" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="21">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="2:3" ht="21">
+      <c r="B72" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="21">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="2:3" ht="21">
+      <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="21">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="2:3" ht="21">
+      <c r="B74" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="21">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="2:3" ht="21">
+      <c r="B75" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="21">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="2:3" ht="21">
+      <c r="B76" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="21">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="2:3" ht="21">
+      <c r="B77" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="21">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="2:3" ht="21">
+      <c r="B78" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="21">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="2:3" ht="21">
+      <c r="B79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="21">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="2:3" ht="21">
+      <c r="B80" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="21">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="2:3" ht="21">
+      <c r="B81" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="21">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="2:3" ht="21">
+      <c r="B82" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="21">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="2:3" ht="21">
+      <c r="B83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="21">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="2:3" ht="21">
+      <c r="B84" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="21">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="2:3" ht="21">
+      <c r="B85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="21">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="2:3" ht="21">
+      <c r="B86" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="21">
-      <c r="A87" s="4" t="s">
+    <row r="87" spans="2:3" ht="21">
+      <c r="B87" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="21">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="2:3" ht="21">
+      <c r="B88" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="21">
-      <c r="A89" s="4" t="s">
+    <row r="89" spans="2:3" ht="21">
+      <c r="B89" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="21">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="2:3" ht="21">
+      <c r="B90" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="21">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="2:3" ht="21">
+      <c r="B91" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="21">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="2:3" ht="21">
+      <c r="B92" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="21">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="2:3" ht="21">
+      <c r="B93" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="21">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="2:3" ht="21">
+      <c r="B94" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="21">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="2:3" ht="21">
+      <c r="B95" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="21">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="2:3" ht="21">
+      <c r="B96" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="21">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="2:3" ht="21">
+      <c r="B97" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="21">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="2:3" ht="21">
+      <c r="B98" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="21">
-      <c r="A100" s="7"/>
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="1:2" ht="21">
-      <c r="A101" s="4" t="s">
+    <row r="100" spans="2:3" ht="21">
+      <c r="B100" s="7"/>
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="2:3" ht="21">
+      <c r="B101" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="21">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="2:3" ht="21">
+      <c r="B102" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="21">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="2:3" ht="21">
+      <c r="B103" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="21">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="2:3" ht="21">
+      <c r="B104" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="21">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="2:3" ht="21">
+      <c r="B105" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="21">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="2:3" ht="21">
+      <c r="B106" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="21">
-      <c r="A107" s="4" t="s">
+    <row r="107" spans="2:3" ht="21">
+      <c r="B107" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="21">
-      <c r="A108" s="4" t="s">
+    <row r="108" spans="2:3" ht="21">
+      <c r="B108" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="21">
-      <c r="A109" s="4" t="s">
+    <row r="109" spans="2:3" ht="21">
+      <c r="B109" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="21">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="2:3" ht="21">
+      <c r="B110" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="21">
-      <c r="A111" s="4" t="s">
+    <row r="111" spans="2:3" ht="21">
+      <c r="B111" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="21">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="2:3" ht="21">
+      <c r="B112" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="C112" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="21">
-      <c r="A113" s="4" t="s">
+    <row r="113" spans="2:3" ht="21">
+      <c r="B113" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="21">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="2:3" ht="21">
+      <c r="B114" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="C114" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="21">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="2:3" ht="21">
+      <c r="B115" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="21">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="2:3" ht="21">
+      <c r="B116" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="21">
-      <c r="A117" s="4" t="s">
+    <row r="117" spans="2:3" ht="21">
+      <c r="B117" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="C117" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="21">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="2:3" ht="21">
+      <c r="B118" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="C118" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="21">
-      <c r="A119" s="4" t="s">
+    <row r="119" spans="2:3" ht="21">
+      <c r="B119" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="21">
-      <c r="A120" s="4" t="s">
+    <row r="120" spans="2:3" ht="21">
+      <c r="B120" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="C120" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="21">
-      <c r="A121" s="4" t="s">
+    <row r="121" spans="2:3" ht="21">
+      <c r="B121" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="21">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="2:3" ht="21">
+      <c r="B122" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="21">
-      <c r="A123" s="4" t="s">
+    <row r="123" spans="2:3" ht="21">
+      <c r="B123" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="21">
-      <c r="A124" s="4" t="s">
+    <row r="124" spans="2:3" ht="21">
+      <c r="B124" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="C124" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="21">
-      <c r="A125" s="4" t="s">
+    <row r="125" spans="2:3" ht="21">
+      <c r="B125" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="21">
-      <c r="A126" s="4" t="s">
+    <row r="126" spans="2:3" ht="21">
+      <c r="B126" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="C126" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="21">
-      <c r="A127" s="4" t="s">
+    <row r="127" spans="2:3" ht="21">
+      <c r="B127" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="21">
-      <c r="A128" s="4" t="s">
+    <row r="128" spans="2:3" ht="21">
+      <c r="B128" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
-      <c r="A129" s="4" t="s">
+    <row r="129" spans="1:4" ht="21">
+      <c r="B129" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:4" ht="21">
+      <c r="B130" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
-      <c r="A131" s="4" t="s">
+    <row r="131" spans="1:4" ht="21">
+      <c r="B131" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="C131" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
-      <c r="A132" s="4" t="s">
+    <row r="132" spans="1:4" ht="21">
+      <c r="B132" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
-      <c r="A133" s="4" t="s">
+    <row r="133" spans="1:4" ht="21">
+      <c r="B133" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="C133" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
-      <c r="A134" s="4" t="s">
+    <row r="134" spans="1:4" ht="21">
+      <c r="B134" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="C134" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
-      <c r="A135" s="4" t="s">
+    <row r="135" spans="1:4" ht="21">
+      <c r="B135" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
-      <c r="A136" s="4" t="s">
+    <row r="136" spans="1:4" ht="21">
+      <c r="B136" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="C136" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="10" t="s">
+    <row r="138" spans="1:4" ht="21">
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" ht="21">
+      <c r="A139" s="3">
+        <v>1</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="C139" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="D139" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="10" t="s">
+    <row r="140" spans="1:4" ht="21">
+      <c r="A140" s="3">
+        <v>2</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="C140" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="D140" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
-      <c r="A141" s="10" t="s">
+    <row r="141" spans="1:4" ht="21">
+      <c r="A141" s="3">
+        <v>3</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="C141" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="D141" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
-      <c r="A142" s="10" t="s">
+    <row r="142" spans="1:4" ht="21">
+      <c r="A142" s="3">
+        <v>4</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="C142" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="D142" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
-      <c r="A143" s="10" t="s">
+    <row r="143" spans="1:4" ht="21">
+      <c r="A143" s="3">
+        <v>5</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="C143" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="D143" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
-      <c r="A144" s="7" t="s">
+    <row r="144" spans="1:4" ht="21">
+      <c r="A144" s="3">
+        <v>6</v>
+      </c>
+      <c r="B144" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="C144" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="21">
-      <c r="A145" s="7" t="s">
+    <row r="145" spans="1:4" ht="21">
+      <c r="A145" s="3">
+        <v>7</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="C145" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="21">
-      <c r="A146" s="7" t="s">
+      <c r="D145" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21">
+      <c r="A146" s="3">
+        <v>8</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="C146" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="21">
-      <c r="A147" s="7" t="s">
+      <c r="D146" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21">
+      <c r="A147" s="3">
+        <v>9</v>
+      </c>
+      <c r="B147" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="C147" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="21">
-      <c r="A148" s="7" t="s">
+      <c r="D147" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
+      <c r="A148" s="3">
+        <v>10</v>
+      </c>
+      <c r="B148" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="C148" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="21">
-      <c r="A149" s="7" t="s">
+      <c r="D148" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21">
+      <c r="A149" s="3">
+        <v>11</v>
+      </c>
+      <c r="B149" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="C149" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="21">
-      <c r="A150" s="7" t="s">
+      <c r="D149" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21">
+      <c r="A150" s="3">
+        <v>12</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="C150" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="21">
-      <c r="A151" s="7" t="s">
+      <c r="D150" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21">
+      <c r="A151" s="3">
+        <v>13</v>
+      </c>
+      <c r="B151" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="C151" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="21">
-      <c r="A152" s="7" t="s">
+      <c r="D151" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21">
+      <c r="A152" s="3">
+        <v>14</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="C152" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="21">
-      <c r="A153" s="7" t="s">
+      <c r="D152" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="21">
+      <c r="A153" s="3">
+        <v>15</v>
+      </c>
+      <c r="B153" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="C153" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="21">
-      <c r="A154" s="7" t="s">
+      <c r="D153" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21">
+      <c r="A154" s="3">
+        <v>16</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="C154" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="21">
-      <c r="A155" s="7" t="s">
+      <c r="D154" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="21">
+      <c r="A155" s="3">
+        <v>17</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="C155" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="21">
-      <c r="A156" s="7" t="s">
+      <c r="D155" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="21">
+      <c r="A156" s="3">
+        <v>18</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="C156" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="21">
-      <c r="A157" s="7" t="s">
+      <c r="D156" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21">
+      <c r="A157" s="3">
+        <v>19</v>
+      </c>
+      <c r="B157" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="C157" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="21">
-      <c r="A158" s="7" t="s">
+      <c r="D157" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="21">
+      <c r="A158" s="3">
+        <v>20</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="C158" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="21">
-      <c r="A159" s="7" t="s">
+      <c r="D158" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="21">
+      <c r="A159" s="3">
+        <v>21</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="C159" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="21">
-      <c r="A160" s="7" t="s">
+      <c r="D159" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21">
+      <c r="A160" s="3">
+        <v>22</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="C160" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="21">
-      <c r="A161" s="7" t="s">
+      <c r="D160" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="21">
+      <c r="A161" s="3">
+        <v>23</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="C161" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="21">
-      <c r="A162" s="7" t="s">
+    <row r="162" spans="1:4" ht="21">
+      <c r="A162" s="3">
+        <v>24</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="C162" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="21">
-      <c r="A163" s="7" t="s">
+      <c r="D162" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="21">
+      <c r="A163" s="3">
+        <v>25</v>
+      </c>
+      <c r="B163" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="C163" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="21">
-      <c r="A164" s="7" t="s">
+      <c r="D163" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="21">
+      <c r="A164" s="3">
+        <v>26</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="21">
-      <c r="A165" s="7" t="s">
+      <c r="D164" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="21">
+      <c r="A165" s="3">
+        <v>27</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="C165" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="21">
-      <c r="A166" s="7" t="s">
+      <c r="D165" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="21">
+      <c r="A166" s="3">
+        <v>28</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="C166" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="21">
-      <c r="A167" s="7" t="s">
+      <c r="D166" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21">
+      <c r="A167" s="3">
+        <v>29</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="C167" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="21">
-      <c r="A168" s="7" t="s">
+      <c r="D167" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="21">
+      <c r="A168" s="3">
+        <v>30</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="C168" s="11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="21">
-      <c r="A169" s="7" t="s">
+      <c r="D168" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="21">
+      <c r="A169" s="3">
+        <v>31</v>
+      </c>
+      <c r="B169" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="C169" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="21">
-      <c r="A170" s="7" t="s">
+      <c r="D169" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="21">
+      <c r="A170" s="3">
+        <v>32</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="C170" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="21">
-      <c r="A171" s="7" t="s">
+      <c r="D170" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="21">
+      <c r="A171" s="3">
+        <v>33</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="C171" s="11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="21">
-      <c r="A172" s="7" t="s">
+      <c r="D171" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="21">
+      <c r="A172" s="3">
+        <v>34</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="C172" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="21">
-      <c r="A173" s="7" t="s">
+      <c r="D172" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="21">
+      <c r="A173" s="3">
+        <v>35</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="C173" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="21">
-      <c r="A174" s="7" t="s">
+      <c r="D173" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="21">
+      <c r="A174" s="3">
+        <v>36</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="C174" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="21">
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="1:2" ht="21">
-      <c r="A177" s="4" t="s">
+      <c r="D174" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="21">
+      <c r="C176" s="6"/>
+    </row>
+    <row r="177" spans="2:3" ht="21">
+      <c r="B177" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="C177" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="21">
-      <c r="A178" s="4" t="s">
+    <row r="178" spans="2:3" ht="21">
+      <c r="B178" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="C178" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="21">
-      <c r="A179" s="4" t="s">
+    <row r="179" spans="2:3" ht="21">
+      <c r="B179" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="C179" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="21">
-      <c r="A180" s="4" t="s">
+    <row r="180" spans="2:3" ht="21">
+      <c r="B180" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="C180" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="21">
-      <c r="A181" s="4" t="s">
+    <row r="181" spans="2:3" ht="21">
+      <c r="B181" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="C181" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="21">
-      <c r="A182" s="4" t="s">
+    <row r="182" spans="2:3" ht="21">
+      <c r="B182" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="21">
-      <c r="A183" s="4" t="s">
+    <row r="183" spans="2:3" ht="21">
+      <c r="B183" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="C183" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="21">
-      <c r="A184" s="4" t="s">
+    <row r="184" spans="2:3" ht="21">
+      <c r="B184" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="C184" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="21">
-      <c r="A185" s="4" t="s">
+    <row r="185" spans="2:3" ht="21">
+      <c r="B185" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="C185" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="21">
-      <c r="A186" s="4" t="s">
+    <row r="186" spans="2:3" ht="21">
+      <c r="B186" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="C186" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="21">
-      <c r="A187" s="4" t="s">
+    <row r="187" spans="2:3" ht="21">
+      <c r="B187" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="C187" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="21">
-      <c r="A188" s="4" t="s">
+    <row r="188" spans="2:3" ht="21">
+      <c r="B188" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="C188" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="21">
-      <c r="A189" s="4" t="s">
+    <row r="189" spans="2:3" ht="21">
+      <c r="B189" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="C189" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="21">
-      <c r="A190" s="4" t="s">
+    <row r="190" spans="2:3" ht="21">
+      <c r="B190" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="C190" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="21">
-      <c r="A191" s="4" t="s">
+    <row r="191" spans="2:3" ht="21">
+      <c r="B191" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="C191" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="21">
-      <c r="A192" s="4" t="s">
+    <row r="192" spans="2:3" ht="21">
+      <c r="B192" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="C192" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="21">
-      <c r="A193" s="4" t="s">
+    <row r="193" spans="2:3" ht="21">
+      <c r="B193" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="C193" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="21">
-      <c r="A194" s="4" t="s">
+    <row r="194" spans="2:3" ht="21">
+      <c r="B194" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="C194" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="21">
-      <c r="A195" s="4" t="s">
+    <row r="195" spans="2:3" ht="21">
+      <c r="B195" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="C195" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="21">
-      <c r="A196" s="4" t="s">
+    <row r="196" spans="2:3" ht="21">
+      <c r="B196" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="C196" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="21">
-      <c r="A197" s="4" t="s">
+    <row r="197" spans="2:3" ht="21">
+      <c r="B197" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="C197" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="21">
-      <c r="A198" s="4" t="s">
+    <row r="198" spans="2:3" ht="21">
+      <c r="B198" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="C198" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="21">
-      <c r="A199" s="4" t="s">
+    <row r="199" spans="2:3" ht="21">
+      <c r="B199" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="C199" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="21">
-      <c r="A200" s="4" t="s">
+    <row r="200" spans="2:3" ht="21">
+      <c r="B200" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="C200" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="21">
-      <c r="A201" s="4" t="s">
+    <row r="201" spans="2:3" ht="21">
+      <c r="B201" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="C201" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="21">
-      <c r="A202" s="4" t="s">
+    <row r="202" spans="2:3" ht="21">
+      <c r="B202" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="C202" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="21">
-      <c r="A203" s="4" t="s">
+    <row r="203" spans="2:3" ht="21">
+      <c r="B203" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="C203" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="21">
-      <c r="A204" s="4" t="s">
+    <row r="204" spans="2:3" ht="21">
+      <c r="B204" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="C204" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="21">
-      <c r="A205" s="4" t="s">
+    <row r="205" spans="2:3" ht="21">
+      <c r="B205" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="C205" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="21">
-      <c r="A206" s="4" t="s">
+    <row r="206" spans="2:3" ht="21">
+      <c r="B206" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="C206" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="21">
-      <c r="A207" s="4" t="s">
+    <row r="207" spans="2:3" ht="21">
+      <c r="B207" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="C207" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="21">
-      <c r="A208" s="4" t="s">
+    <row r="208" spans="2:3" ht="21">
+      <c r="B208" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="C208" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="21">
-      <c r="A209" s="4" t="s">
+    <row r="209" spans="2:3" ht="21">
+      <c r="B209" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="C209" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="21">
-      <c r="A210" s="4" t="s">
+    <row r="210" spans="2:3" ht="21">
+      <c r="B210" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="C210" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="21">
-      <c r="A211" s="4" t="s">
+    <row r="211" spans="2:3" ht="21">
+      <c r="B211" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="C211" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="21">
-      <c r="A212" s="7"/>
-      <c r="B212" s="6"/>
-    </row>
-    <row r="213" spans="1:2" ht="21">
-      <c r="A213" s="7"/>
-      <c r="B213" s="6"/>
-    </row>
-    <row r="214" spans="1:2" ht="21">
-      <c r="A214" s="4" t="s">
+    <row r="212" spans="2:3" ht="21">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" spans="2:3" ht="21">
+      <c r="B213" s="7"/>
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" spans="2:3" ht="21">
+      <c r="B214" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="C214" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="21">
-      <c r="A215" s="4" t="s">
+    <row r="215" spans="2:3" ht="21">
+      <c r="B215" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="C215" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="21">
-      <c r="A216" s="4" t="s">
+    <row r="216" spans="2:3" ht="21">
+      <c r="B216" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="C216" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="21">
-      <c r="A217" s="4" t="s">
+    <row r="217" spans="2:3" ht="21">
+      <c r="B217" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="C217" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="21">
-      <c r="A218" s="4" t="s">
+    <row r="218" spans="2:3" ht="21">
+      <c r="B218" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="C218" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="21">
-      <c r="A219" s="4" t="s">
+    <row r="219" spans="2:3" ht="21">
+      <c r="B219" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="C219" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="21">
-      <c r="A220" s="4" t="s">
+    <row r="220" spans="2:3" ht="21">
+      <c r="B220" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="C220" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="21">
-      <c r="A221" s="4" t="s">
+    <row r="221" spans="2:3" ht="21">
+      <c r="B221" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="C221" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="21">
-      <c r="A222" s="4" t="s">
+    <row r="222" spans="2:3" ht="21">
+      <c r="B222" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="C222" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="21">
-      <c r="A223" s="4" t="s">
+    <row r="223" spans="2:3" ht="21">
+      <c r="B223" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="C223" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="21">
-      <c r="A224" s="4" t="s">
+    <row r="224" spans="2:3" ht="21">
+      <c r="B224" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="C224" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="21">
-      <c r="A225" s="4" t="s">
+    <row r="225" spans="2:3" ht="21">
+      <c r="B225" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="C225" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="21">
-      <c r="A226" s="4" t="s">
+    <row r="226" spans="2:3" ht="21">
+      <c r="B226" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="C226" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="21">
-      <c r="A227" s="4" t="s">
+    <row r="227" spans="2:3" ht="21">
+      <c r="B227" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="C227" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="21">
-      <c r="A228" s="4" t="s">
+    <row r="228" spans="2:3" ht="21">
+      <c r="B228" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="C228" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="21">
-      <c r="A229" s="4" t="s">
+    <row r="229" spans="2:3" ht="21">
+      <c r="B229" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="C229" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="21">
-      <c r="A230" s="4" t="s">
+    <row r="230" spans="2:3" ht="21">
+      <c r="B230" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="C230" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="21">
-      <c r="A231" s="4" t="s">
+    <row r="231" spans="2:3" ht="21">
+      <c r="B231" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="C231" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="21">
-      <c r="A232" s="4" t="s">
+    <row r="232" spans="2:3" ht="21">
+      <c r="B232" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="C232" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="21">
-      <c r="A233" s="4" t="s">
+    <row r="233" spans="2:3" ht="21">
+      <c r="B233" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="C233" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="21">
-      <c r="A234" s="4" t="s">
+    <row r="234" spans="2:3" ht="21">
+      <c r="B234" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="C234" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="21">
-      <c r="A235" s="4" t="s">
+    <row r="235" spans="2:3" ht="21">
+      <c r="B235" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="C235" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="21">
-      <c r="B236" s="6"/>
-    </row>
-    <row r="237" spans="1:2" ht="21">
-      <c r="B237" s="6"/>
-    </row>
-    <row r="238" spans="1:2" ht="21">
-      <c r="A238" s="4" t="s">
+    <row r="236" spans="2:3" ht="21">
+      <c r="C236" s="6"/>
+    </row>
+    <row r="237" spans="2:3" ht="21">
+      <c r="C237" s="6"/>
+    </row>
+    <row r="238" spans="2:3" ht="21">
+      <c r="B238" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="C238" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="21">
-      <c r="A239" s="4" t="s">
+    <row r="239" spans="2:3" ht="21">
+      <c r="B239" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="C239" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="21">
-      <c r="A240" s="4" t="s">
+    <row r="240" spans="2:3" ht="21">
+      <c r="B240" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="C240" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="21">
-      <c r="A241" s="4" t="s">
+    <row r="241" spans="2:3" ht="21">
+      <c r="B241" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="C241" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="21">
-      <c r="A242" s="4" t="s">
+    <row r="242" spans="2:3" ht="21">
+      <c r="B242" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="C242" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="21">
-      <c r="A243" s="4" t="s">
+    <row r="243" spans="2:3" ht="21">
+      <c r="B243" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="C243" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="21">
-      <c r="A244" s="4" t="s">
+    <row r="244" spans="2:3" ht="21">
+      <c r="B244" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="C244" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="21">
-      <c r="A245" s="4" t="s">
+    <row r="245" spans="2:3" ht="21">
+      <c r="B245" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="C245" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="21">
-      <c r="A246" s="4" t="s">
+    <row r="246" spans="2:3" ht="21">
+      <c r="B246" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="C246" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="21">
-      <c r="A247" s="4" t="s">
+    <row r="247" spans="2:3" ht="21">
+      <c r="B247" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="C247" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="21">
-      <c r="A248" s="4" t="s">
+    <row r="248" spans="2:3" ht="21">
+      <c r="B248" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="C248" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="21">
-      <c r="A249" s="4" t="s">
+    <row r="249" spans="2:3" ht="21">
+      <c r="B249" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="C249" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="21">
-      <c r="A250" s="4" t="s">
+    <row r="250" spans="2:3" ht="21">
+      <c r="B250" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="C250" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="21">
-      <c r="A251" s="4" t="s">
+    <row r="251" spans="2:3" ht="21">
+      <c r="B251" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="C251" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="21">
-      <c r="A252" s="4" t="s">
+    <row r="252" spans="2:3" ht="21">
+      <c r="B252" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="C252" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="21">
-      <c r="A253" s="4" t="s">
+    <row r="253" spans="2:3" ht="21">
+      <c r="B253" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="C253" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="21">
-      <c r="A254" s="4" t="s">
+    <row r="254" spans="2:3" ht="21">
+      <c r="B254" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="C254" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="21">
-      <c r="A255" s="4" t="s">
+    <row r="255" spans="2:3" ht="21">
+      <c r="B255" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="C255" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="21">
-      <c r="A256" s="4" t="s">
+    <row r="256" spans="2:3" ht="21">
+      <c r="B256" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="C256" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="21">
-      <c r="A257" s="4" t="s">
+    <row r="257" spans="2:3" ht="21">
+      <c r="B257" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="C257" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="21">
-      <c r="A258" s="4" t="s">
+    <row r="258" spans="2:3" ht="21">
+      <c r="B258" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="C258" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="21">
-      <c r="A259" s="4" t="s">
+    <row r="259" spans="2:3" ht="21">
+      <c r="B259" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="C259" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="21">
-      <c r="A260" s="4" t="s">
+    <row r="260" spans="2:3" ht="21">
+      <c r="B260" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="C260" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="21">
-      <c r="A261" s="4" t="s">
+    <row r="261" spans="2:3" ht="21">
+      <c r="B261" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="C261" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="21">
-      <c r="A262" s="4" t="s">
+    <row r="262" spans="2:3" ht="21">
+      <c r="B262" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="C262" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="21">
-      <c r="A263" s="4" t="s">
+    <row r="263" spans="2:3" ht="21">
+      <c r="B263" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="C263" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="21">
-      <c r="A264" s="4" t="s">
+    <row r="264" spans="2:3" ht="21">
+      <c r="B264" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="C264" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="21">
-      <c r="A265" s="4" t="s">
+    <row r="265" spans="2:3" ht="21">
+      <c r="B265" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="C265" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="21">
-      <c r="A266" s="4" t="s">
+    <row r="266" spans="2:3" ht="21">
+      <c r="B266" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="C266" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="21">
-      <c r="A267" s="4" t="s">
+    <row r="267" spans="2:3" ht="21">
+      <c r="B267" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="C267" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="21">
-      <c r="A268" s="4" t="s">
+    <row r="268" spans="2:3" ht="21">
+      <c r="B268" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="C268" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="21">
-      <c r="A269" s="4" t="s">
+    <row r="269" spans="2:3" ht="21">
+      <c r="B269" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B269" s="5" t="s">
+      <c r="C269" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="21">
-      <c r="A270" s="4" t="s">
+    <row r="270" spans="2:3" ht="21">
+      <c r="B270" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="C270" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="21">
-      <c r="A271" s="4" t="s">
+    <row r="271" spans="2:3" ht="21">
+      <c r="B271" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B271" s="5" t="s">
+      <c r="C271" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="21">
-      <c r="A272" s="4" t="s">
+    <row r="272" spans="2:3" ht="21">
+      <c r="B272" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="C272" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="21">
-      <c r="B273" s="6"/>
-    </row>
-    <row r="274" spans="1:2" ht="21">
-      <c r="B274" s="6"/>
-    </row>
-    <row r="275" spans="1:2" ht="21">
-      <c r="A275" s="4" t="s">
+    <row r="273" spans="2:3" ht="21">
+      <c r="C273" s="6"/>
+    </row>
+    <row r="274" spans="2:3" ht="21">
+      <c r="C274" s="6"/>
+    </row>
+    <row r="275" spans="2:3" ht="21">
+      <c r="B275" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="C275" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="21">
-      <c r="A276" s="4" t="s">
+    <row r="276" spans="2:3" ht="21">
+      <c r="B276" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="C276" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="21">
-      <c r="A277" s="4" t="s">
+    <row r="277" spans="2:3" ht="21">
+      <c r="B277" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="C277" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="21">
-      <c r="A278" s="4" t="s">
+    <row r="278" spans="2:3" ht="21">
+      <c r="B278" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="C278" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="21">
-      <c r="A279" s="4" t="s">
+    <row r="279" spans="2:3" ht="21">
+      <c r="B279" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="C279" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="21">
-      <c r="A280" s="4" t="s">
+    <row r="280" spans="2:3" ht="21">
+      <c r="B280" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="C280" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="21">
-      <c r="A281" s="4" t="s">
+    <row r="281" spans="2:3" ht="21">
+      <c r="B281" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="C281" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="21">
-      <c r="A282" s="4" t="s">
+    <row r="282" spans="2:3" ht="21">
+      <c r="B282" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="C282" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="21">
-      <c r="A283" s="4" t="s">
+    <row r="283" spans="2:3" ht="21">
+      <c r="B283" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="C283" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="21">
-      <c r="A284" s="4" t="s">
+    <row r="284" spans="2:3" ht="21">
+      <c r="B284" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="C284" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="21">
-      <c r="A285" s="4" t="s">
+    <row r="285" spans="2:3" ht="21">
+      <c r="B285" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="C285" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="21">
-      <c r="A286" s="4" t="s">
+    <row r="286" spans="2:3" ht="21">
+      <c r="B286" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="C286" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="21">
-      <c r="A287" s="4" t="s">
+    <row r="287" spans="2:3" ht="21">
+      <c r="B287" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="C287" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="21">
-      <c r="A288" s="4" t="s">
+    <row r="288" spans="2:3" ht="21">
+      <c r="B288" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="C288" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="21">
-      <c r="A289" s="4" t="s">
+    <row r="289" spans="2:3" ht="21">
+      <c r="B289" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="C289" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="21">
-      <c r="A290" s="4" t="s">
+    <row r="290" spans="2:3" ht="21">
+      <c r="B290" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="C290" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="21">
-      <c r="A291" s="4" t="s">
+    <row r="291" spans="2:3" ht="21">
+      <c r="B291" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="C291" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="21">
-      <c r="A292" s="4" t="s">
+    <row r="292" spans="2:3" ht="21">
+      <c r="B292" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="C292" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="21">
-      <c r="A293" s="4" t="s">
+    <row r="293" spans="2:3" ht="21">
+      <c r="B293" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="C293" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="21">
-      <c r="B294" s="6"/>
-    </row>
-    <row r="295" spans="1:2" ht="21">
-      <c r="B295" s="6"/>
-    </row>
-    <row r="296" spans="1:2" ht="21">
-      <c r="A296" s="4" t="s">
+    <row r="294" spans="2:3" ht="21">
+      <c r="C294" s="6"/>
+    </row>
+    <row r="295" spans="2:3" ht="21">
+      <c r="C295" s="6"/>
+    </row>
+    <row r="296" spans="2:3" ht="21">
+      <c r="B296" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="C296" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="21">
-      <c r="A297" s="4" t="s">
+    <row r="297" spans="2:3" ht="21">
+      <c r="B297" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B297" s="5" t="s">
+      <c r="C297" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="21">
-      <c r="A298" s="4" t="s">
+    <row r="298" spans="2:3" ht="21">
+      <c r="B298" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="C298" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="21">
-      <c r="A299" s="4" t="s">
+    <row r="299" spans="2:3" ht="21">
+      <c r="B299" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="C299" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="21">
-      <c r="A300" s="4" t="s">
+    <row r="300" spans="2:3" ht="21">
+      <c r="B300" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="C300" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="21">
-      <c r="A301" s="4" t="s">
+    <row r="301" spans="2:3" ht="21">
+      <c r="B301" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="C301" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="21">
-      <c r="A302" s="4" t="s">
+    <row r="302" spans="2:3" ht="21">
+      <c r="B302" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B302" s="5" t="s">
+      <c r="C302" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="21">
-      <c r="A303" s="4" t="s">
+    <row r="303" spans="2:3" ht="21">
+      <c r="B303" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="C303" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="21">
-      <c r="A304" s="4" t="s">
+    <row r="304" spans="2:3" ht="21">
+      <c r="B304" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B304" s="5" t="s">
+      <c r="C304" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="21">
-      <c r="A305" s="4" t="s">
+    <row r="305" spans="2:3" ht="21">
+      <c r="B305" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B305" s="5" t="s">
+      <c r="C305" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="21">
-      <c r="A306" s="4" t="s">
+    <row r="306" spans="2:3" ht="21">
+      <c r="B306" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B306" s="5" t="s">
+      <c r="C306" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="21">
-      <c r="A307" s="4" t="s">
+    <row r="307" spans="2:3" ht="21">
+      <c r="B307" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B307" s="5" t="s">
+      <c r="C307" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="21">
-      <c r="A308" s="4" t="s">
+    <row r="308" spans="2:3" ht="21">
+      <c r="B308" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="C308" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="21">
-      <c r="A309" s="4" t="s">
+    <row r="309" spans="2:3" ht="21">
+      <c r="B309" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B309" s="8" t="s">
+      <c r="C309" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="21">
-      <c r="A310" s="4" t="s">
+    <row r="310" spans="2:3" ht="21">
+      <c r="B310" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B310" s="5" t="s">
+      <c r="C310" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="21">
-      <c r="A311" s="4" t="s">
+    <row r="311" spans="2:3" ht="21">
+      <c r="B311" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B311" s="5" t="s">
+      <c r="C311" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="21">
-      <c r="A312" s="4" t="s">
+    <row r="312" spans="2:3" ht="21">
+      <c r="B312" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="C312" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="21">
-      <c r="A313" s="4" t="s">
+    <row r="313" spans="2:3" ht="21">
+      <c r="B313" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B313" s="5" t="s">
+      <c r="C313" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="21">
-      <c r="A314" s="4" t="s">
+    <row r="314" spans="2:3" ht="21">
+      <c r="B314" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B314" s="5" t="s">
+      <c r="C314" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="21">
-      <c r="A315" s="4" t="s">
+    <row r="315" spans="2:3" ht="21">
+      <c r="B315" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B315" s="5" t="s">
+      <c r="C315" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="21">
-      <c r="A316" s="4" t="s">
+    <row r="316" spans="2:3" ht="21">
+      <c r="B316" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B316" s="5" t="s">
+      <c r="C316" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="21">
-      <c r="A317" s="4" t="s">
+    <row r="317" spans="2:3" ht="21">
+      <c r="B317" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="C317" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="21">
-      <c r="A318" s="4" t="s">
+    <row r="318" spans="2:3" ht="21">
+      <c r="B318" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B318" s="5" t="s">
+      <c r="C318" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="21">
-      <c r="A319" s="4" t="s">
+    <row r="319" spans="2:3" ht="21">
+      <c r="B319" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="C319" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="21">
-      <c r="A320" s="4" t="s">
+    <row r="320" spans="2:3" ht="21">
+      <c r="B320" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="C320" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="21">
-      <c r="A321" s="4" t="s">
+    <row r="321" spans="2:3" ht="21">
+      <c r="B321" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="C321" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="21">
-      <c r="A322" s="4" t="s">
+    <row r="322" spans="2:3" ht="21">
+      <c r="B322" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="C322" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="21">
-      <c r="A323" s="4" t="s">
+    <row r="323" spans="2:3" ht="21">
+      <c r="B323" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B323" s="5" t="s">
+      <c r="C323" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="21">
-      <c r="A324" s="4" t="s">
+    <row r="324" spans="2:3" ht="21">
+      <c r="B324" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="C324" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="21">
-      <c r="A325" s="4" t="s">
+    <row r="325" spans="2:3" ht="21">
+      <c r="B325" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B325" s="5" t="s">
+      <c r="C325" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="21">
-      <c r="A326" s="4" t="s">
+    <row r="326" spans="2:3" ht="21">
+      <c r="B326" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="C326" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="21">
-      <c r="A327" s="4" t="s">
+    <row r="327" spans="2:3" ht="21">
+      <c r="B327" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="C327" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="21">
-      <c r="A328" s="4" t="s">
+    <row r="328" spans="2:3" ht="21">
+      <c r="B328" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="C328" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="21">
-      <c r="A329" s="4" t="s">
+    <row r="329" spans="2:3" ht="21">
+      <c r="B329" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="C329" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="21">
-      <c r="A330" s="4" t="s">
+    <row r="330" spans="2:3" ht="21">
+      <c r="B330" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="C330" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="21">
-      <c r="A331" s="4" t="s">
+    <row r="331" spans="2:3" ht="21">
+      <c r="B331" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="C331" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="21">
-      <c r="A332" s="4" t="s">
+    <row r="332" spans="2:3" ht="21">
+      <c r="B332" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B332" s="5" t="s">
+      <c r="C332" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="21">
-      <c r="A333" s="4" t="s">
+    <row r="333" spans="2:3" ht="21">
+      <c r="B333" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B333" s="5" t="s">
+      <c r="C333" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="21">
-      <c r="B334" s="6"/>
-    </row>
-    <row r="335" spans="1:2" ht="21">
-      <c r="B335" s="6"/>
-    </row>
-    <row r="336" spans="1:2" ht="21">
-      <c r="A336" s="7" t="s">
+    <row r="334" spans="2:3" ht="21">
+      <c r="C334" s="6"/>
+    </row>
+    <row r="335" spans="2:3" ht="21">
+      <c r="C335" s="6"/>
+    </row>
+    <row r="336" spans="2:3" ht="21">
+      <c r="B336" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B336" s="5" t="s">
+      <c r="C336" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="21">
-      <c r="A337" s="7" t="s">
+    <row r="337" spans="2:3" ht="21">
+      <c r="B337" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B337" s="5" t="s">
+      <c r="C337" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="21">
-      <c r="A338" s="7" t="s">
+    <row r="338" spans="2:3" ht="21">
+      <c r="B338" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B338" s="5" t="s">
+      <c r="C338" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="21">
-      <c r="A339" s="7" t="s">
+    <row r="339" spans="2:3" ht="21">
+      <c r="B339" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B339" s="5" t="s">
+      <c r="C339" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="21">
-      <c r="A340" s="7" t="s">
+    <row r="340" spans="2:3" ht="21">
+      <c r="B340" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B340" s="5" t="s">
+      <c r="C340" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="21">
-      <c r="A341" s="7" t="s">
+    <row r="341" spans="2:3" ht="21">
+      <c r="B341" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="C341" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="21">
-      <c r="A342" s="7" t="s">
+    <row r="342" spans="2:3" ht="21">
+      <c r="B342" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="C342" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="21">
-      <c r="A343" s="7" t="s">
+    <row r="343" spans="2:3" ht="21">
+      <c r="B343" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="C343" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="21">
-      <c r="A344" s="7" t="s">
+    <row r="344" spans="2:3" ht="21">
+      <c r="B344" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B344" s="8" t="s">
+      <c r="C344" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="21">
-      <c r="A345" s="7" t="s">
+    <row r="345" spans="2:3" ht="21">
+      <c r="B345" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B345" s="5" t="s">
+      <c r="C345" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="21">
-      <c r="A346" s="7" t="s">
+    <row r="346" spans="2:3" ht="21">
+      <c r="B346" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="C346" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="21">
-      <c r="A347" s="7" t="s">
+    <row r="347" spans="2:3" ht="21">
+      <c r="B347" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B347" s="5" t="s">
+      <c r="C347" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="21">
-      <c r="A348" s="7" t="s">
+    <row r="348" spans="2:3" ht="21">
+      <c r="B348" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B348" s="5" t="s">
+      <c r="C348" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="21">
-      <c r="A349" s="7" t="s">
+    <row r="349" spans="2:3" ht="21">
+      <c r="B349" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="C349" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="21">
-      <c r="A350" s="7" t="s">
+    <row r="350" spans="2:3" ht="21">
+      <c r="B350" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B350" s="5" t="s">
+      <c r="C350" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="21">
-      <c r="A351" s="7" t="s">
+    <row r="351" spans="2:3" ht="21">
+      <c r="B351" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="C351" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="21">
-      <c r="A352" s="7" t="s">
+    <row r="352" spans="2:3" ht="21">
+      <c r="B352" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="C352" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="21">
-      <c r="A353" s="7" t="s">
+    <row r="353" spans="2:3" ht="21">
+      <c r="B353" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B353" s="5" t="s">
+      <c r="C353" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="21">
-      <c r="B354" s="6"/>
-    </row>
-    <row r="355" spans="1:2" ht="21">
-      <c r="B355" s="6"/>
-    </row>
-    <row r="356" spans="1:2" ht="21">
-      <c r="A356" s="7" t="s">
+    <row r="354" spans="2:3" ht="21">
+      <c r="C354" s="6"/>
+    </row>
+    <row r="355" spans="2:3" ht="21">
+      <c r="C355" s="6"/>
+    </row>
+    <row r="356" spans="2:3" ht="21">
+      <c r="B356" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="C356" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="21">
-      <c r="A357" s="7" t="s">
+    <row r="357" spans="2:3" ht="21">
+      <c r="B357" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B357" s="5" t="s">
+      <c r="C357" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="21">
-      <c r="A358" s="7" t="s">
+    <row r="358" spans="2:3" ht="21">
+      <c r="B358" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="C358" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="21">
-      <c r="A359" s="7" t="s">
+    <row r="359" spans="2:3" ht="21">
+      <c r="B359" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B359" s="5" t="s">
+      <c r="C359" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="21">
-      <c r="A360" s="7" t="s">
+    <row r="360" spans="2:3" ht="21">
+      <c r="B360" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B360" s="5" t="s">
+      <c r="C360" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="21">
-      <c r="A361" s="7" t="s">
+    <row r="361" spans="2:3" ht="21">
+      <c r="B361" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B361" s="5" t="s">
+      <c r="C361" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="21">
-      <c r="A362" s="7" t="s">
+    <row r="362" spans="2:3" ht="21">
+      <c r="B362" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B362" s="5" t="s">
+      <c r="C362" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="21">
-      <c r="A363" s="7" t="s">
+    <row r="363" spans="2:3" ht="21">
+      <c r="B363" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="C363" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="21">
-      <c r="A364" s="7" t="s">
+    <row r="364" spans="2:3" ht="21">
+      <c r="B364" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B364" s="5" t="s">
+      <c r="C364" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="21">
-      <c r="A365" s="7" t="s">
+    <row r="365" spans="2:3" ht="21">
+      <c r="B365" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B365" s="5" t="s">
+      <c r="C365" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="21">
-      <c r="A366" s="7" t="s">
+    <row r="366" spans="2:3" ht="21">
+      <c r="B366" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B366" s="5" t="s">
+      <c r="C366" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="21">
-      <c r="A367" s="7" t="s">
+    <row r="367" spans="2:3" ht="21">
+      <c r="B367" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B367" s="5" t="s">
+      <c r="C367" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="21">
-      <c r="A368" s="7" t="s">
+    <row r="368" spans="2:3" ht="21">
+      <c r="B368" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="C368" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="21">
-      <c r="A369" s="7" t="s">
+    <row r="369" spans="2:3" ht="21">
+      <c r="B369" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="C369" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="21">
-      <c r="A370" s="7" t="s">
+    <row r="370" spans="2:3" ht="21">
+      <c r="B370" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="C370" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="21">
-      <c r="A371" s="7" t="s">
+    <row r="371" spans="2:3" ht="21">
+      <c r="B371" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B371" s="5" t="s">
+      <c r="C371" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="21">
-      <c r="A372" s="7" t="s">
+    <row r="372" spans="2:3" ht="21">
+      <c r="B372" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="C372" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="21">
-      <c r="A373" s="7" t="s">
+    <row r="373" spans="2:3" ht="21">
+      <c r="B373" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="C373" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="21">
-      <c r="A374" s="7" t="s">
+    <row r="374" spans="2:3" ht="21">
+      <c r="B374" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B374" s="5" t="s">
+      <c r="C374" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="21">
-      <c r="A375" s="7" t="s">
+    <row r="375" spans="2:3" ht="21">
+      <c r="B375" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="C375" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="21">
-      <c r="A376" s="7" t="s">
+    <row r="376" spans="2:3" ht="21">
+      <c r="B376" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="C376" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="21">
-      <c r="A377" s="7" t="s">
+    <row r="377" spans="2:3" ht="21">
+      <c r="B377" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B377" s="5" t="s">
+      <c r="C377" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="21">
-      <c r="A378" s="7" t="s">
+    <row r="378" spans="2:3" ht="21">
+      <c r="B378" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B378" s="5" t="s">
+      <c r="C378" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="21">
-      <c r="A379" s="7" t="s">
+    <row r="379" spans="2:3" ht="21">
+      <c r="B379" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="C379" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="21">
-      <c r="A380" s="7" t="s">
+    <row r="380" spans="2:3" ht="21">
+      <c r="B380" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B380" s="5" t="s">
+      <c r="C380" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="21">
-      <c r="A381" s="7" t="s">
+    <row r="381" spans="2:3" ht="21">
+      <c r="B381" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B381" s="5" t="s">
+      <c r="C381" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="21">
-      <c r="A382" s="7" t="s">
+    <row r="382" spans="2:3" ht="21">
+      <c r="B382" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B382" s="5" t="s">
+      <c r="C382" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="21">
-      <c r="A383" s="7" t="s">
+    <row r="383" spans="2:3" ht="21">
+      <c r="B383" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B383" s="5" t="s">
+      <c r="C383" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="21">
-      <c r="A384" s="7" t="s">
+    <row r="384" spans="2:3" ht="21">
+      <c r="B384" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="C384" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="21">
-      <c r="A385" s="7" t="s">
+    <row r="385" spans="2:3" ht="21">
+      <c r="B385" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="C385" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="21">
-      <c r="A386" s="7" t="s">
+    <row r="386" spans="2:3" ht="21">
+      <c r="B386" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B386" s="5" t="s">
+      <c r="C386" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="21">
-      <c r="A387" s="7" t="s">
+    <row r="387" spans="2:3" ht="21">
+      <c r="B387" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B387" s="5" t="s">
+      <c r="C387" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="21">
-      <c r="A388" s="7" t="s">
+    <row r="388" spans="2:3" ht="21">
+      <c r="B388" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B388" s="5" t="s">
+      <c r="C388" s="5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="21">
-      <c r="A389" s="7" t="s">
+    <row r="389" spans="2:3" ht="21">
+      <c r="B389" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B389" s="5" t="s">
+      <c r="C389" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="21">
-      <c r="A390" s="7" t="s">
+    <row r="390" spans="2:3" ht="21">
+      <c r="B390" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B390" s="5" t="s">
+      <c r="C390" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="21">
-      <c r="A391" s="7" t="s">
+    <row r="391" spans="2:3" ht="21">
+      <c r="B391" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B391" s="5" t="s">
+      <c r="C391" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="21">
-      <c r="A392" s="7" t="s">
+    <row r="392" spans="2:3" ht="21">
+      <c r="B392" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="C392" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="21">
-      <c r="A393" s="7" t="s">
+    <row r="393" spans="2:3" ht="21">
+      <c r="B393" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="C393" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="21">
-      <c r="A394" s="7" t="s">
+    <row r="394" spans="2:3" ht="21">
+      <c r="B394" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="C394" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="21">
-      <c r="A395" s="7" t="s">
+    <row r="395" spans="2:3" ht="21">
+      <c r="B395" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="C395" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="21">
-      <c r="A396" s="7" t="s">
+    <row r="396" spans="2:3" ht="21">
+      <c r="B396" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="C396" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="21">
-      <c r="A397" s="7" t="s">
+    <row r="397" spans="2:3" ht="21">
+      <c r="B397" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="C397" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="21">
-      <c r="A398" s="7" t="s">
+    <row r="398" spans="2:3" ht="21">
+      <c r="B398" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B398" s="5" t="s">
+      <c r="C398" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="21">
-      <c r="A399" s="7" t="s">
+    <row r="399" spans="2:3" ht="21">
+      <c r="B399" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B399" s="5" t="s">
+      <c r="C399" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="21">
-      <c r="B400" s="6"/>
-    </row>
-    <row r="401" spans="1:2" ht="21">
-      <c r="B401" s="6"/>
-    </row>
-    <row r="402" spans="1:2" ht="21">
-      <c r="A402" s="7" t="s">
+    <row r="400" spans="2:3" ht="21">
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" spans="2:3" ht="21">
+      <c r="C401" s="6"/>
+    </row>
+    <row r="402" spans="2:3" ht="21">
+      <c r="B402" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B402" s="5" t="s">
+      <c r="C402" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="21">
-      <c r="A403" s="7" t="s">
+    <row r="403" spans="2:3" ht="21">
+      <c r="B403" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B403" s="5" t="s">
+      <c r="C403" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="21">
-      <c r="A404" s="7" t="s">
+    <row r="404" spans="2:3" ht="21">
+      <c r="B404" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B404" s="5" t="s">
+      <c r="C404" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="21">
-      <c r="A405" s="7" t="s">
+    <row r="405" spans="2:3" ht="21">
+      <c r="B405" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B405" s="5" t="s">
+      <c r="C405" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="21">
-      <c r="A406" s="7" t="s">
+    <row r="406" spans="2:3" ht="21">
+      <c r="B406" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B406" s="5" t="s">
+      <c r="C406" s="5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="21">
-      <c r="A407" s="7" t="s">
+    <row r="407" spans="2:3" ht="21">
+      <c r="B407" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B407" s="5" t="s">
+      <c r="C407" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="21">
-      <c r="B408" s="6"/>
-    </row>
-    <row r="409" spans="1:2" ht="21">
-      <c r="B409" s="6"/>
-    </row>
-    <row r="410" spans="1:2" ht="21">
-      <c r="A410" s="4" t="s">
+    <row r="408" spans="2:3" ht="21">
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" spans="2:3" ht="21">
+      <c r="C409" s="6"/>
+    </row>
+    <row r="410" spans="2:3" ht="21">
+      <c r="B410" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B410" s="5" t="s">
+      <c r="C410" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="21">
-      <c r="A411" s="4" t="s">
+    <row r="411" spans="2:3" ht="21">
+      <c r="B411" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B411" s="5" t="s">
+      <c r="C411" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="21">
-      <c r="A412" s="4" t="s">
+    <row r="412" spans="2:3" ht="21">
+      <c r="B412" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B412" s="5" t="s">
+      <c r="C412" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="21">
-      <c r="A413" s="4" t="s">
+    <row r="413" spans="2:3" ht="21">
+      <c r="B413" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B413" s="5" t="s">
+      <c r="C413" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="21">
-      <c r="A414" s="4" t="s">
+    <row r="414" spans="2:3" ht="21">
+      <c r="B414" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B414" s="5" t="s">
+      <c r="C414" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="21">
-      <c r="A415" s="4" t="s">
+    <row r="415" spans="2:3" ht="21">
+      <c r="B415" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B415" s="5" t="s">
+      <c r="C415" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="21">
-      <c r="A416" s="4" t="s">
+    <row r="416" spans="2:3" ht="21">
+      <c r="B416" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B416" s="5" t="s">
+      <c r="C416" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="21">
-      <c r="A417" s="4" t="s">
+    <row r="417" spans="2:3" ht="21">
+      <c r="B417" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B417" s="5" t="s">
+      <c r="C417" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="21">
-      <c r="A418" s="4" t="s">
+    <row r="418" spans="2:3" ht="21">
+      <c r="B418" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B418" s="5" t="s">
+      <c r="C418" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="21">
-      <c r="A419" s="4" t="s">
+    <row r="419" spans="2:3" ht="21">
+      <c r="B419" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B419" s="5" t="s">
+      <c r="C419" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="21">
-      <c r="A420" s="4" t="s">
+    <row r="420" spans="2:3" ht="21">
+      <c r="B420" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B420" s="5" t="s">
+      <c r="C420" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="21">
-      <c r="A421" s="4" t="s">
+    <row r="421" spans="2:3" ht="21">
+      <c r="B421" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B421" s="5" t="s">
+      <c r="C421" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="21">
-      <c r="A422" s="4" t="s">
+    <row r="422" spans="2:3" ht="21">
+      <c r="B422" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B422" s="5" t="s">
+      <c r="C422" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="21">
-      <c r="A423" s="4" t="s">
+    <row r="423" spans="2:3" ht="21">
+      <c r="B423" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B423" s="5" t="s">
+      <c r="C423" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="21">
-      <c r="A424" s="4" t="s">
+    <row r="424" spans="2:3" ht="21">
+      <c r="B424" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B424" s="5" t="s">
+      <c r="C424" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="21">
-      <c r="A425" s="4" t="s">
+    <row r="425" spans="2:3" ht="21">
+      <c r="B425" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B425" s="5" t="s">
+      <c r="C425" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="21">
-      <c r="A426" s="4" t="s">
+    <row r="426" spans="2:3" ht="21">
+      <c r="B426" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B426" s="5" t="s">
+      <c r="C426" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="21">
-      <c r="A427" s="4" t="s">
+    <row r="427" spans="2:3" ht="21">
+      <c r="B427" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B427" s="5" t="s">
+      <c r="C427" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="21">
-      <c r="A428" s="4" t="s">
+    <row r="428" spans="2:3" ht="21">
+      <c r="B428" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B428" s="5" t="s">
+      <c r="C428" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="21">
-      <c r="A429" s="4" t="s">
+    <row r="429" spans="2:3" ht="21">
+      <c r="B429" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B429" s="5" t="s">
+      <c r="C429" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="21">
-      <c r="A430" s="4" t="s">
+    <row r="430" spans="2:3" ht="21">
+      <c r="B430" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B430" s="5" t="s">
+      <c r="C430" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="21">
-      <c r="A431" s="4" t="s">
+    <row r="431" spans="2:3" ht="21">
+      <c r="B431" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B431" s="5" t="s">
+      <c r="C431" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="21">
-      <c r="A432" s="4" t="s">
+    <row r="432" spans="2:3" ht="21">
+      <c r="B432" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B432" s="5" t="s">
+      <c r="C432" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="21">
-      <c r="A433" s="4" t="s">
+    <row r="433" spans="2:3" ht="21">
+      <c r="B433" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B433" s="5" t="s">
+      <c r="C433" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="21">
-      <c r="A434" s="4" t="s">
+    <row r="434" spans="2:3" ht="21">
+      <c r="B434" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B434" s="5" t="s">
+      <c r="C434" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="21">
-      <c r="A435" s="4" t="s">
+    <row r="435" spans="2:3" ht="21">
+      <c r="B435" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B435" s="5" t="s">
+      <c r="C435" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="21">
-      <c r="A436" s="4" t="s">
+    <row r="436" spans="2:3" ht="21">
+      <c r="B436" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B436" s="5" t="s">
+      <c r="C436" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="21">
-      <c r="A437" s="4" t="s">
+    <row r="437" spans="2:3" ht="21">
+      <c r="B437" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B437" s="5" t="s">
+      <c r="C437" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="21">
-      <c r="A438" s="4" t="s">
+    <row r="438" spans="2:3" ht="21">
+      <c r="B438" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B438" s="5" t="s">
+      <c r="C438" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="21">
-      <c r="A439" s="4" t="s">
+    <row r="439" spans="2:3" ht="21">
+      <c r="B439" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B439" s="5" t="s">
+      <c r="C439" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="21">
-      <c r="A440" s="4" t="s">
+    <row r="440" spans="2:3" ht="21">
+      <c r="B440" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B440" s="5" t="s">
+      <c r="C440" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="21">
-      <c r="A441" s="4" t="s">
+    <row r="441" spans="2:3" ht="21">
+      <c r="B441" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B441" s="5" t="s">
+      <c r="C441" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="21">
-      <c r="A442" s="4" t="s">
+    <row r="442" spans="2:3" ht="21">
+      <c r="B442" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B442" s="5" t="s">
+      <c r="C442" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="21">
-      <c r="A443" s="4" t="s">
+    <row r="443" spans="2:3" ht="21">
+      <c r="B443" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B443" s="5" t="s">
+      <c r="C443" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="21">
-      <c r="A444" s="4" t="s">
+    <row r="444" spans="2:3" ht="21">
+      <c r="B444" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B444" s="5" t="s">
+      <c r="C444" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="21">
-      <c r="A445" s="4" t="s">
+    <row r="445" spans="2:3" ht="21">
+      <c r="B445" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B445" s="5" t="s">
+      <c r="C445" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="21">
-      <c r="A446" s="4" t="s">
+    <row r="446" spans="2:3" ht="21">
+      <c r="B446" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B446" s="5" t="s">
+      <c r="C446" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="21">
-      <c r="A447" s="4" t="s">
+    <row r="447" spans="2:3" ht="21">
+      <c r="B447" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B447" s="5" t="s">
+      <c r="C447" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="21">
-      <c r="A448" s="4" t="s">
+    <row r="448" spans="2:3" ht="21">
+      <c r="B448" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B448" s="5" t="s">
+      <c r="C448" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="21">
-      <c r="A449" s="4" t="s">
+    <row r="449" spans="2:3" ht="21">
+      <c r="B449" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B449" s="5" t="s">
+      <c r="C449" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="21">
-      <c r="A450" s="4" t="s">
+    <row r="450" spans="2:3" ht="21">
+      <c r="B450" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B450" s="5" t="s">
+      <c r="C450" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="21">
-      <c r="A451" s="4" t="s">
+    <row r="451" spans="2:3" ht="21">
+      <c r="B451" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B451" s="5" t="s">
+      <c r="C451" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="21">
-      <c r="A452" s="4" t="s">
+    <row r="452" spans="2:3" ht="21">
+      <c r="B452" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B452" s="5" t="s">
+      <c r="C452" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="21">
-      <c r="A453" s="4" t="s">
+    <row r="453" spans="2:3" ht="21">
+      <c r="B453" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B453" s="5" t="s">
+      <c r="C453" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="21">
-      <c r="A454" s="4" t="s">
+    <row r="454" spans="2:3" ht="21">
+      <c r="B454" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B454" s="5" t="s">
+      <c r="C454" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="21">
-      <c r="A455" s="4" t="s">
+    <row r="455" spans="2:3" ht="21">
+      <c r="B455" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B455" s="5" t="s">
+      <c r="C455" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="21">
-      <c r="A456" s="4" t="s">
+    <row r="456" spans="2:3" ht="21">
+      <c r="B456" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B456" s="5" t="s">
+      <c r="C456" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="21">
-      <c r="A457" s="4" t="s">
+    <row r="457" spans="2:3" ht="21">
+      <c r="B457" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B457" s="5" t="s">
+      <c r="C457" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="21">
-      <c r="A458" s="4" t="s">
+    <row r="458" spans="2:3" ht="21">
+      <c r="B458" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B458" s="5" t="s">
+      <c r="C458" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="21">
-      <c r="A459" s="4" t="s">
+    <row r="459" spans="2:3" ht="21">
+      <c r="B459" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B459" s="5" t="s">
+      <c r="C459" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="21">
-      <c r="A460" s="4" t="s">
+    <row r="460" spans="2:3" ht="21">
+      <c r="B460" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B460" s="5" t="s">
+      <c r="C460" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="21">
-      <c r="A461" s="4" t="s">
+    <row r="461" spans="2:3" ht="21">
+      <c r="B461" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B461" s="5" t="s">
+      <c r="C461" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="21">
-      <c r="A462" s="4" t="s">
+    <row r="462" spans="2:3" ht="21">
+      <c r="B462" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B462" s="5" t="s">
+      <c r="C462" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="21">
-      <c r="A463" s="4" t="s">
+    <row r="463" spans="2:3" ht="21">
+      <c r="B463" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B463" s="5" t="s">
+      <c r="C463" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="21">
-      <c r="A464" s="4" t="s">
+    <row r="464" spans="2:3" ht="21">
+      <c r="B464" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B464" s="5" t="s">
+      <c r="C464" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="21">
-      <c r="A465" s="4" t="s">
+    <row r="465" spans="2:3" ht="21">
+      <c r="B465" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B465" s="5" t="s">
+      <c r="C465" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="21">
-      <c r="A466" s="4" t="s">
+    <row r="466" spans="2:3" ht="21">
+      <c r="B466" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B466" s="5" t="s">
+      <c r="C466" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="21">
-      <c r="A467" s="4" t="s">
+    <row r="467" spans="2:3" ht="21">
+      <c r="B467" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B467" s="5" t="s">
+      <c r="C467" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="21">
-      <c r="A468" s="4" t="s">
+    <row r="468" spans="2:3" ht="21">
+      <c r="B468" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B468" s="5" t="s">
+      <c r="C468" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="21">
-      <c r="A469" s="4" t="s">
+    <row r="469" spans="2:3" ht="21">
+      <c r="B469" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B469" s="5" t="s">
+      <c r="C469" s="5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="21">
-      <c r="B470" s="6"/>
-    </row>
-    <row r="471" spans="1:2" ht="21">
-      <c r="A471" s="7"/>
-      <c r="B471" s="6"/>
-    </row>
-    <row r="472" spans="1:2" ht="21">
-      <c r="A472" s="4" t="s">
+    <row r="470" spans="2:3" ht="21">
+      <c r="C470" s="6"/>
+    </row>
+    <row r="471" spans="2:3" ht="21">
+      <c r="B471" s="7"/>
+      <c r="C471" s="6"/>
+    </row>
+    <row r="472" spans="2:3" ht="21">
+      <c r="B472" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B472" s="5" t="s">
+      <c r="C472" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="21">
-      <c r="A473" s="4" t="s">
+    <row r="473" spans="2:3" ht="21">
+      <c r="B473" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B473" s="5" t="s">
+      <c r="C473" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="21">
-      <c r="A474" s="4" t="s">
+    <row r="474" spans="2:3" ht="21">
+      <c r="B474" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B474" s="5" t="s">
+      <c r="C474" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="21">
-      <c r="A475" s="4" t="s">
+    <row r="475" spans="2:3" ht="21">
+      <c r="B475" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B475" s="5" t="s">
+      <c r="C475" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="21">
-      <c r="A476" s="4" t="s">
+    <row r="476" spans="2:3" ht="21">
+      <c r="B476" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B476" s="5" t="s">
+      <c r="C476" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="21">
-      <c r="A477" s="4" t="s">
+    <row r="477" spans="2:3" ht="21">
+      <c r="B477" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B477" s="5" t="s">
+      <c r="C477" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="21">
-      <c r="A478" s="4" t="s">
+    <row r="478" spans="2:3" ht="21">
+      <c r="B478" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B478" s="5" t="s">
+      <c r="C478" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="21">
-      <c r="A479" s="4" t="s">
+    <row r="479" spans="2:3" ht="21">
+      <c r="B479" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B479" s="5" t="s">
+      <c r="C479" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="21">
-      <c r="A480" s="4" t="s">
+    <row r="480" spans="2:3" ht="21">
+      <c r="B480" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B480" s="5" t="s">
+      <c r="C480" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="21">
-      <c r="A481" s="4" t="s">
+    <row r="481" spans="2:3" ht="21">
+      <c r="B481" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B481" s="5" t="s">
+      <c r="C481" s="5" t="s">
         <v>461</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="C29" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="C30" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="C31" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="C32" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="C33" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="C34" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="C35" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="C36" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="C37" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="C38" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="C39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="C40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="C41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="C45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="C48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="C49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA954E2-FA02-49A0-A267-195B2374849C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1835B8B-CEF9-4460-9E20-7391EBD6EF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,18 @@
   </si>
   <si>
     <t>Y(IMP)</t>
+  </si>
+  <si>
+    <t>(K sorted array)</t>
+  </si>
+  <si>
+    <t>Must repeate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redo with Heap </t>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
 </sst>
 </file>
@@ -1934,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1946,6 +1958,7 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
     <col min="4" max="4" width="15.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
@@ -2126,7 +2139,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="17" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -2140,7 +2153,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="18" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -2154,7 +2167,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="19" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -2168,7 +2181,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="20" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -2182,7 +2195,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="21" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -2196,7 +2209,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="22" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -2210,7 +2223,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="23" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -2224,7 +2237,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="24" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -2238,7 +2251,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="25" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -2252,7 +2265,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="26" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -2266,7 +2279,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="27" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -2280,7 +2293,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="28" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -2294,7 +2307,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="29" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -2308,7 +2321,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="30" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -2322,7 +2335,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21">
+    <row r="31" spans="1:5" ht="21">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -2332,8 +2345,11 @@
       <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="19" customFormat="1" ht="21">
+      <c r="E31" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -2347,7 +2363,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="33" spans="1:6" s="19" customFormat="1" ht="21">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -2361,7 +2377,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="34" spans="1:6" s="19" customFormat="1" ht="21">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -2375,7 +2391,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="35" spans="1:6" s="19" customFormat="1" ht="21">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -2389,7 +2405,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="36" spans="1:6" s="19" customFormat="1" ht="21">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -2403,7 +2419,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="37" spans="1:6" s="19" customFormat="1" ht="21">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -2417,7 +2433,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="38" spans="1:6" s="19" customFormat="1" ht="21">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -2431,7 +2447,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="39" spans="1:6" s="19" customFormat="1" ht="21">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -2445,7 +2461,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="40" spans="1:6" s="19" customFormat="1" ht="21">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -2459,7 +2475,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="19" customFormat="1" ht="21">
+    <row r="41" spans="1:6" s="19" customFormat="1" ht="21">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -2473,98 +2489,170 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21">
+    <row r="42" spans="1:6" ht="21">
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:4" ht="21">
+    <row r="43" spans="1:6" ht="21">
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:4" ht="21">
-      <c r="B44" s="7" t="s">
+    <row r="44" spans="1:6" s="19" customFormat="1" ht="21">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="21">
-      <c r="B45" s="7" t="s">
+      <c r="D44" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="19" customFormat="1" ht="21">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="21">
-      <c r="B46" s="7" t="s">
+      <c r="D45" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="19" customFormat="1" ht="21">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="21">
-      <c r="B47" s="7" t="s">
+      <c r="D46" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="19" customFormat="1" ht="21">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="21">
+      <c r="D47" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
       <c r="B48" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" ht="21">
-      <c r="B49" s="7" t="s">
+      <c r="E48" t="s">
+        <v>468</v>
+      </c>
+      <c r="F48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="19" customFormat="1" ht="21">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" ht="21">
-      <c r="B50" s="7" t="s">
+      <c r="D49" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="19" customFormat="1" ht="21">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" ht="21">
-      <c r="B51" s="7" t="s">
+      <c r="D50" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="19" customFormat="1" ht="21">
+      <c r="A51" s="3">
+        <v>8</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" ht="21">
-      <c r="B52" s="7" t="s">
+      <c r="D51" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="19" customFormat="1" ht="21">
+      <c r="A52" s="3">
+        <v>9</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" ht="21">
-      <c r="B53" s="7" t="s">
+      <c r="D52" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="19" customFormat="1" ht="21">
+      <c r="A53" s="3">
+        <v>10</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" ht="21">
+      <c r="D53" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21">
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="2:3" ht="21">
+    <row r="56" spans="1:5" ht="21">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
       <c r="B56" s="4" t="s">
         <v>51</v>
       </c>
@@ -2572,7 +2660,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="21">
+    <row r="57" spans="1:5" ht="21">
+      <c r="A57" s="3">
+        <v>2</v>
+      </c>
       <c r="B57" s="4" t="s">
         <v>51</v>
       </c>
@@ -2580,7 +2671,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="21">
+    <row r="58" spans="1:5" ht="21">
+      <c r="A58" s="3">
+        <v>3</v>
+      </c>
       <c r="B58" s="4" t="s">
         <v>51</v>
       </c>
@@ -2588,7 +2682,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="21">
+    <row r="59" spans="1:5" ht="21">
+      <c r="A59" s="3">
+        <v>4</v>
+      </c>
       <c r="B59" s="4" t="s">
         <v>51</v>
       </c>
@@ -2596,7 +2693,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="21">
+    <row r="60" spans="1:5" ht="21">
+      <c r="A60" s="3">
+        <v>5</v>
+      </c>
       <c r="B60" s="4" t="s">
         <v>51</v>
       </c>
@@ -2604,7 +2704,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="21">
+    <row r="61" spans="1:5" ht="21">
+      <c r="A61" s="3">
+        <v>6</v>
+      </c>
       <c r="B61" s="4" t="s">
         <v>51</v>
       </c>
@@ -2612,7 +2715,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="21">
+    <row r="62" spans="1:5" ht="21">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
       <c r="B62" s="4" t="s">
         <v>51</v>
       </c>
@@ -2620,7 +2726,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="21">
+    <row r="63" spans="1:5" ht="21">
+      <c r="A63" s="3">
+        <v>8</v>
+      </c>
       <c r="B63" s="4" t="s">
         <v>51</v>
       </c>
@@ -2628,7 +2737,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="21">
+    <row r="64" spans="1:5" ht="21">
+      <c r="A64" s="3">
+        <v>9</v>
+      </c>
       <c r="B64" s="4" t="s">
         <v>51</v>
       </c>
@@ -2636,7 +2748,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="21">
+    <row r="65" spans="1:3" ht="21">
+      <c r="A65" s="3">
+        <v>10</v>
+      </c>
       <c r="B65" s="4" t="s">
         <v>51</v>
       </c>
@@ -2644,7 +2759,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="21">
+    <row r="66" spans="1:3" ht="21">
+      <c r="A66" s="3">
+        <v>11</v>
+      </c>
       <c r="B66" s="4" t="s">
         <v>51</v>
       </c>
@@ -2652,7 +2770,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="21">
+    <row r="67" spans="1:3" ht="21">
+      <c r="A67" s="3">
+        <v>12</v>
+      </c>
       <c r="B67" s="4" t="s">
         <v>51</v>
       </c>
@@ -2660,7 +2781,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="21">
+    <row r="68" spans="1:3" ht="21">
+      <c r="A68" s="3">
+        <v>13</v>
+      </c>
       <c r="B68" s="4" t="s">
         <v>51</v>
       </c>
@@ -2668,7 +2792,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="21">
+    <row r="69" spans="1:3" ht="21">
+      <c r="A69" s="3">
+        <v>14</v>
+      </c>
       <c r="B69" s="4" t="s">
         <v>51</v>
       </c>
@@ -2676,7 +2803,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="21">
+    <row r="70" spans="1:3" ht="21">
+      <c r="A70" s="3">
+        <v>15</v>
+      </c>
       <c r="B70" s="4" t="s">
         <v>51</v>
       </c>
@@ -2684,7 +2814,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="21">
+    <row r="71" spans="1:3" ht="21">
+      <c r="A71" s="3">
+        <v>16</v>
+      </c>
       <c r="B71" s="4" t="s">
         <v>51</v>
       </c>
@@ -2692,7 +2825,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="21">
+    <row r="72" spans="1:3" ht="21">
+      <c r="A72" s="3">
+        <v>17</v>
+      </c>
       <c r="B72" s="4" t="s">
         <v>51</v>
       </c>
@@ -2700,7 +2836,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="21">
+    <row r="73" spans="1:3" ht="21">
+      <c r="A73" s="3">
+        <v>18</v>
+      </c>
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
@@ -2708,7 +2847,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="21">
+    <row r="74" spans="1:3" ht="21">
+      <c r="A74" s="3">
+        <v>19</v>
+      </c>
       <c r="B74" s="4" t="s">
         <v>51</v>
       </c>
@@ -2716,7 +2858,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="21">
+    <row r="75" spans="1:3" ht="21">
+      <c r="A75" s="3">
+        <v>20</v>
+      </c>
       <c r="B75" s="4" t="s">
         <v>51</v>
       </c>
@@ -2724,7 +2869,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="21">
+    <row r="76" spans="1:3" ht="21">
+      <c r="A76" s="3">
+        <v>21</v>
+      </c>
       <c r="B76" s="4" t="s">
         <v>51</v>
       </c>
@@ -2732,7 +2880,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="21">
+    <row r="77" spans="1:3" ht="21">
+      <c r="A77" s="3">
+        <v>22</v>
+      </c>
       <c r="B77" s="4" t="s">
         <v>51</v>
       </c>
@@ -2740,7 +2891,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="21">
+    <row r="78" spans="1:3" ht="21">
+      <c r="A78" s="3">
+        <v>23</v>
+      </c>
       <c r="B78" s="4" t="s">
         <v>51</v>
       </c>
@@ -2748,7 +2902,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="21">
+    <row r="79" spans="1:3" ht="21">
+      <c r="A79" s="3">
+        <v>24</v>
+      </c>
       <c r="B79" s="4" t="s">
         <v>51</v>
       </c>
@@ -2756,7 +2913,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="21">
+    <row r="80" spans="1:3" ht="21">
+      <c r="A80" s="3">
+        <v>25</v>
+      </c>
       <c r="B80" s="4" t="s">
         <v>51</v>
       </c>
@@ -2764,7 +2924,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="21">
+    <row r="81" spans="1:3" ht="21">
+      <c r="A81" s="3">
+        <v>26</v>
+      </c>
       <c r="B81" s="4" t="s">
         <v>51</v>
       </c>
@@ -2772,7 +2935,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="21">
+    <row r="82" spans="1:3" ht="21">
+      <c r="A82" s="3">
+        <v>27</v>
+      </c>
       <c r="B82" s="4" t="s">
         <v>51</v>
       </c>
@@ -2780,7 +2946,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="21">
+    <row r="83" spans="1:3" ht="21">
+      <c r="A83" s="3">
+        <v>28</v>
+      </c>
       <c r="B83" s="4" t="s">
         <v>51</v>
       </c>
@@ -2788,7 +2957,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="21">
+    <row r="84" spans="1:3" ht="21">
+      <c r="A84" s="3">
+        <v>29</v>
+      </c>
       <c r="B84" s="4" t="s">
         <v>51</v>
       </c>
@@ -2796,7 +2968,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="21">
+    <row r="85" spans="1:3" ht="21">
+      <c r="A85" s="3">
+        <v>30</v>
+      </c>
       <c r="B85" s="4" t="s">
         <v>51</v>
       </c>
@@ -2804,7 +2979,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="21">
+    <row r="86" spans="1:3" ht="21">
+      <c r="A86" s="3">
+        <v>31</v>
+      </c>
       <c r="B86" s="4" t="s">
         <v>51</v>
       </c>
@@ -2812,7 +2990,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="21">
+    <row r="87" spans="1:3" ht="21">
+      <c r="A87" s="3">
+        <v>32</v>
+      </c>
       <c r="B87" s="4" t="s">
         <v>51</v>
       </c>
@@ -2820,7 +3001,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="21">
+    <row r="88" spans="1:3" ht="21">
+      <c r="A88" s="3">
+        <v>33</v>
+      </c>
       <c r="B88" s="4" t="s">
         <v>51</v>
       </c>
@@ -2828,7 +3012,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="21">
+    <row r="89" spans="1:3" ht="21">
+      <c r="A89" s="3">
+        <v>34</v>
+      </c>
       <c r="B89" s="4" t="s">
         <v>51</v>
       </c>
@@ -2836,7 +3023,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="21">
+    <row r="90" spans="1:3" ht="21">
+      <c r="A90" s="3">
+        <v>35</v>
+      </c>
       <c r="B90" s="4" t="s">
         <v>51</v>
       </c>
@@ -2844,7 +3034,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="21">
+    <row r="91" spans="1:3" ht="21">
+      <c r="A91" s="3">
+        <v>36</v>
+      </c>
       <c r="B91" s="4" t="s">
         <v>51</v>
       </c>
@@ -2852,7 +3045,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="21">
+    <row r="92" spans="1:3" ht="21">
+      <c r="A92" s="3">
+        <v>37</v>
+      </c>
       <c r="B92" s="4" t="s">
         <v>51</v>
       </c>
@@ -2860,7 +3056,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="21">
+    <row r="93" spans="1:3" ht="21">
+      <c r="A93" s="3">
+        <v>38</v>
+      </c>
       <c r="B93" s="4" t="s">
         <v>51</v>
       </c>
@@ -2868,7 +3067,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="21">
+    <row r="94" spans="1:3" ht="21">
+      <c r="A94" s="3">
+        <v>39</v>
+      </c>
       <c r="B94" s="4" t="s">
         <v>51</v>
       </c>
@@ -2876,7 +3078,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="21">
+    <row r="95" spans="1:3" ht="21">
+      <c r="A95" s="3">
+        <v>40</v>
+      </c>
       <c r="B95" s="4" t="s">
         <v>51</v>
       </c>
@@ -2884,7 +3089,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="21">
+    <row r="96" spans="1:3" ht="21">
+      <c r="A96" s="3">
+        <v>41</v>
+      </c>
       <c r="B96" s="4" t="s">
         <v>51</v>
       </c>
@@ -2892,7 +3100,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="21">
+    <row r="97" spans="1:3" ht="21">
+      <c r="A97" s="3">
+        <v>42</v>
+      </c>
       <c r="B97" s="4" t="s">
         <v>51</v>
       </c>
@@ -2900,7 +3111,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="21">
+    <row r="98" spans="1:3" ht="21">
+      <c r="A98" s="3">
+        <v>43</v>
+      </c>
       <c r="B98" s="4" t="s">
         <v>51</v>
       </c>
@@ -2908,11 +3122,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="21">
+    <row r="100" spans="1:3" ht="21">
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="2:3" ht="21">
+    <row r="101" spans="1:3" ht="21">
       <c r="B101" s="4" t="s">
         <v>95</v>
       </c>
@@ -2920,7 +3134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="21">
+    <row r="102" spans="1:3" ht="21">
       <c r="B102" s="4" t="s">
         <v>95</v>
       </c>
@@ -2928,7 +3142,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="21">
+    <row r="103" spans="1:3" ht="21">
       <c r="B103" s="4" t="s">
         <v>95</v>
       </c>
@@ -2936,7 +3150,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="21">
+    <row r="104" spans="1:3" ht="21">
       <c r="B104" s="4" t="s">
         <v>95</v>
       </c>
@@ -2944,7 +3158,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="21">
+    <row r="105" spans="1:3" ht="21">
       <c r="B105" s="4" t="s">
         <v>95</v>
       </c>
@@ -2952,7 +3166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="21">
+    <row r="106" spans="1:3" ht="21">
       <c r="B106" s="4" t="s">
         <v>95</v>
       </c>
@@ -2960,7 +3174,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="21">
+    <row r="107" spans="1:3" ht="21">
       <c r="B107" s="4" t="s">
         <v>95</v>
       </c>
@@ -2968,7 +3182,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="21">
+    <row r="108" spans="1:3" ht="21">
       <c r="B108" s="4" t="s">
         <v>95</v>
       </c>
@@ -2976,7 +3190,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="21">
+    <row r="109" spans="1:3" ht="21">
       <c r="B109" s="4" t="s">
         <v>95</v>
       </c>
@@ -2984,7 +3198,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="21">
+    <row r="110" spans="1:3" ht="21">
       <c r="B110" s="4" t="s">
         <v>95</v>
       </c>
@@ -2992,7 +3206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="21">
+    <row r="111" spans="1:3" ht="21">
       <c r="B111" s="4" t="s">
         <v>95</v>
       </c>
@@ -3000,7 +3214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="21">
+    <row r="112" spans="1:3" ht="21">
       <c r="B112" s="4" t="s">
         <v>95</v>
       </c>
@@ -4821,7 +5035,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="321" spans="2:3" ht="21">
+    <row r="321" spans="1:3" ht="21">
       <c r="B321" s="4" t="s">
         <v>283</v>
       </c>
@@ -4829,7 +5043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="322" spans="2:3" ht="21">
+    <row r="322" spans="1:3" ht="21">
       <c r="B322" s="4" t="s">
         <v>283</v>
       </c>
@@ -4837,7 +5051,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="323" spans="2:3" ht="21">
+    <row r="323" spans="1:3" ht="21">
       <c r="B323" s="4" t="s">
         <v>283</v>
       </c>
@@ -4845,7 +5059,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="324" spans="2:3" ht="21">
+    <row r="324" spans="1:3" ht="21">
       <c r="B324" s="4" t="s">
         <v>283</v>
       </c>
@@ -4853,7 +5067,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="325" spans="2:3" ht="21">
+    <row r="325" spans="1:3" ht="21">
       <c r="B325" s="4" t="s">
         <v>283</v>
       </c>
@@ -4861,7 +5075,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="326" spans="2:3" ht="21">
+    <row r="326" spans="1:3" ht="21">
       <c r="B326" s="4" t="s">
         <v>283</v>
       </c>
@@ -4869,7 +5083,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="327" spans="2:3" ht="21">
+    <row r="327" spans="1:3" ht="21">
       <c r="B327" s="4" t="s">
         <v>283</v>
       </c>
@@ -4877,7 +5091,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="328" spans="2:3" ht="21">
+    <row r="328" spans="1:3" ht="21">
       <c r="B328" s="4" t="s">
         <v>283</v>
       </c>
@@ -4885,7 +5099,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="329" spans="2:3" ht="21">
+    <row r="329" spans="1:3" ht="21">
       <c r="B329" s="4" t="s">
         <v>283</v>
       </c>
@@ -4893,7 +5107,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="330" spans="2:3" ht="21">
+    <row r="330" spans="1:3" ht="21">
       <c r="B330" s="4" t="s">
         <v>283</v>
       </c>
@@ -4901,7 +5115,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="331" spans="2:3" ht="21">
+    <row r="331" spans="1:3" ht="21">
       <c r="B331" s="4" t="s">
         <v>283</v>
       </c>
@@ -4909,7 +5123,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="332" spans="2:3" ht="21">
+    <row r="332" spans="1:3" ht="21">
       <c r="B332" s="4" t="s">
         <v>283</v>
       </c>
@@ -4917,7 +5131,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="333" spans="2:3" ht="21">
+    <row r="333" spans="1:3" ht="21">
       <c r="B333" s="4" t="s">
         <v>283</v>
       </c>
@@ -4925,13 +5139,16 @@
         <v>321</v>
       </c>
     </row>
-    <row r="334" spans="2:3" ht="21">
+    <row r="334" spans="1:3" ht="21">
       <c r="C334" s="6"/>
     </row>
-    <row r="335" spans="2:3" ht="21">
+    <row r="335" spans="1:3" ht="21">
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="2:3" ht="21">
+    <row r="336" spans="1:3" ht="21">
+      <c r="A336" s="3">
+        <v>1</v>
+      </c>
       <c r="B336" s="7" t="s">
         <v>322</v>
       </c>
@@ -4939,7 +5156,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="337" spans="2:3" ht="21">
+    <row r="337" spans="1:3" ht="21">
+      <c r="A337" s="3">
+        <v>2</v>
+      </c>
       <c r="B337" s="7" t="s">
         <v>322</v>
       </c>
@@ -4947,7 +5167,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="338" spans="2:3" ht="21">
+    <row r="338" spans="1:3" ht="21">
+      <c r="A338" s="3">
+        <v>3</v>
+      </c>
       <c r="B338" s="7" t="s">
         <v>322</v>
       </c>
@@ -4955,7 +5178,10 @@
         <v>325</v>
       </c>
     </row>
-    <row r="339" spans="2:3" ht="21">
+    <row r="339" spans="1:3" ht="21">
+      <c r="A339" s="3">
+        <v>4</v>
+      </c>
       <c r="B339" s="7" t="s">
         <v>322</v>
       </c>
@@ -4963,7 +5189,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="340" spans="2:3" ht="21">
+    <row r="340" spans="1:3" ht="21">
+      <c r="A340" s="3">
+        <v>5</v>
+      </c>
       <c r="B340" s="7" t="s">
         <v>322</v>
       </c>
@@ -4971,7 +5200,10 @@
         <v>327</v>
       </c>
     </row>
-    <row r="341" spans="2:3" ht="21">
+    <row r="341" spans="1:3" ht="21">
+      <c r="A341" s="3">
+        <v>6</v>
+      </c>
       <c r="B341" s="7" t="s">
         <v>322</v>
       </c>
@@ -4979,7 +5211,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="342" spans="2:3" ht="21">
+    <row r="342" spans="1:3" ht="21">
+      <c r="A342" s="3">
+        <v>7</v>
+      </c>
       <c r="B342" s="7" t="s">
         <v>322</v>
       </c>
@@ -4987,7 +5222,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="343" spans="2:3" ht="21">
+    <row r="343" spans="1:3" ht="21">
+      <c r="A343" s="3">
+        <v>8</v>
+      </c>
       <c r="B343" s="7" t="s">
         <v>322</v>
       </c>
@@ -4995,7 +5233,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="344" spans="2:3" ht="21">
+    <row r="344" spans="1:3" ht="21">
+      <c r="A344" s="3">
+        <v>9</v>
+      </c>
       <c r="B344" s="7" t="s">
         <v>322</v>
       </c>
@@ -5003,7 +5244,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="345" spans="2:3" ht="21">
+    <row r="345" spans="1:3" ht="21">
+      <c r="A345" s="3">
+        <v>10</v>
+      </c>
       <c r="B345" s="7" t="s">
         <v>322</v>
       </c>
@@ -5011,7 +5255,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="346" spans="2:3" ht="21">
+    <row r="346" spans="1:3" ht="21">
+      <c r="A346" s="3">
+        <v>11</v>
+      </c>
       <c r="B346" s="7" t="s">
         <v>322</v>
       </c>
@@ -5019,7 +5266,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="347" spans="2:3" ht="21">
+    <row r="347" spans="1:3" ht="21">
+      <c r="A347" s="3">
+        <v>12</v>
+      </c>
       <c r="B347" s="7" t="s">
         <v>322</v>
       </c>
@@ -5027,7 +5277,10 @@
         <v>334</v>
       </c>
     </row>
-    <row r="348" spans="2:3" ht="21">
+    <row r="348" spans="1:3" ht="21">
+      <c r="A348" s="3">
+        <v>13</v>
+      </c>
       <c r="B348" s="7" t="s">
         <v>322</v>
       </c>
@@ -5035,7 +5288,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="349" spans="2:3" ht="21">
+    <row r="349" spans="1:3" ht="21">
+      <c r="A349" s="3">
+        <v>14</v>
+      </c>
       <c r="B349" s="7" t="s">
         <v>322</v>
       </c>
@@ -5043,7 +5299,10 @@
         <v>336</v>
       </c>
     </row>
-    <row r="350" spans="2:3" ht="21">
+    <row r="350" spans="1:3" ht="21">
+      <c r="A350" s="3">
+        <v>15</v>
+      </c>
       <c r="B350" s="7" t="s">
         <v>322</v>
       </c>
@@ -5051,7 +5310,10 @@
         <v>337</v>
       </c>
     </row>
-    <row r="351" spans="2:3" ht="21">
+    <row r="351" spans="1:3" ht="21">
+      <c r="A351" s="3">
+        <v>16</v>
+      </c>
       <c r="B351" s="7" t="s">
         <v>322</v>
       </c>
@@ -5059,7 +5321,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="21">
+    <row r="352" spans="1:3" ht="21">
+      <c r="A352" s="3">
+        <v>17</v>
+      </c>
       <c r="B352" s="7" t="s">
         <v>322</v>
       </c>
@@ -5067,7 +5332,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="353" spans="2:3" ht="21">
+    <row r="353" spans="1:3" ht="21">
+      <c r="A353" s="3">
+        <v>18</v>
+      </c>
       <c r="B353" s="7" t="s">
         <v>322</v>
       </c>
@@ -5075,13 +5343,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="354" spans="2:3" ht="21">
+    <row r="354" spans="1:3" ht="21">
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="2:3" ht="21">
+    <row r="355" spans="1:3" ht="21">
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="2:3" ht="21">
+    <row r="356" spans="1:3" ht="21">
       <c r="B356" s="7" t="s">
         <v>341</v>
       </c>
@@ -5089,7 +5357,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="357" spans="2:3" ht="21">
+    <row r="357" spans="1:3" ht="21">
       <c r="B357" s="7" t="s">
         <v>341</v>
       </c>
@@ -5097,7 +5365,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="358" spans="2:3" ht="21">
+    <row r="358" spans="1:3" ht="21">
       <c r="B358" s="7" t="s">
         <v>341</v>
       </c>
@@ -5105,7 +5373,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="359" spans="2:3" ht="21">
+    <row r="359" spans="1:3" ht="21">
       <c r="B359" s="7" t="s">
         <v>341</v>
       </c>
@@ -5113,7 +5381,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="360" spans="2:3" ht="21">
+    <row r="360" spans="1:3" ht="21">
       <c r="B360" s="7" t="s">
         <v>341</v>
       </c>
@@ -5121,7 +5389,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="361" spans="2:3" ht="21">
+    <row r="361" spans="1:3" ht="21">
       <c r="B361" s="7" t="s">
         <v>341</v>
       </c>
@@ -5129,7 +5397,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="362" spans="2:3" ht="21">
+    <row r="362" spans="1:3" ht="21">
       <c r="B362" s="7" t="s">
         <v>341</v>
       </c>
@@ -5137,7 +5405,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="363" spans="2:3" ht="21">
+    <row r="363" spans="1:3" ht="21">
       <c r="B363" s="7" t="s">
         <v>341</v>
       </c>
@@ -5145,7 +5413,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="364" spans="2:3" ht="21">
+    <row r="364" spans="1:3" ht="21">
       <c r="B364" s="7" t="s">
         <v>341</v>
       </c>
@@ -5153,7 +5421,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="365" spans="2:3" ht="21">
+    <row r="365" spans="1:3" ht="21">
       <c r="B365" s="7" t="s">
         <v>341</v>
       </c>
@@ -5161,7 +5429,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="366" spans="2:3" ht="21">
+    <row r="366" spans="1:3" ht="21">
       <c r="B366" s="7" t="s">
         <v>341</v>
       </c>
@@ -5169,7 +5437,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="367" spans="2:3" ht="21">
+    <row r="367" spans="1:3" ht="21">
       <c r="B367" s="7" t="s">
         <v>341</v>
       </c>
@@ -5177,7 +5445,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="368" spans="2:3" ht="21">
+    <row r="368" spans="1:3" ht="21">
       <c r="B368" s="7" t="s">
         <v>341</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1835B8B-CEF9-4460-9E20-7391EBD6EF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6ADA1-9729-46EB-B884-7537700C58E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,9 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>Recursion</t>
   </si>
 </sst>
 </file>
@@ -1946,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F481"/>
+  <dimension ref="A1:XFD481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A98"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2562,14 +2565,14 @@
       <c r="C48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="19" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="19" customFormat="1" ht="21">
+    <row r="49" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A49" s="3">
         <v>6</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="19" customFormat="1" ht="21">
+    <row r="50" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="19" customFormat="1" ht="21">
+    <row r="51" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A51" s="3">
         <v>8</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="19" customFormat="1" ht="21">
+    <row r="52" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A52" s="3">
         <v>9</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="19" customFormat="1" ht="21">
+    <row r="53" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A53" s="3">
         <v>10</v>
       </c>
@@ -2645,99 +2648,123 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="21">
+    <row r="55" spans="1:10 16382:16384" ht="21">
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:5" ht="21">
+    <row r="56" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A56" s="3">
         <v>1</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="21">
+      <c r="D56" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A57" s="3">
         <v>2</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="21">
+      <c r="D57" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A58" s="3">
         <v>3</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="21">
+      <c r="D58" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A59" s="3">
         <v>4</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="21">
+      <c r="D59" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A60" s="3">
         <v>5</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="21">
+      <c r="D60" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A61" s="3">
         <v>6</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="21">
+      <c r="D61" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A62" s="3">
         <v>7</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="21">
+      <c r="D62" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
       <c r="A63" s="3">
         <v>8</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="21">
+      <c r="D63" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10 16382:16384" ht="21">
       <c r="A64" s="3">
         <v>9</v>
       </c>
@@ -2747,41 +2774,67 @@
       <c r="C64" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="21">
+      <c r="E64" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="XFB64" s="19"/>
+      <c r="XFC64" s="19"/>
+      <c r="XFD64" s="19"/>
+    </row>
+    <row r="65" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A65" s="3">
         <v>10</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="21">
+      <c r="D65" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A66" s="3">
         <v>11</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="21">
+      <c r="D66" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A67" s="3">
         <v>12</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="21">
+      <c r="D67" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="21">
       <c r="A68" s="3">
         <v>13</v>
       </c>
@@ -2791,8 +2844,11 @@
       <c r="C68" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="21">
+      <c r="E68" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="21">
       <c r="A69" s="3">
         <v>14</v>
       </c>
@@ -2802,30 +2858,39 @@
       <c r="C69" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="21">
+      <c r="E69" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A70" s="3">
         <v>15</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="21">
+      <c r="D70" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A71" s="3">
         <v>16</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="21">
+      <c r="D71" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21">
       <c r="A72" s="3">
         <v>17</v>
       </c>
@@ -2835,52 +2900,67 @@
       <c r="C72" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="21">
+      <c r="E72" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A73" s="3">
         <v>18</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="21">
+      <c r="D73" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A74" s="3">
         <v>19</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="21">
+      <c r="D74" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A75" s="3">
         <v>20</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="21">
+      <c r="D75" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A76" s="3">
         <v>21</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="21">
+      <c r="D76" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="21">
       <c r="A77" s="3">
         <v>22</v>
       </c>
@@ -2890,30 +2970,39 @@
       <c r="C77" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="21">
+      <c r="E77" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A78" s="3">
         <v>23</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="21">
+      <c r="D78" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="A79" s="3">
         <v>24</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="21">
+      <c r="D79" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="21">
       <c r="A80" s="3">
         <v>25</v>
       </c>
@@ -3127,6 +3216,9 @@
       <c r="C100" s="6"/>
     </row>
     <row r="101" spans="1:3" ht="21">
+      <c r="A101" s="3">
+        <v>1</v>
+      </c>
       <c r="B101" s="4" t="s">
         <v>95</v>
       </c>
@@ -3135,6 +3227,9 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
+      <c r="A102" s="3">
+        <v>2</v>
+      </c>
       <c r="B102" s="4" t="s">
         <v>95</v>
       </c>
@@ -3143,6 +3238,9 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
+      <c r="A103" s="3">
+        <v>3</v>
+      </c>
       <c r="B103" s="4" t="s">
         <v>95</v>
       </c>
@@ -3151,6 +3249,9 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
+      <c r="A104" s="3">
+        <v>4</v>
+      </c>
       <c r="B104" s="4" t="s">
         <v>95</v>
       </c>
@@ -3159,6 +3260,9 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
+      <c r="A105" s="3">
+        <v>5</v>
+      </c>
       <c r="B105" s="4" t="s">
         <v>95</v>
       </c>
@@ -3167,6 +3271,9 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
+      <c r="A106" s="3">
+        <v>6</v>
+      </c>
       <c r="B106" s="4" t="s">
         <v>95</v>
       </c>
@@ -3175,6 +3282,9 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="21">
+      <c r="A107" s="3">
+        <v>7</v>
+      </c>
       <c r="B107" s="4" t="s">
         <v>95</v>
       </c>
@@ -3183,6 +3293,9 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
+      <c r="A108" s="3">
+        <v>8</v>
+      </c>
       <c r="B108" s="4" t="s">
         <v>95</v>
       </c>
@@ -3191,6 +3304,9 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
+      <c r="A109" s="3">
+        <v>9</v>
+      </c>
       <c r="B109" s="4" t="s">
         <v>95</v>
       </c>
@@ -3199,6 +3315,9 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
+      <c r="A110" s="3">
+        <v>10</v>
+      </c>
       <c r="B110" s="4" t="s">
         <v>95</v>
       </c>
@@ -3207,6 +3326,9 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="21">
+      <c r="A111" s="3">
+        <v>11</v>
+      </c>
       <c r="B111" s="4" t="s">
         <v>95</v>
       </c>
@@ -3215,6 +3337,9 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">
+      <c r="A112" s="3">
+        <v>12</v>
+      </c>
       <c r="B112" s="4" t="s">
         <v>95</v>
       </c>
@@ -3222,7 +3347,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="21">
+    <row r="113" spans="1:3" ht="21">
+      <c r="A113" s="3">
+        <v>13</v>
+      </c>
       <c r="B113" s="4" t="s">
         <v>95</v>
       </c>
@@ -3230,7 +3358,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="21">
+    <row r="114" spans="1:3" ht="21">
+      <c r="A114" s="3">
+        <v>14</v>
+      </c>
       <c r="B114" s="4" t="s">
         <v>95</v>
       </c>
@@ -3238,7 +3369,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="21">
+    <row r="115" spans="1:3" ht="21">
+      <c r="A115" s="3">
+        <v>15</v>
+      </c>
       <c r="B115" s="4" t="s">
         <v>95</v>
       </c>
@@ -3246,7 +3380,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="21">
+    <row r="116" spans="1:3" ht="21">
+      <c r="A116" s="3">
+        <v>16</v>
+      </c>
       <c r="B116" s="4" t="s">
         <v>95</v>
       </c>
@@ -3254,7 +3391,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="21">
+    <row r="117" spans="1:3" ht="21">
+      <c r="A117" s="3">
+        <v>17</v>
+      </c>
       <c r="B117" s="4" t="s">
         <v>95</v>
       </c>
@@ -3262,7 +3402,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="21">
+    <row r="118" spans="1:3" ht="21">
+      <c r="A118" s="3">
+        <v>18</v>
+      </c>
       <c r="B118" s="4" t="s">
         <v>95</v>
       </c>
@@ -3270,7 +3413,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="21">
+    <row r="119" spans="1:3" ht="21">
+      <c r="A119" s="3">
+        <v>19</v>
+      </c>
       <c r="B119" s="4" t="s">
         <v>95</v>
       </c>
@@ -3278,7 +3424,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="21">
+    <row r="120" spans="1:3" ht="21">
+      <c r="A120" s="3">
+        <v>20</v>
+      </c>
       <c r="B120" s="4" t="s">
         <v>95</v>
       </c>
@@ -3286,7 +3435,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="21">
+    <row r="121" spans="1:3" ht="21">
+      <c r="A121" s="3">
+        <v>21</v>
+      </c>
       <c r="B121" s="4" t="s">
         <v>95</v>
       </c>
@@ -3294,7 +3446,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="21">
+    <row r="122" spans="1:3" ht="21">
+      <c r="A122" s="3">
+        <v>22</v>
+      </c>
       <c r="B122" s="4" t="s">
         <v>95</v>
       </c>
@@ -3302,7 +3457,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="21">
+    <row r="123" spans="1:3" ht="21">
+      <c r="A123" s="3">
+        <v>23</v>
+      </c>
       <c r="B123" s="4" t="s">
         <v>95</v>
       </c>
@@ -3310,7 +3468,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="21">
+    <row r="124" spans="1:3" ht="21">
+      <c r="A124" s="3">
+        <v>24</v>
+      </c>
       <c r="B124" s="4" t="s">
         <v>95</v>
       </c>
@@ -3318,7 +3479,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="21">
+    <row r="125" spans="1:3" ht="21">
+      <c r="A125" s="3">
+        <v>25</v>
+      </c>
       <c r="B125" s="4" t="s">
         <v>95</v>
       </c>
@@ -3326,7 +3490,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="21">
+    <row r="126" spans="1:3" ht="21">
+      <c r="A126" s="3">
+        <v>26</v>
+      </c>
       <c r="B126" s="4" t="s">
         <v>95</v>
       </c>
@@ -3334,7 +3501,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="21">
+    <row r="127" spans="1:3" ht="21">
+      <c r="A127" s="3">
+        <v>27</v>
+      </c>
       <c r="B127" s="4" t="s">
         <v>95</v>
       </c>
@@ -3342,7 +3512,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="21">
+    <row r="128" spans="1:3" ht="21">
+      <c r="A128" s="3">
+        <v>28</v>
+      </c>
       <c r="B128" s="4" t="s">
         <v>95</v>
       </c>
@@ -3351,6 +3524,9 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="21">
+      <c r="A129" s="3">
+        <v>29</v>
+      </c>
       <c r="B129" s="4" t="s">
         <v>95</v>
       </c>
@@ -3359,6 +3535,9 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="21">
+      <c r="A130" s="3">
+        <v>30</v>
+      </c>
       <c r="B130" s="4" t="s">
         <v>95</v>
       </c>
@@ -3367,6 +3546,9 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="21">
+      <c r="A131" s="3">
+        <v>31</v>
+      </c>
       <c r="B131" s="4" t="s">
         <v>95</v>
       </c>
@@ -3375,6 +3557,9 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="21">
+      <c r="A132" s="3">
+        <v>32</v>
+      </c>
       <c r="B132" s="4" t="s">
         <v>95</v>
       </c>
@@ -3383,6 +3568,9 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="21">
+      <c r="A133" s="3">
+        <v>33</v>
+      </c>
       <c r="B133" s="4" t="s">
         <v>95</v>
       </c>
@@ -3391,6 +3579,9 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="21">
+      <c r="A134" s="3">
+        <v>34</v>
+      </c>
       <c r="B134" s="4" t="s">
         <v>95</v>
       </c>
@@ -3399,6 +3590,9 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
+      <c r="A135" s="3">
+        <v>35</v>
+      </c>
       <c r="B135" s="4" t="s">
         <v>95</v>
       </c>
@@ -3407,6 +3601,9 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
+      <c r="A136" s="3">
+        <v>36</v>
+      </c>
       <c r="B136" s="4" t="s">
         <v>95</v>
       </c>
@@ -3921,7 +4118,10 @@
     <row r="176" spans="1:4" ht="21">
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="2:3" ht="21">
+    <row r="177" spans="1:3" ht="21">
+      <c r="A177" s="3">
+        <v>1</v>
+      </c>
       <c r="B177" s="4" t="s">
         <v>169</v>
       </c>
@@ -3929,7 +4129,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="2:3" ht="21">
+    <row r="178" spans="1:3" ht="21">
+      <c r="A178" s="3">
+        <v>2</v>
+      </c>
       <c r="B178" s="4" t="s">
         <v>169</v>
       </c>
@@ -3937,7 +4140,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="21">
+    <row r="179" spans="1:3" ht="21">
+      <c r="A179" s="3">
+        <v>3</v>
+      </c>
       <c r="B179" s="4" t="s">
         <v>169</v>
       </c>
@@ -3945,7 +4151,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="2:3" ht="21">
+    <row r="180" spans="1:3" ht="21">
+      <c r="A180" s="3">
+        <v>4</v>
+      </c>
       <c r="B180" s="4" t="s">
         <v>169</v>
       </c>
@@ -3953,7 +4162,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="21">
+    <row r="181" spans="1:3" ht="21">
+      <c r="A181" s="3">
+        <v>5</v>
+      </c>
       <c r="B181" s="4" t="s">
         <v>169</v>
       </c>
@@ -3961,7 +4173,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="21">
+    <row r="182" spans="1:3" ht="21">
+      <c r="A182" s="3">
+        <v>6</v>
+      </c>
       <c r="B182" s="4" t="s">
         <v>169</v>
       </c>
@@ -3969,7 +4184,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="2:3" ht="21">
+    <row r="183" spans="1:3" ht="21">
+      <c r="A183" s="3">
+        <v>7</v>
+      </c>
       <c r="B183" s="4" t="s">
         <v>169</v>
       </c>
@@ -3977,7 +4195,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="2:3" ht="21">
+    <row r="184" spans="1:3" ht="21">
+      <c r="A184" s="3">
+        <v>8</v>
+      </c>
       <c r="B184" s="4" t="s">
         <v>169</v>
       </c>
@@ -3985,7 +4206,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="21">
+    <row r="185" spans="1:3" ht="21">
+      <c r="A185" s="3">
+        <v>9</v>
+      </c>
       <c r="B185" s="4" t="s">
         <v>169</v>
       </c>
@@ -3993,7 +4217,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="21">
+    <row r="186" spans="1:3" ht="21">
+      <c r="A186" s="3">
+        <v>10</v>
+      </c>
       <c r="B186" s="4" t="s">
         <v>169</v>
       </c>
@@ -4001,7 +4228,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="21">
+    <row r="187" spans="1:3" ht="21">
+      <c r="A187" s="3">
+        <v>11</v>
+      </c>
       <c r="B187" s="4" t="s">
         <v>169</v>
       </c>
@@ -4009,7 +4239,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="21">
+    <row r="188" spans="1:3" ht="21">
+      <c r="A188" s="3">
+        <v>12</v>
+      </c>
       <c r="B188" s="4" t="s">
         <v>169</v>
       </c>
@@ -4017,7 +4250,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="21">
+    <row r="189" spans="1:3" ht="21">
+      <c r="A189" s="3">
+        <v>13</v>
+      </c>
       <c r="B189" s="4" t="s">
         <v>169</v>
       </c>
@@ -4025,7 +4261,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="21">
+    <row r="190" spans="1:3" ht="21">
+      <c r="A190" s="3">
+        <v>14</v>
+      </c>
       <c r="B190" s="4" t="s">
         <v>169</v>
       </c>
@@ -4033,7 +4272,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="21">
+    <row r="191" spans="1:3" ht="21">
+      <c r="A191" s="3">
+        <v>15</v>
+      </c>
       <c r="B191" s="4" t="s">
         <v>169</v>
       </c>
@@ -4041,7 +4283,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="21">
+    <row r="192" spans="1:3" ht="21">
+      <c r="A192" s="3">
+        <v>16</v>
+      </c>
       <c r="B192" s="4" t="s">
         <v>169</v>
       </c>
@@ -4049,7 +4294,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="21">
+    <row r="193" spans="1:3" ht="21">
+      <c r="A193" s="3">
+        <v>17</v>
+      </c>
       <c r="B193" s="4" t="s">
         <v>169</v>
       </c>
@@ -4057,7 +4305,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="21">
+    <row r="194" spans="1:3" ht="21">
+      <c r="A194" s="3">
+        <v>18</v>
+      </c>
       <c r="B194" s="4" t="s">
         <v>169</v>
       </c>
@@ -4065,7 +4316,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="21">
+    <row r="195" spans="1:3" ht="21">
+      <c r="A195" s="3">
+        <v>19</v>
+      </c>
       <c r="B195" s="4" t="s">
         <v>169</v>
       </c>
@@ -4073,7 +4327,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="21">
+    <row r="196" spans="1:3" ht="21">
+      <c r="A196" s="3">
+        <v>20</v>
+      </c>
       <c r="B196" s="4" t="s">
         <v>169</v>
       </c>
@@ -4081,7 +4338,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="21">
+    <row r="197" spans="1:3" ht="21">
+      <c r="A197" s="3">
+        <v>21</v>
+      </c>
       <c r="B197" s="4" t="s">
         <v>169</v>
       </c>
@@ -4089,7 +4349,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="21">
+    <row r="198" spans="1:3" ht="21">
+      <c r="A198" s="3">
+        <v>22</v>
+      </c>
       <c r="B198" s="4" t="s">
         <v>169</v>
       </c>
@@ -4097,7 +4360,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="21">
+    <row r="199" spans="1:3" ht="21">
+      <c r="A199" s="3">
+        <v>23</v>
+      </c>
       <c r="B199" s="4" t="s">
         <v>169</v>
       </c>
@@ -4105,7 +4371,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="21">
+    <row r="200" spans="1:3" ht="21">
+      <c r="A200" s="3">
+        <v>24</v>
+      </c>
       <c r="B200" s="4" t="s">
         <v>169</v>
       </c>
@@ -4113,7 +4382,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="21">
+    <row r="201" spans="1:3" ht="21">
+      <c r="A201" s="3">
+        <v>25</v>
+      </c>
       <c r="B201" s="4" t="s">
         <v>169</v>
       </c>
@@ -4121,7 +4393,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="21">
+    <row r="202" spans="1:3" ht="21">
+      <c r="A202" s="3">
+        <v>26</v>
+      </c>
       <c r="B202" s="4" t="s">
         <v>169</v>
       </c>
@@ -4129,7 +4404,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="21">
+    <row r="203" spans="1:3" ht="21">
+      <c r="A203" s="3">
+        <v>27</v>
+      </c>
       <c r="B203" s="4" t="s">
         <v>169</v>
       </c>
@@ -4137,7 +4415,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="21">
+    <row r="204" spans="1:3" ht="21">
+      <c r="A204" s="3">
+        <v>28</v>
+      </c>
       <c r="B204" s="4" t="s">
         <v>169</v>
       </c>
@@ -4145,7 +4426,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="21">
+    <row r="205" spans="1:3" ht="21">
+      <c r="A205" s="3">
+        <v>29</v>
+      </c>
       <c r="B205" s="4" t="s">
         <v>169</v>
       </c>
@@ -4153,7 +4437,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="21">
+    <row r="206" spans="1:3" ht="21">
+      <c r="A206" s="3">
+        <v>30</v>
+      </c>
       <c r="B206" s="4" t="s">
         <v>169</v>
       </c>
@@ -4161,7 +4448,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="21">
+    <row r="207" spans="1:3" ht="21">
+      <c r="A207" s="3">
+        <v>31</v>
+      </c>
       <c r="B207" s="4" t="s">
         <v>169</v>
       </c>
@@ -4169,7 +4459,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="21">
+    <row r="208" spans="1:3" ht="21">
+      <c r="A208" s="3">
+        <v>32</v>
+      </c>
       <c r="B208" s="4" t="s">
         <v>169</v>
       </c>
@@ -4177,7 +4470,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="21">
+    <row r="209" spans="1:3" ht="21">
+      <c r="A209" s="3">
+        <v>33</v>
+      </c>
       <c r="B209" s="4" t="s">
         <v>169</v>
       </c>
@@ -4185,7 +4481,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="21">
+    <row r="210" spans="1:3" ht="21">
+      <c r="A210" s="3">
+        <v>34</v>
+      </c>
       <c r="B210" s="4" t="s">
         <v>169</v>
       </c>
@@ -4193,7 +4492,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="21">
+    <row r="211" spans="1:3" ht="21">
+      <c r="A211" s="3">
+        <v>35</v>
+      </c>
       <c r="B211" s="4" t="s">
         <v>169</v>
       </c>
@@ -4201,15 +4503,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="21">
+    <row r="212" spans="1:3" ht="21">
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="2:3" ht="21">
+    <row r="213" spans="1:3" ht="21">
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="2:3" ht="21">
+    <row r="214" spans="1:3" ht="21">
+      <c r="A214" s="3">
+        <v>1</v>
+      </c>
       <c r="B214" s="4" t="s">
         <v>205</v>
       </c>
@@ -4217,7 +4522,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="21">
+    <row r="215" spans="1:3" ht="21">
+      <c r="A215" s="3">
+        <v>2</v>
+      </c>
       <c r="B215" s="4" t="s">
         <v>205</v>
       </c>
@@ -4225,7 +4533,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="21">
+    <row r="216" spans="1:3" ht="21">
+      <c r="A216" s="3">
+        <v>3</v>
+      </c>
       <c r="B216" s="4" t="s">
         <v>205</v>
       </c>
@@ -4233,7 +4544,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="217" spans="2:3" ht="21">
+    <row r="217" spans="1:3" ht="21">
+      <c r="A217" s="3">
+        <v>4</v>
+      </c>
       <c r="B217" s="4" t="s">
         <v>205</v>
       </c>
@@ -4241,7 +4555,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="21">
+    <row r="218" spans="1:3" ht="21">
+      <c r="A218" s="3">
+        <v>5</v>
+      </c>
       <c r="B218" s="4" t="s">
         <v>205</v>
       </c>
@@ -4249,7 +4566,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="21">
+    <row r="219" spans="1:3" ht="21">
+      <c r="A219" s="3">
+        <v>6</v>
+      </c>
       <c r="B219" s="4" t="s">
         <v>205</v>
       </c>
@@ -4257,7 +4577,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="21">
+    <row r="220" spans="1:3" ht="21">
+      <c r="A220" s="3">
+        <v>7</v>
+      </c>
       <c r="B220" s="4" t="s">
         <v>205</v>
       </c>
@@ -4265,7 +4588,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="21">
+    <row r="221" spans="1:3" ht="21">
+      <c r="A221" s="3">
+        <v>8</v>
+      </c>
       <c r="B221" s="4" t="s">
         <v>205</v>
       </c>
@@ -4273,7 +4599,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="21">
+    <row r="222" spans="1:3" ht="21">
+      <c r="A222" s="3">
+        <v>9</v>
+      </c>
       <c r="B222" s="4" t="s">
         <v>205</v>
       </c>
@@ -4281,7 +4610,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="21">
+    <row r="223" spans="1:3" ht="21">
+      <c r="A223" s="3">
+        <v>10</v>
+      </c>
       <c r="B223" s="4" t="s">
         <v>205</v>
       </c>
@@ -4289,7 +4621,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="21">
+    <row r="224" spans="1:3" ht="21">
+      <c r="A224" s="3">
+        <v>11</v>
+      </c>
       <c r="B224" s="4" t="s">
         <v>205</v>
       </c>
@@ -4297,7 +4632,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="225" spans="2:3" ht="21">
+    <row r="225" spans="1:3" ht="21">
+      <c r="A225" s="3">
+        <v>12</v>
+      </c>
       <c r="B225" s="4" t="s">
         <v>205</v>
       </c>
@@ -4305,7 +4643,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="226" spans="2:3" ht="21">
+    <row r="226" spans="1:3" ht="21">
+      <c r="A226" s="3">
+        <v>13</v>
+      </c>
       <c r="B226" s="4" t="s">
         <v>205</v>
       </c>
@@ -4313,7 +4654,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="227" spans="2:3" ht="21">
+    <row r="227" spans="1:3" ht="21">
+      <c r="A227" s="3">
+        <v>14</v>
+      </c>
       <c r="B227" s="4" t="s">
         <v>205</v>
       </c>
@@ -4321,7 +4665,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="21">
+    <row r="228" spans="1:3" ht="21">
+      <c r="A228" s="3">
+        <v>15</v>
+      </c>
       <c r="B228" s="4" t="s">
         <v>205</v>
       </c>
@@ -4329,7 +4676,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="2:3" ht="21">
+    <row r="229" spans="1:3" ht="21">
+      <c r="A229" s="3">
+        <v>16</v>
+      </c>
       <c r="B229" s="4" t="s">
         <v>205</v>
       </c>
@@ -4337,7 +4687,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="230" spans="2:3" ht="21">
+    <row r="230" spans="1:3" ht="21">
+      <c r="A230" s="3">
+        <v>17</v>
+      </c>
       <c r="B230" s="4" t="s">
         <v>205</v>
       </c>
@@ -4345,7 +4698,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="2:3" ht="21">
+    <row r="231" spans="1:3" ht="21">
+      <c r="A231" s="3">
+        <v>18</v>
+      </c>
       <c r="B231" s="4" t="s">
         <v>205</v>
       </c>
@@ -4353,7 +4709,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="232" spans="2:3" ht="21">
+    <row r="232" spans="1:3" ht="21">
+      <c r="A232" s="3">
+        <v>19</v>
+      </c>
       <c r="B232" s="4" t="s">
         <v>205</v>
       </c>
@@ -4361,7 +4720,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="233" spans="2:3" ht="21">
+    <row r="233" spans="1:3" ht="21">
+      <c r="A233" s="3">
+        <v>20</v>
+      </c>
       <c r="B233" s="4" t="s">
         <v>205</v>
       </c>
@@ -4369,7 +4731,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="234" spans="2:3" ht="21">
+    <row r="234" spans="1:3" ht="21">
+      <c r="A234" s="3">
+        <v>21</v>
+      </c>
       <c r="B234" s="4" t="s">
         <v>205</v>
       </c>
@@ -4377,7 +4742,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="235" spans="2:3" ht="21">
+    <row r="235" spans="1:3" ht="21">
+      <c r="A235" s="3">
+        <v>22</v>
+      </c>
       <c r="B235" s="4" t="s">
         <v>205</v>
       </c>
@@ -4385,13 +4753,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="236" spans="2:3" ht="21">
+    <row r="236" spans="1:3" ht="21">
       <c r="C236" s="6"/>
     </row>
-    <row r="237" spans="2:3" ht="21">
+    <row r="237" spans="1:3" ht="21">
       <c r="C237" s="6"/>
     </row>
-    <row r="238" spans="2:3" ht="21">
+    <row r="238" spans="1:3" ht="21">
       <c r="B238" s="4" t="s">
         <v>228</v>
       </c>
@@ -4399,7 +4767,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="239" spans="2:3" ht="21">
+    <row r="239" spans="1:3" ht="21">
       <c r="B239" s="4" t="s">
         <v>228</v>
       </c>
@@ -4407,7 +4775,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="240" spans="2:3" ht="21">
+    <row r="240" spans="1:3" ht="21">
       <c r="B240" s="4" t="s">
         <v>228</v>
       </c>
@@ -4789,7 +5157,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="289" spans="2:3" ht="21">
+    <row r="289" spans="1:3" ht="21">
       <c r="B289" s="4" t="s">
         <v>263</v>
       </c>
@@ -4797,7 +5165,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="290" spans="2:3" ht="21">
+    <row r="290" spans="1:3" ht="21">
       <c r="B290" s="4" t="s">
         <v>263</v>
       </c>
@@ -4805,7 +5173,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="291" spans="2:3" ht="21">
+    <row r="291" spans="1:3" ht="21">
       <c r="B291" s="4" t="s">
         <v>263</v>
       </c>
@@ -4813,7 +5181,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="292" spans="2:3" ht="21">
+    <row r="292" spans="1:3" ht="21">
       <c r="B292" s="4" t="s">
         <v>263</v>
       </c>
@@ -4821,7 +5189,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="293" spans="2:3" ht="21">
+    <row r="293" spans="1:3" ht="21">
       <c r="B293" s="4" t="s">
         <v>263</v>
       </c>
@@ -4829,13 +5197,16 @@
         <v>282</v>
       </c>
     </row>
-    <row r="294" spans="2:3" ht="21">
+    <row r="294" spans="1:3" ht="21">
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="2:3" ht="21">
+    <row r="295" spans="1:3" ht="21">
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="2:3" ht="21">
+    <row r="296" spans="1:3" ht="21">
+      <c r="A296" s="3">
+        <v>1</v>
+      </c>
       <c r="B296" s="4" t="s">
         <v>283</v>
       </c>
@@ -4843,7 +5214,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="2:3" ht="21">
+    <row r="297" spans="1:3" ht="21">
+      <c r="A297" s="3">
+        <v>2</v>
+      </c>
       <c r="B297" s="4" t="s">
         <v>283</v>
       </c>
@@ -4851,7 +5225,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="298" spans="2:3" ht="21">
+    <row r="298" spans="1:3" ht="21">
+      <c r="A298" s="3">
+        <v>3</v>
+      </c>
       <c r="B298" s="4" t="s">
         <v>283</v>
       </c>
@@ -4859,7 +5236,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="299" spans="2:3" ht="21">
+    <row r="299" spans="1:3" ht="21">
+      <c r="A299" s="3">
+        <v>4</v>
+      </c>
       <c r="B299" s="4" t="s">
         <v>283</v>
       </c>
@@ -4867,7 +5247,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="300" spans="2:3" ht="21">
+    <row r="300" spans="1:3" ht="21">
+      <c r="A300" s="3">
+        <v>5</v>
+      </c>
       <c r="B300" s="4" t="s">
         <v>283</v>
       </c>
@@ -4875,7 +5258,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="301" spans="2:3" ht="21">
+    <row r="301" spans="1:3" ht="21">
+      <c r="A301" s="3">
+        <v>6</v>
+      </c>
       <c r="B301" s="4" t="s">
         <v>283</v>
       </c>
@@ -4883,7 +5269,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="302" spans="2:3" ht="21">
+    <row r="302" spans="1:3" ht="21">
+      <c r="A302" s="3">
+        <v>7</v>
+      </c>
       <c r="B302" s="4" t="s">
         <v>283</v>
       </c>
@@ -4891,7 +5280,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="303" spans="2:3" ht="21">
+    <row r="303" spans="1:3" ht="21">
+      <c r="A303" s="3">
+        <v>8</v>
+      </c>
       <c r="B303" s="4" t="s">
         <v>283</v>
       </c>
@@ -4899,7 +5291,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="304" spans="2:3" ht="21">
+    <row r="304" spans="1:3" ht="21">
+      <c r="A304" s="3">
+        <v>9</v>
+      </c>
       <c r="B304" s="4" t="s">
         <v>283</v>
       </c>
@@ -4907,7 +5302,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="305" spans="2:3" ht="21">
+    <row r="305" spans="1:3" ht="21">
+      <c r="A305" s="3">
+        <v>10</v>
+      </c>
       <c r="B305" s="4" t="s">
         <v>283</v>
       </c>
@@ -4915,7 +5313,10 @@
         <v>293</v>
       </c>
     </row>
-    <row r="306" spans="2:3" ht="21">
+    <row r="306" spans="1:3" ht="21">
+      <c r="A306" s="3">
+        <v>11</v>
+      </c>
       <c r="B306" s="4" t="s">
         <v>283</v>
       </c>
@@ -4923,7 +5324,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="307" spans="2:3" ht="21">
+    <row r="307" spans="1:3" ht="21">
+      <c r="A307" s="3">
+        <v>12</v>
+      </c>
       <c r="B307" s="4" t="s">
         <v>283</v>
       </c>
@@ -4931,7 +5335,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="308" spans="2:3" ht="21">
+    <row r="308" spans="1:3" ht="21">
+      <c r="A308" s="3">
+        <v>13</v>
+      </c>
       <c r="B308" s="4" t="s">
         <v>283</v>
       </c>
@@ -4939,7 +5346,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="309" spans="2:3" ht="21">
+    <row r="309" spans="1:3" ht="21">
+      <c r="A309" s="3">
+        <v>14</v>
+      </c>
       <c r="B309" s="4" t="s">
         <v>283</v>
       </c>
@@ -4947,7 +5357,10 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="2:3" ht="21">
+    <row r="310" spans="1:3" ht="21">
+      <c r="A310" s="3">
+        <v>15</v>
+      </c>
       <c r="B310" s="4" t="s">
         <v>283</v>
       </c>
@@ -4955,7 +5368,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="311" spans="2:3" ht="21">
+    <row r="311" spans="1:3" ht="21">
+      <c r="A311" s="3">
+        <v>16</v>
+      </c>
       <c r="B311" s="4" t="s">
         <v>283</v>
       </c>
@@ -4963,7 +5379,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="312" spans="2:3" ht="21">
+    <row r="312" spans="1:3" ht="21">
+      <c r="A312" s="3">
+        <v>17</v>
+      </c>
       <c r="B312" s="4" t="s">
         <v>283</v>
       </c>
@@ -4971,7 +5390,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="313" spans="2:3" ht="21">
+    <row r="313" spans="1:3" ht="21">
+      <c r="A313" s="3">
+        <v>18</v>
+      </c>
       <c r="B313" s="4" t="s">
         <v>283</v>
       </c>
@@ -4979,7 +5401,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="314" spans="2:3" ht="21">
+    <row r="314" spans="1:3" ht="21">
+      <c r="A314" s="3">
+        <v>19</v>
+      </c>
       <c r="B314" s="4" t="s">
         <v>283</v>
       </c>
@@ -4987,7 +5412,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="315" spans="2:3" ht="21">
+    <row r="315" spans="1:3" ht="21">
+      <c r="A315" s="3">
+        <v>20</v>
+      </c>
       <c r="B315" s="4" t="s">
         <v>283</v>
       </c>
@@ -4995,7 +5423,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="316" spans="2:3" ht="21">
+    <row r="316" spans="1:3" ht="21">
+      <c r="A316" s="3">
+        <v>21</v>
+      </c>
       <c r="B316" s="4" t="s">
         <v>283</v>
       </c>
@@ -5003,7 +5434,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="317" spans="2:3" ht="21">
+    <row r="317" spans="1:3" ht="21">
+      <c r="A317" s="3">
+        <v>22</v>
+      </c>
       <c r="B317" s="4" t="s">
         <v>283</v>
       </c>
@@ -5011,7 +5445,10 @@
         <v>305</v>
       </c>
     </row>
-    <row r="318" spans="2:3" ht="21">
+    <row r="318" spans="1:3" ht="21">
+      <c r="A318" s="3">
+        <v>23</v>
+      </c>
       <c r="B318" s="4" t="s">
         <v>283</v>
       </c>
@@ -5019,7 +5456,10 @@
         <v>306</v>
       </c>
     </row>
-    <row r="319" spans="2:3" ht="21">
+    <row r="319" spans="1:3" ht="21">
+      <c r="A319" s="3">
+        <v>24</v>
+      </c>
       <c r="B319" s="4" t="s">
         <v>283</v>
       </c>
@@ -5027,7 +5467,10 @@
         <v>307</v>
       </c>
     </row>
-    <row r="320" spans="2:3" ht="21">
+    <row r="320" spans="1:3" ht="21">
+      <c r="A320" s="3">
+        <v>25</v>
+      </c>
       <c r="B320" s="4" t="s">
         <v>283</v>
       </c>
@@ -5036,6 +5479,9 @@
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
+      <c r="A321" s="3">
+        <v>26</v>
+      </c>
       <c r="B321" s="4" t="s">
         <v>283</v>
       </c>
@@ -5044,6 +5490,9 @@
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
+      <c r="A322" s="3">
+        <v>27</v>
+      </c>
       <c r="B322" s="4" t="s">
         <v>283</v>
       </c>
@@ -5052,6 +5501,9 @@
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
+      <c r="A323" s="3">
+        <v>28</v>
+      </c>
       <c r="B323" s="4" t="s">
         <v>283</v>
       </c>
@@ -5060,6 +5512,9 @@
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">
+      <c r="A324" s="3">
+        <v>29</v>
+      </c>
       <c r="B324" s="4" t="s">
         <v>283</v>
       </c>
@@ -5068,6 +5523,9 @@
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
+      <c r="A325" s="3">
+        <v>30</v>
+      </c>
       <c r="B325" s="4" t="s">
         <v>283</v>
       </c>
@@ -5076,6 +5534,9 @@
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
+      <c r="A326" s="3">
+        <v>31</v>
+      </c>
       <c r="B326" s="4" t="s">
         <v>283</v>
       </c>
@@ -5084,6 +5545,9 @@
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
+      <c r="A327" s="3">
+        <v>32</v>
+      </c>
       <c r="B327" s="4" t="s">
         <v>283</v>
       </c>
@@ -5092,6 +5556,9 @@
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">
+      <c r="A328" s="3">
+        <v>33</v>
+      </c>
       <c r="B328" s="4" t="s">
         <v>283</v>
       </c>
@@ -5100,6 +5567,9 @@
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
+      <c r="A329" s="3">
+        <v>34</v>
+      </c>
       <c r="B329" s="4" t="s">
         <v>283</v>
       </c>
@@ -5108,6 +5578,9 @@
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
+      <c r="A330" s="3">
+        <v>35</v>
+      </c>
       <c r="B330" s="4" t="s">
         <v>283</v>
       </c>
@@ -5116,6 +5589,9 @@
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">
+      <c r="A331" s="3">
+        <v>36</v>
+      </c>
       <c r="B331" s="4" t="s">
         <v>283</v>
       </c>
@@ -5124,6 +5600,9 @@
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
+      <c r="A332" s="3">
+        <v>37</v>
+      </c>
       <c r="B332" s="4" t="s">
         <v>283</v>
       </c>
@@ -5132,6 +5611,9 @@
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">
+      <c r="A333" s="3">
+        <v>38</v>
+      </c>
       <c r="B333" s="4" t="s">
         <v>283</v>
       </c>
@@ -6385,397 +6867,397 @@
     <hyperlink ref="C63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
     <hyperlink ref="C64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
     <hyperlink ref="C65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C67" r:id="rId56" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C68" r:id="rId57" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C69" r:id="rId58" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C70" r:id="rId59" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C71" r:id="rId60" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C72" r:id="rId61" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C73" r:id="rId62" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C74" r:id="rId63" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C75" r:id="rId64" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C76" r:id="rId65" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C77" r:id="rId66" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C78" r:id="rId67" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C79" r:id="rId68" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C80" r:id="rId69" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C81" r:id="rId70" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C82" r:id="rId71" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C83" r:id="rId72" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C84" r:id="rId73" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C85" r:id="rId74" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C86" r:id="rId75" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C87" r:id="rId76" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C88" r:id="rId77" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C89" r:id="rId78" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C90" r:id="rId79" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C91" r:id="rId80" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C92" r:id="rId81" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C93" r:id="rId82" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C94" r:id="rId83" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C95" r:id="rId84" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C96" r:id="rId85" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C97" r:id="rId86" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C98" r:id="rId87" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C101" r:id="rId88" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C102" r:id="rId89" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C103" r:id="rId90" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C104" r:id="rId91" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C106" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C107" r:id="rId93" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C108" r:id="rId94" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C109" r:id="rId95" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C110" r:id="rId96" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C111" r:id="rId97" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C113" r:id="rId98" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C114" r:id="rId99" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C115" r:id="rId100" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C116" r:id="rId101" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C117" r:id="rId102" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C118" r:id="rId103" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C119" r:id="rId104" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C120" r:id="rId105" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C121" r:id="rId106" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C122" r:id="rId107" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C123" r:id="rId108" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C124" r:id="rId109" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C125" r:id="rId110" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C126" r:id="rId111" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C127" r:id="rId112" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C128" r:id="rId113" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C129" r:id="rId114" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C130" r:id="rId115" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C131" r:id="rId116" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C132" r:id="rId117" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C133" r:id="rId118" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C134" r:id="rId119" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C135" r:id="rId120" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C136" r:id="rId121" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C105" r:id="rId122" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C112" r:id="rId123" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C139" r:id="rId124" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C140" r:id="rId125" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C141" r:id="rId126" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C142" r:id="rId127" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C143" r:id="rId128" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C144" r:id="rId129" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C145" r:id="rId130" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C146" r:id="rId131" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C147" r:id="rId132" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C148" r:id="rId133" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C149" r:id="rId134" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C150" r:id="rId135" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C151" r:id="rId136" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C152" r:id="rId137" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C153" r:id="rId138" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C154" r:id="rId139" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C155" r:id="rId140" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C156" r:id="rId141" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C157" r:id="rId142" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C158" r:id="rId143" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C159" r:id="rId144" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C160" r:id="rId145" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C161" r:id="rId146" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C162" r:id="rId147" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C163" r:id="rId148" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C166" r:id="rId149" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C167" r:id="rId150" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C168" r:id="rId151" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C169" r:id="rId152" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C170" r:id="rId153" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C171" r:id="rId154" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C172" r:id="rId155" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C173" r:id="rId156" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C174" r:id="rId157" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C177" r:id="rId158" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C178" r:id="rId159" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C179" r:id="rId160" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C180" r:id="rId161" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C181" r:id="rId162" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C182" r:id="rId163" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C183" r:id="rId164" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C184" r:id="rId165" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C185" r:id="rId166" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C186" r:id="rId167" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C187" r:id="rId168" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C188" r:id="rId169" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C189" r:id="rId170" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C190" r:id="rId171" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C191" r:id="rId172" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C192" r:id="rId173" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C193" r:id="rId174" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C194" r:id="rId175" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C195" r:id="rId176" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C196" r:id="rId177" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C198" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C199" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C200" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C201" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C202" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C204" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C205" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C206" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C207" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C208" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C209" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C210" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C211" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C214" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C215" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C216" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C217" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C218" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C219" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C220" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C221" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C222" r:id="rId201" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C223" r:id="rId202" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C224" r:id="rId203" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C225" r:id="rId204" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C226" r:id="rId205" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C227" r:id="rId206" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C228" r:id="rId207" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C229" r:id="rId208" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C230" r:id="rId209" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C231" r:id="rId210" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C232" r:id="rId211" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C233" r:id="rId212" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C234" r:id="rId213" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C235" r:id="rId214" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C238" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C239" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C240" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C241" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C242" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C243" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C244" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C245" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C246" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C247" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C248" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C249" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C250" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C251" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C252" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C253" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C254" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C255" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C256" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C258" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C259" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C260" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C261" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C262" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C263" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C264" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C265" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C266" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C267" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C268" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C269" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C270" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C271" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C272" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C275" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C276" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C277" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C278" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C279" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C280" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C281" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C282" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C283" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C284" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C285" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C286" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C287" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C288" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C289" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C290" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C291" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C292" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C293" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C296" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C297" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C298" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C299" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C300" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C301" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C302" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C303" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C304" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C305" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C307" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C308" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C309" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C310" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C311" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C312" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C313" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C314" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C315" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C316" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C317" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C318" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C319" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C320" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C321" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C322" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C323" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C324" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C325" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C326" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C327" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C328" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C329" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C330" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C331" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C332" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C333" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C336" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C337" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C338" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C339" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C340" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C341" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C342" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C343" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C344" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C345" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C346" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C347" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C348" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C349" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C350" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C351" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C352" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C353" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C357" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C358" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C359" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C360" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C361" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C362" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C363" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C364" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C365" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C366" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C367" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C368" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C369" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C370" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C371" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C372" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C373" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C374" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C375" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C376" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C377" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C378" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C380" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C381" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C382" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C383" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C384" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C385" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C386" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C387" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C388" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C389" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C390" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C391" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C392" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C393" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C394" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C396" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C395" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C397" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C398" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C399" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C402" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C403" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C404" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C405" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C406" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C407" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C410" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C411" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C412" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C413" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C414" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C415" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C416" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C417" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C418" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C419" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C420" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C421" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C422" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C423" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C424" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C425" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C426" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C427" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C428" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C429" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C430" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C431" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C432" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C433" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C434" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C435" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C436" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C437" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C438" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C439" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C440" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C441" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C442" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C443" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C444" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C445" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C446" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C447" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C448" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C449" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C451" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C450" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C452" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C453" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C454" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C455" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C456" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C457" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C458" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C459" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C460" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C461" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C462" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C469" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C468" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C467" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C466" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C465" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C464" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C463" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C472" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C473" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C474" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C475" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C476" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C477" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C478" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C66" r:id="rId446" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6ADA1-9729-46EB-B884-7537700C58E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA45C09-C477-482B-8C5B-0A96A558D3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t>Minimum characters to be added at front to make string palindrome</t>
   </si>
   <si>
     <t>Given a sequence of words, print all anagrams together</t>
@@ -1546,7 +1543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1582,12 +1579,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1633,7 +1643,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1949,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:XFD481"/>
+  <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:A136"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1962,21 +1975,40 @@
     <col min="3" max="3" width="123" customWidth="1"/>
     <col min="4" max="4" width="15.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="24.6">
+      <c r="A1" s="3"/>
+      <c r="B1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="3"/>
+      <c r="E1"/>
+      <c r="F1" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1">
+      <c r="A2" s="3"/>
+      <c r="B2"/>
       <c r="C2" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21">
+        <v>461</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6" s="20" customFormat="1">
+      <c r="A3" s="3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" s="3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A4" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1985,10 +2017,18 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21">
+        <v>464</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6" s="20" customFormat="1">
+      <c r="A5" s="3"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" s="3"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1999,10 +2039,11 @@
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -2013,10 +2054,11 @@
         <v>5</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -2027,10 +2069,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -2041,10 +2084,11 @@
         <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -2055,10 +2099,11 @@
         <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -2069,10 +2114,11 @@
         <v>9</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -2083,10 +2129,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -2097,10 +2144,11 @@
         <v>11</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -2111,10 +2159,11 @@
         <v>12</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -2125,10 +2174,11 @@
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -2139,10 +2189,11 @@
         <v>14</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -2153,10 +2204,11 @@
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -2167,10 +2219,11 @@
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -2181,10 +2234,11 @@
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -2195,10 +2249,11 @@
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -2209,10 +2264,11 @@
         <v>19</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -2223,10 +2279,11 @@
         <v>20</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -2237,10 +2294,11 @@
         <v>21</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -2251,10 +2309,11 @@
         <v>22</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -2265,10 +2324,11 @@
         <v>23</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -2279,10 +2339,11 @@
         <v>24</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -2293,10 +2354,11 @@
         <v>25</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -2307,10 +2369,11 @@
         <v>26</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -2321,10 +2384,11 @@
         <v>27</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -2335,10 +2399,11 @@
         <v>28</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -2348,11 +2413,12 @@
       <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="D31" s="3"/>
       <c r="E31" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -2363,10 +2429,11 @@
         <v>30</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -2377,10 +2444,11 @@
         <v>31</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -2391,10 +2459,11 @@
         <v>32</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -2405,10 +2474,11 @@
         <v>33</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -2419,10 +2489,11 @@
         <v>34</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -2433,10 +2504,11 @@
         <v>35</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -2447,10 +2519,11 @@
         <v>36</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -2461,10 +2534,11 @@
         <v>37</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -2475,10 +2549,11 @@
         <v>38</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -2489,17 +2564,25 @@
         <v>39</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A42" s="3"/>
+      <c r="B42"/>
       <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" ht="21">
+      <c r="D42" s="3"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" s="19" customFormat="1" ht="21">
+      <c r="D43" s="3"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -2510,10 +2593,11 @@
         <v>41</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -2524,10 +2608,11 @@
         <v>42</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A46" s="3">
         <v>3</v>
       </c>
@@ -2538,10 +2623,11 @@
         <v>43</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A47" s="3">
         <v>4</v>
       </c>
@@ -2552,10 +2638,11 @@
         <v>44</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A48" s="3">
         <v>5</v>
       </c>
@@ -2565,14 +2652,12 @@
       <c r="C48" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A49" s="3">
         <v>6</v>
       </c>
@@ -2583,13 +2668,13 @@
         <v>46</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -2600,10 +2685,11 @@
         <v>47</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A51" s="3">
         <v>8</v>
       </c>
@@ -2614,10 +2700,11 @@
         <v>48</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A52" s="3">
         <v>9</v>
       </c>
@@ -2628,13 +2715,13 @@
         <v>49</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A53" s="3">
         <v>10</v>
       </c>
@@ -2645,14 +2732,25 @@
         <v>50</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10 16382:16384" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="1:5" s="20" customFormat="1">
+      <c r="A54" s="3"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="3"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+      <c r="D55" s="3"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -2663,10 +2761,11 @@
         <v>52</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -2677,10 +2776,11 @@
         <v>53</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -2691,10 +2791,11 @@
         <v>54</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A59" s="3">
         <v>4</v>
       </c>
@@ -2705,10 +2806,11 @@
         <v>55</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A60" s="3">
         <v>5</v>
       </c>
@@ -2719,10 +2821,11 @@
         <v>56</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A61" s="3">
         <v>6</v>
       </c>
@@ -2733,10 +2836,11 @@
         <v>57</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A62" s="3">
         <v>7</v>
       </c>
@@ -2747,10 +2851,11 @@
         <v>58</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10 16382:16384" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A63" s="3">
         <v>8</v>
       </c>
@@ -2761,10 +2866,11 @@
         <v>59</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10 16382:16384" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A64" s="3">
         <v>9</v>
       </c>
@@ -2774,19 +2880,12 @@
       <c r="C64" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="XFB64" s="19"/>
-      <c r="XFC64" s="19"/>
-      <c r="XFD64" s="19"/>
-    </row>
-    <row r="65" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A65" s="3">
         <v>10</v>
       </c>
@@ -2797,13 +2896,13 @@
         <v>61</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A66" s="3">
         <v>11</v>
       </c>
@@ -2814,13 +2913,13 @@
         <v>62</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A67" s="3">
         <v>12</v>
       </c>
@@ -2831,10 +2930,11 @@
         <v>63</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E67" s="19"/>
+    </row>
+    <row r="68" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A68" s="3">
         <v>13</v>
       </c>
@@ -2844,11 +2944,12 @@
       <c r="C68" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="21">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A69" s="3">
         <v>14</v>
       </c>
@@ -2858,11 +2959,12 @@
       <c r="C69" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A70" s="3">
         <v>15</v>
       </c>
@@ -2873,10 +2975,11 @@
         <v>66</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A71" s="3">
         <v>16</v>
       </c>
@@ -2887,10 +2990,11 @@
         <v>67</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E71" s="19"/>
+    </row>
+    <row r="72" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A72" s="3">
         <v>17</v>
       </c>
@@ -2900,11 +3004,12 @@
       <c r="C72" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A73" s="3">
         <v>18</v>
       </c>
@@ -2915,10 +3020,11 @@
         <v>69</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E73" s="19"/>
+    </row>
+    <row r="74" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A74" s="3">
         <v>19</v>
       </c>
@@ -2929,10 +3035,11 @@
         <v>70</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A75" s="3">
         <v>20</v>
       </c>
@@ -2943,10 +3050,11 @@
         <v>71</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E75" s="19"/>
+    </row>
+    <row r="76" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A76" s="3">
         <v>21</v>
       </c>
@@ -2957,10 +3065,11 @@
         <v>72</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E76" s="19"/>
+    </row>
+    <row r="77" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A77" s="3">
         <v>22</v>
       </c>
@@ -2970,11 +3079,12 @@
       <c r="C77" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="D77" s="3"/>
       <c r="E77" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A78" s="3">
         <v>23</v>
       </c>
@@ -2985,10 +3095,11 @@
         <v>74</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="19" customFormat="1" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E78" s="19"/>
+    </row>
+    <row r="79" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A79" s="3">
         <v>24</v>
       </c>
@@ -2999,76 +3110,101 @@
         <v>75</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E79" s="19"/>
+    </row>
+    <row r="80" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A80" s="3">
         <v>25</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="21">
+      <c r="D80" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E80" s="19"/>
+    </row>
+    <row r="81" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A81" s="3">
         <v>26</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="21">
+      <c r="D81" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E81" s="19"/>
+    </row>
+    <row r="82" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A82" s="3">
         <v>27</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="21">
+      <c r="D82" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E82" s="19"/>
+    </row>
+    <row r="83" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A83" s="3">
         <v>28</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="21">
+      <c r="D83" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E83" s="19"/>
+    </row>
+    <row r="84" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A84" s="3">
         <v>29</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="21">
+      <c r="D84" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E84" s="19"/>
+    </row>
+    <row r="85" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A85" s="3">
         <v>30</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="21">
+      <c r="D85" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A86" s="3">
         <v>31</v>
       </c>
@@ -3078,30 +3214,42 @@
       <c r="C86" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="21">
+      <c r="D86" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A87" s="3">
         <v>32</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="21">
+      <c r="D87" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A88" s="3">
         <v>33</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="21">
+      <c r="D88" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A89" s="3">
         <v>34</v>
       </c>
@@ -3111,41 +3259,57 @@
       <c r="C89" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="21">
+      <c r="D89" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A90" s="3">
         <v>35</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="21">
+      <c r="C90" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A91" s="3">
         <v>36</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="21">
+      <c r="C91" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A92" s="3">
         <v>37</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="21">
+      <c r="C92" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A93" s="3">
         <v>38</v>
       </c>
@@ -3153,10 +3317,14 @@
         <v>51</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="21">
+        <v>88</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A94" s="3">
         <v>39</v>
       </c>
@@ -3164,3651 +3332,4982 @@
         <v>51</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="21">
+        <v>89</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A95" s="3">
         <v>40</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
+      <c r="C95" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A96" s="3">
         <v>41</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="21">
+      <c r="C96" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A97" s="3">
         <v>42</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="21">
+      <c r="C97" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A98" s="3">
         <v>43</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="21">
+      <c r="C98" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:5" s="20" customFormat="1">
+      <c r="A99" s="3"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99" s="3"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A100" s="3"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
-    </row>
-    <row r="101" spans="1:3" ht="21">
+      <c r="D100" s="3"/>
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A101" s="3">
         <v>1</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="21">
+      <c r="D101" s="3"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A102" s="3">
         <v>2</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="21">
+        <v>96</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A103" s="3">
         <v>3</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="21">
+        <v>97</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A104" s="3">
         <v>4</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
+        <v>98</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A105" s="3">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="21">
+        <v>99</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A106" s="3">
         <v>6</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="21">
+        <v>100</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A107" s="3">
         <v>7</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="21">
+        <v>101</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A108" s="3">
         <v>8</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="21">
+        <v>102</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A109" s="3">
         <v>9</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="21">
+        <v>103</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A110" s="3">
         <v>10</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="21">
+        <v>104</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A111" s="3">
         <v>11</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="21">
+        <v>105</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A112" s="3">
         <v>12</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="21">
+        <v>106</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A113" s="3">
         <v>13</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="21">
+        <v>107</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A114" s="3">
         <v>14</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="21">
+        <v>108</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A115" s="3">
         <v>15</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="21">
+        <v>109</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A116" s="3">
         <v>16</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="21">
+        <v>110</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A117" s="3">
         <v>17</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="21">
+        <v>111</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A118" s="3">
         <v>18</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="21">
+        <v>112</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A119" s="3">
         <v>19</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="21">
+        <v>113</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A120" s="3">
         <v>20</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="21">
+        <v>114</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A121" s="3">
         <v>21</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="21">
+        <v>115</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A122" s="3">
         <v>22</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="21">
+        <v>116</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A123" s="3">
         <v>23</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="21">
+        <v>117</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A124" s="3">
         <v>24</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="21">
+        <v>118</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A125" s="3">
         <v>25</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="21">
+        <v>119</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A126" s="3">
         <v>26</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="21">
+        <v>120</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A127" s="3">
         <v>27</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="21">
+        <v>121</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A128" s="3">
         <v>28</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="21">
+        <v>122</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A129" s="3">
         <v>29</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="21">
+        <v>123</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A130" s="3">
         <v>30</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="21">
+        <v>124</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A131" s="3">
         <v>31</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="21">
+        <v>125</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A132" s="3">
         <v>32</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="21">
+        <v>126</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A133" s="3">
         <v>33</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="21">
+        <v>127</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A134" s="3">
         <v>34</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="21">
+        <v>128</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A135" s="3">
         <v>35</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="21">
+        <v>129</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A136" s="3">
         <v>36</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="21">
+        <v>130</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="1:5" s="20" customFormat="1">
+      <c r="A137" s="3"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137" s="3"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A138" s="3"/>
+      <c r="B138"/>
       <c r="C138" s="6"/>
-    </row>
-    <row r="139" spans="1:4" ht="21">
+      <c r="D138" s="3"/>
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A139" s="3">
         <v>1</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C139" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="D139" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A140" s="3">
         <v>2</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A141" s="3">
         <v>3</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A142" s="3">
         <v>4</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A143" s="3">
         <v>5</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A144" s="3">
         <v>6</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A145" s="3">
         <v>7</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A146" s="3">
         <v>8</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A147" s="3">
         <v>9</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A148" s="3">
         <v>10</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A149" s="3">
         <v>11</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A150" s="3">
         <v>12</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A151" s="3">
         <v>13</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A152" s="3">
         <v>14</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A153" s="3">
         <v>15</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A154" s="3">
         <v>16</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A155" s="3">
         <v>17</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A156" s="3">
         <v>18</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A157" s="3">
         <v>19</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A158" s="3">
         <v>20</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E158"/>
+    </row>
+    <row r="159" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A159" s="3">
         <v>21</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E159"/>
+    </row>
+    <row r="160" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A160" s="3">
         <v>22</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A161" s="3">
         <v>23</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="21">
+        <v>154</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161"/>
+    </row>
+    <row r="162" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A162" s="3">
         <v>24</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E162"/>
+    </row>
+    <row r="163" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A163" s="3">
         <v>25</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E163"/>
+    </row>
+    <row r="164" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A164" s="3">
         <v>26</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E164"/>
+    </row>
+    <row r="165" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A165" s="3">
         <v>27</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E165"/>
+    </row>
+    <row r="166" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A166" s="3">
         <v>28</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="21">
+        <v>466</v>
+      </c>
+      <c r="E166"/>
+    </row>
+    <row r="167" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A167" s="3">
         <v>29</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E167"/>
+    </row>
+    <row r="168" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A168" s="3">
         <v>30</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E168"/>
+    </row>
+    <row r="169" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A169" s="3">
         <v>31</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A170" s="3">
         <v>32</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A171" s="3">
         <v>33</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A172" s="3">
         <v>34</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A173" s="3">
         <v>35</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A174" s="3">
         <v>36</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="1:5" s="20" customFormat="1">
+      <c r="A175" s="3"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175" s="3"/>
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A176" s="3"/>
+      <c r="B176"/>
       <c r="C176" s="6"/>
-    </row>
-    <row r="177" spans="1:3" ht="21">
+      <c r="D176" s="3"/>
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A177" s="3">
         <v>1</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
+      <c r="D177" s="3"/>
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A178" s="3">
         <v>2</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="21">
+        <v>170</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A179" s="3">
         <v>3</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
+        <v>171</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A180" s="3">
         <v>4</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="21">
+        <v>172</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A181" s="3">
         <v>5</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="21">
+        <v>173</v>
+      </c>
+      <c r="D181" s="3"/>
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A182" s="3">
         <v>6</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="21">
+        <v>174</v>
+      </c>
+      <c r="D182" s="3"/>
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A183" s="3">
         <v>7</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="21">
+        <v>175</v>
+      </c>
+      <c r="D183" s="3"/>
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A184" s="3">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="21">
+        <v>176</v>
+      </c>
+      <c r="D184" s="3"/>
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A185" s="3">
         <v>9</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
+        <v>177</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A186" s="3">
         <v>10</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
+        <v>178</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A187" s="3">
         <v>11</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="21">
+        <v>179</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A188" s="3">
         <v>12</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
+        <v>180</v>
+      </c>
+      <c r="D188" s="3"/>
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A189" s="3">
         <v>13</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="21">
+        <v>181</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A190" s="3">
         <v>14</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="21">
+        <v>182</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A191" s="3">
         <v>15</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="21">
+        <v>183</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A192" s="3">
         <v>16</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="21">
+        <v>184</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A193" s="3">
         <v>17</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="21">
+        <v>185</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A194" s="3">
         <v>18</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="21">
+        <v>186</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A195" s="3">
         <v>19</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="21">
+        <v>187</v>
+      </c>
+      <c r="D195" s="3"/>
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A196" s="3">
         <v>20</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="21">
+        <v>188</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A197" s="3">
         <v>21</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="21">
+        <v>189</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A198" s="3">
         <v>22</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="21">
+        <v>190</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A199" s="3">
         <v>23</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="21">
+        <v>191</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A200" s="3">
         <v>24</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="21">
+        <v>192</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A201" s="3">
         <v>25</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="21">
+        <v>193</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201"/>
+    </row>
+    <row r="202" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A202" s="3">
         <v>26</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="21">
+        <v>194</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="E202"/>
+    </row>
+    <row r="203" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A203" s="3">
         <v>27</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="21">
+        <v>195</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203"/>
+    </row>
+    <row r="204" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A204" s="3">
         <v>28</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="21">
+        <v>196</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A205" s="3">
         <v>29</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="21">
+        <v>197</v>
+      </c>
+      <c r="D205" s="3"/>
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A206" s="3">
         <v>30</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="21">
+        <v>198</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A207" s="3">
         <v>31</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="21">
+        <v>199</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A208" s="3">
         <v>32</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="21">
+        <v>200</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A209" s="3">
         <v>33</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="21">
+        <v>201</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A210" s="3">
         <v>34</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
+        <v>202</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A211" s="3">
         <v>35</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21">
+        <v>203</v>
+      </c>
+      <c r="D211" s="3"/>
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A212" s="3"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
-    </row>
-    <row r="213" spans="1:3" ht="21">
+      <c r="D212" s="3"/>
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A213" s="3"/>
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
-    </row>
-    <row r="214" spans="1:3" ht="21">
+      <c r="D213" s="3"/>
+      <c r="E213"/>
+    </row>
+    <row r="214" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A214" s="3">
         <v>1</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="21">
+      <c r="D214" s="3"/>
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A215" s="3">
         <v>2</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="21">
+        <v>206</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A216" s="3">
         <v>3</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="21">
+        <v>207</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A217" s="3">
         <v>4</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="21">
+        <v>208</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217"/>
+    </row>
+    <row r="218" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A218" s="3">
         <v>5</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="21">
+        <v>209</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A219" s="3">
         <v>6</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="21">
+        <v>210</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219"/>
+    </row>
+    <row r="220" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A220" s="3">
         <v>7</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="21">
+        <v>211</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220"/>
+    </row>
+    <row r="221" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A221" s="3">
         <v>8</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="21">
+        <v>212</v>
+      </c>
+      <c r="D221" s="3"/>
+      <c r="E221"/>
+    </row>
+    <row r="222" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A222" s="3">
         <v>9</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="21">
+        <v>213</v>
+      </c>
+      <c r="D222" s="3"/>
+      <c r="E222"/>
+    </row>
+    <row r="223" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A223" s="3">
         <v>10</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="21">
+        <v>214</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223"/>
+    </row>
+    <row r="224" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A224" s="3">
         <v>11</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="21">
+        <v>215</v>
+      </c>
+      <c r="D224" s="3"/>
+      <c r="E224"/>
+    </row>
+    <row r="225" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A225" s="3">
         <v>12</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="21">
+        <v>216</v>
+      </c>
+      <c r="D225" s="3"/>
+      <c r="E225"/>
+    </row>
+    <row r="226" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A226" s="3">
         <v>13</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="21">
+        <v>217</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226"/>
+    </row>
+    <row r="227" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A227" s="3">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="21">
+        <v>218</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227"/>
+    </row>
+    <row r="228" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A228" s="3">
         <v>15</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="21">
+        <v>219</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228"/>
+    </row>
+    <row r="229" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A229" s="3">
         <v>16</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="21">
+        <v>220</v>
+      </c>
+      <c r="D229" s="3"/>
+      <c r="E229"/>
+    </row>
+    <row r="230" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A230" s="3">
         <v>17</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="21">
+        <v>221</v>
+      </c>
+      <c r="D230" s="3"/>
+      <c r="E230"/>
+    </row>
+    <row r="231" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A231" s="3">
         <v>18</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="21">
+        <v>222</v>
+      </c>
+      <c r="D231" s="3"/>
+      <c r="E231"/>
+    </row>
+    <row r="232" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A232" s="3">
         <v>19</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="21">
+        <v>223</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232"/>
+    </row>
+    <row r="233" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A233" s="3">
         <v>20</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="21">
+        <v>224</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233"/>
+    </row>
+    <row r="234" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A234" s="3">
         <v>21</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="21">
+        <v>225</v>
+      </c>
+      <c r="D234" s="3"/>
+      <c r="E234"/>
+    </row>
+    <row r="235" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A235" s="3">
         <v>22</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C235" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D235" s="3"/>
+      <c r="E235"/>
+    </row>
+    <row r="236" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A236" s="3"/>
+      <c r="B236"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="3"/>
+      <c r="E236"/>
+    </row>
+    <row r="237" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A237" s="3"/>
+      <c r="B237"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="3"/>
+      <c r="E237"/>
+    </row>
+    <row r="238" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A238" s="3">
+        <v>1</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="21">
-      <c r="C236" s="6"/>
-    </row>
-    <row r="237" spans="1:3" ht="21">
-      <c r="C237" s="6"/>
-    </row>
-    <row r="238" spans="1:3" ht="21">
-      <c r="B238" s="4" t="s">
+      <c r="C238" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="D238" s="3"/>
+      <c r="E238"/>
+    </row>
+    <row r="239" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A239" s="3">
+        <v>2</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C239" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="21">
-      <c r="B239" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C239" s="5" t="s">
+      <c r="D239" s="3"/>
+      <c r="E239"/>
+    </row>
+    <row r="240" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A240" s="3">
+        <v>3</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C240" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="21">
-      <c r="B240" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C240" s="5" t="s">
+      <c r="D240" s="3"/>
+      <c r="E240"/>
+    </row>
+    <row r="241" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A241" s="3">
+        <v>4</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C241" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="241" spans="2:3" ht="21">
-      <c r="B241" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C241" s="5" t="s">
+      <c r="D241" s="3"/>
+      <c r="E241"/>
+    </row>
+    <row r="242" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A242" s="3">
+        <v>5</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C242" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="242" spans="2:3" ht="21">
-      <c r="B242" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C242" s="5" t="s">
+      <c r="D242" s="3"/>
+      <c r="E242"/>
+    </row>
+    <row r="243" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A243" s="3">
+        <v>6</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="243" spans="2:3" ht="21">
-      <c r="B243" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C243" s="5" t="s">
+      <c r="D243" s="3"/>
+      <c r="E243"/>
+    </row>
+    <row r="244" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A244" s="3">
+        <v>7</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C244" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="244" spans="2:3" ht="21">
-      <c r="B244" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C244" s="5" t="s">
+      <c r="D244" s="3"/>
+      <c r="E244"/>
+    </row>
+    <row r="245" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A245" s="3">
+        <v>8</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C245" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="245" spans="2:3" ht="21">
-      <c r="B245" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C245" s="5" t="s">
+      <c r="D245" s="3"/>
+      <c r="E245"/>
+    </row>
+    <row r="246" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A246" s="3">
+        <v>9</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C246" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="246" spans="2:3" ht="21">
-      <c r="B246" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C246" s="5" t="s">
+      <c r="D246" s="3"/>
+      <c r="E246"/>
+    </row>
+    <row r="247" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A247" s="3">
+        <v>10</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C247" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="247" spans="2:3" ht="21">
-      <c r="B247" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C247" s="5" t="s">
+      <c r="D247" s="3"/>
+      <c r="E247"/>
+    </row>
+    <row r="248" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A248" s="3">
+        <v>11</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C248" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="248" spans="2:3" ht="21">
-      <c r="B248" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C248" s="5" t="s">
+      <c r="D248" s="3"/>
+      <c r="E248"/>
+    </row>
+    <row r="249" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A249" s="3">
+        <v>12</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C249" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="249" spans="2:3" ht="21">
-      <c r="B249" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C249" s="5" t="s">
+      <c r="D249" s="3"/>
+      <c r="E249"/>
+    </row>
+    <row r="250" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A250" s="3">
+        <v>13</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C250" s="5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="250" spans="2:3" ht="21">
-      <c r="B250" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C250" s="5" t="s">
+      <c r="D250" s="3"/>
+      <c r="E250"/>
+    </row>
+    <row r="251" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A251" s="3">
+        <v>14</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C251" s="5" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="251" spans="2:3" ht="21">
-      <c r="B251" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C251" s="5" t="s">
+      <c r="D251" s="3"/>
+      <c r="E251"/>
+    </row>
+    <row r="252" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A252" s="3">
+        <v>15</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C252" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="252" spans="2:3" ht="21">
-      <c r="B252" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C252" s="5" t="s">
+      <c r="D252" s="3"/>
+      <c r="E252"/>
+    </row>
+    <row r="253" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A253" s="3">
+        <v>16</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C253" s="5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="253" spans="2:3" ht="21">
-      <c r="B253" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C253" s="5" t="s">
+      <c r="D253" s="3"/>
+      <c r="E253"/>
+    </row>
+    <row r="254" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A254" s="3">
+        <v>17</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C254" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="254" spans="2:3" ht="21">
-      <c r="B254" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C254" s="5" t="s">
+      <c r="D254" s="3"/>
+      <c r="E254"/>
+    </row>
+    <row r="255" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A255" s="3">
+        <v>18</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C255" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="255" spans="2:3" ht="21">
-      <c r="B255" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C255" s="5" t="s">
+      <c r="D255" s="3"/>
+      <c r="E255"/>
+    </row>
+    <row r="256" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A256" s="3">
+        <v>19</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C256" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="256" spans="2:3" ht="21">
-      <c r="B256" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C256" s="5" t="s">
+      <c r="D256" s="3"/>
+      <c r="E256"/>
+    </row>
+    <row r="257" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A257" s="3">
+        <v>20</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C257" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="257" spans="2:3" ht="21">
-      <c r="B257" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C257" s="5" t="s">
+      <c r="D257" s="3"/>
+      <c r="E257"/>
+    </row>
+    <row r="258" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A258" s="3">
+        <v>21</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C258" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="258" spans="2:3" ht="21">
-      <c r="B258" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C258" s="5" t="s">
+      <c r="D258" s="3"/>
+      <c r="E258"/>
+    </row>
+    <row r="259" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A259" s="3">
+        <v>22</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C259" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="259" spans="2:3" ht="21">
-      <c r="B259" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C259" s="5" t="s">
+      <c r="D259" s="3"/>
+      <c r="E259"/>
+    </row>
+    <row r="260" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A260" s="3">
+        <v>23</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C260" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="260" spans="2:3" ht="21">
-      <c r="B260" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C260" s="5" t="s">
+      <c r="D260" s="3"/>
+      <c r="E260"/>
+    </row>
+    <row r="261" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A261" s="3">
+        <v>24</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="261" spans="2:3" ht="21">
-      <c r="B261" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C261" s="5" t="s">
+      <c r="D261" s="3"/>
+      <c r="E261"/>
+    </row>
+    <row r="262" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A262" s="3">
+        <v>25</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="262" spans="2:3" ht="21">
-      <c r="B262" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C262" s="5" t="s">
+      <c r="D262" s="3"/>
+      <c r="E262"/>
+    </row>
+    <row r="263" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A263" s="3">
+        <v>26</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C263" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="263" spans="2:3" ht="21">
-      <c r="B263" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C263" s="5" t="s">
+      <c r="D263" s="3"/>
+      <c r="E263"/>
+    </row>
+    <row r="264" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A264" s="3">
+        <v>27</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C264" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="264" spans="2:3" ht="21">
-      <c r="B264" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C264" s="5" t="s">
+      <c r="D264" s="3"/>
+      <c r="E264"/>
+    </row>
+    <row r="265" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A265" s="3">
+        <v>28</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="265" spans="2:3" ht="21">
-      <c r="B265" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C265" s="5" t="s">
+      <c r="D265" s="3"/>
+      <c r="E265"/>
+    </row>
+    <row r="266" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A266" s="3">
+        <v>29</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C266" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="266" spans="2:3" ht="21">
-      <c r="B266" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C266" s="5" t="s">
+      <c r="D266" s="3"/>
+      <c r="E266"/>
+    </row>
+    <row r="267" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A267" s="3">
+        <v>30</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C267" s="5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="267" spans="2:3" ht="21">
-      <c r="B267" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C267" s="5" t="s">
+      <c r="D267" s="3"/>
+      <c r="E267"/>
+    </row>
+    <row r="268" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A268" s="3">
+        <v>31</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C268" s="5" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="268" spans="2:3" ht="21">
-      <c r="B268" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C268" s="5" t="s">
+      <c r="D268" s="3"/>
+      <c r="E268"/>
+    </row>
+    <row r="269" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A269" s="3">
+        <v>32</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="269" spans="2:3" ht="21">
-      <c r="B269" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C269" s="5" t="s">
+      <c r="D269" s="3"/>
+      <c r="E269"/>
+    </row>
+    <row r="270" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A270" s="3">
+        <v>33</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C270" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="270" spans="2:3" ht="21">
-      <c r="B270" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="271" spans="2:3" ht="21">
+      <c r="D270" s="3"/>
+      <c r="E270"/>
+    </row>
+    <row r="271" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A271" s="3">
+        <v>34</v>
+      </c>
       <c r="B271" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="272" spans="2:3" ht="21">
+      <c r="D271" s="3"/>
+      <c r="E271"/>
+    </row>
+    <row r="272" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A272" s="3">
+        <v>35</v>
+      </c>
       <c r="B272" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C272" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272"/>
+    </row>
+    <row r="273" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A273" s="3"/>
+      <c r="B273"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="3"/>
+      <c r="E273"/>
+    </row>
+    <row r="274" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A274" s="3"/>
+      <c r="B274"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="3"/>
+      <c r="E274"/>
+    </row>
+    <row r="275" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A275" s="3">
+        <v>1</v>
+      </c>
+      <c r="B275" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="273" spans="2:3" ht="21">
-      <c r="C273" s="6"/>
-    </row>
-    <row r="274" spans="2:3" ht="21">
-      <c r="C274" s="6"/>
-    </row>
-    <row r="275" spans="2:3" ht="21">
-      <c r="B275" s="4" t="s">
+      <c r="C275" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="D275" s="3"/>
+      <c r="E275"/>
+    </row>
+    <row r="276" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A276" s="3">
+        <v>2</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="276" spans="2:3" ht="21">
-      <c r="B276" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C276" s="5" t="s">
+      <c r="D276" s="3"/>
+      <c r="E276"/>
+    </row>
+    <row r="277" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A277" s="3">
+        <v>3</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C277" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="277" spans="2:3" ht="21">
-      <c r="B277" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C277" s="5" t="s">
+      <c r="D277" s="3"/>
+      <c r="E277"/>
+    </row>
+    <row r="278" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A278" s="3">
+        <v>4</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C278" s="5" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="278" spans="2:3" ht="21">
-      <c r="B278" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C278" s="5" t="s">
+      <c r="D278" s="3"/>
+      <c r="E278"/>
+    </row>
+    <row r="279" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A279" s="3">
+        <v>5</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C279" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="279" spans="2:3" ht="21">
-      <c r="B279" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C279" s="5" t="s">
+      <c r="D279" s="3"/>
+      <c r="E279"/>
+    </row>
+    <row r="280" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A280" s="3">
+        <v>6</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C280" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="280" spans="2:3" ht="21">
-      <c r="B280" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C280" s="5" t="s">
+      <c r="D280" s="3"/>
+      <c r="E280"/>
+    </row>
+    <row r="281" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A281" s="3">
+        <v>7</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C281" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="281" spans="2:3" ht="21">
-      <c r="B281" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C281" s="5" t="s">
+      <c r="D281" s="3"/>
+      <c r="E281"/>
+    </row>
+    <row r="282" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A282" s="3">
+        <v>8</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C282" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="282" spans="2:3" ht="21">
-      <c r="B282" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C282" s="5" t="s">
+      <c r="D282" s="3"/>
+      <c r="E282"/>
+    </row>
+    <row r="283" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A283" s="3">
+        <v>9</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C283" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="283" spans="2:3" ht="21">
-      <c r="B283" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C283" s="5" t="s">
+      <c r="D283" s="3"/>
+      <c r="E283"/>
+    </row>
+    <row r="284" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A284" s="3">
+        <v>10</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C284" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="284" spans="2:3" ht="21">
-      <c r="B284" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C284" s="5" t="s">
+      <c r="D284" s="3"/>
+      <c r="E284"/>
+    </row>
+    <row r="285" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A285" s="3">
+        <v>11</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C285" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="285" spans="2:3" ht="21">
-      <c r="B285" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C285" s="5" t="s">
+      <c r="D285" s="3"/>
+      <c r="E285"/>
+    </row>
+    <row r="286" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A286" s="3">
+        <v>12</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C286" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="286" spans="2:3" ht="21">
-      <c r="B286" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C286" s="5" t="s">
+      <c r="D286" s="3"/>
+      <c r="E286"/>
+    </row>
+    <row r="287" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A287" s="3">
+        <v>13</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C287" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="287" spans="2:3" ht="21">
-      <c r="B287" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C287" s="5" t="s">
+      <c r="D287" s="3"/>
+      <c r="E287"/>
+    </row>
+    <row r="288" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A288" s="3">
+        <v>14</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C288" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="288" spans="2:3" ht="21">
-      <c r="B288" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C288" s="5" t="s">
+      <c r="D288" s="3"/>
+      <c r="E288"/>
+    </row>
+    <row r="289" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A289" s="3">
+        <v>15</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C289" s="5" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="21">
-      <c r="B289" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C289" s="5" t="s">
+      <c r="D289" s="3"/>
+      <c r="E289"/>
+    </row>
+    <row r="290" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A290" s="3">
+        <v>16</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C290" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="21">
-      <c r="B290" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C290" s="5" t="s">
+      <c r="D290" s="3"/>
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A291" s="3">
+        <v>17</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C291" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="21">
-      <c r="B291" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C291" s="5" t="s">
+      <c r="D291" s="3"/>
+      <c r="E291"/>
+    </row>
+    <row r="292" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A292" s="3">
+        <v>18</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C292" s="5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="21">
-      <c r="B292" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C292" s="5" t="s">
+      <c r="D292" s="3"/>
+      <c r="E292"/>
+    </row>
+    <row r="293" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A293" s="3">
+        <v>19</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C293" s="5" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="21">
-      <c r="B293" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="21">
+      <c r="D293" s="3"/>
+      <c r="E293"/>
+    </row>
+    <row r="294" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A294" s="3"/>
+      <c r="B294"/>
       <c r="C294" s="6"/>
-    </row>
-    <row r="295" spans="1:3" ht="21">
+      <c r="D294" s="3"/>
+      <c r="E294"/>
+    </row>
+    <row r="295" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A295" s="3"/>
+      <c r="B295"/>
       <c r="C295" s="6"/>
-    </row>
-    <row r="296" spans="1:3" ht="21">
+      <c r="D295" s="3"/>
+      <c r="E295"/>
+    </row>
+    <row r="296" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A296" s="3">
         <v>1</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C296" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="21">
+      <c r="D296" s="3"/>
+      <c r="E296"/>
+    </row>
+    <row r="297" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A297" s="3">
         <v>2</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="21">
+        <v>284</v>
+      </c>
+      <c r="D297" s="3"/>
+      <c r="E297"/>
+    </row>
+    <row r="298" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A298" s="3">
         <v>3</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="21">
+        <v>285</v>
+      </c>
+      <c r="D298" s="3"/>
+      <c r="E298"/>
+    </row>
+    <row r="299" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A299" s="3">
         <v>4</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="21">
+        <v>286</v>
+      </c>
+      <c r="D299" s="3"/>
+      <c r="E299"/>
+    </row>
+    <row r="300" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A300" s="3">
         <v>5</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="21">
+        <v>287</v>
+      </c>
+      <c r="D300" s="3"/>
+      <c r="E300"/>
+    </row>
+    <row r="301" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A301" s="3">
         <v>6</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="21">
+        <v>288</v>
+      </c>
+      <c r="D301" s="3"/>
+      <c r="E301"/>
+    </row>
+    <row r="302" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A302" s="3">
         <v>7</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="21">
+        <v>289</v>
+      </c>
+      <c r="D302" s="3"/>
+      <c r="E302"/>
+    </row>
+    <row r="303" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A303" s="3">
         <v>8</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="21">
+        <v>290</v>
+      </c>
+      <c r="D303" s="3"/>
+      <c r="E303"/>
+    </row>
+    <row r="304" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A304" s="3">
         <v>9</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="21">
+        <v>291</v>
+      </c>
+      <c r="D304" s="3"/>
+      <c r="E304"/>
+    </row>
+    <row r="305" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A305" s="3">
         <v>10</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="21">
+        <v>292</v>
+      </c>
+      <c r="D305" s="3"/>
+      <c r="E305"/>
+    </row>
+    <row r="306" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A306" s="3">
         <v>11</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="21">
+        <v>293</v>
+      </c>
+      <c r="D306" s="3"/>
+      <c r="E306"/>
+    </row>
+    <row r="307" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A307" s="3">
         <v>12</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="21">
+        <v>294</v>
+      </c>
+      <c r="D307" s="3"/>
+      <c r="E307"/>
+    </row>
+    <row r="308" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A308" s="3">
         <v>13</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="21">
+        <v>295</v>
+      </c>
+      <c r="D308" s="3"/>
+      <c r="E308"/>
+    </row>
+    <row r="309" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A309" s="3">
         <v>14</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="21">
+        <v>296</v>
+      </c>
+      <c r="D309" s="3"/>
+      <c r="E309"/>
+    </row>
+    <row r="310" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A310" s="3">
         <v>15</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="21">
+        <v>297</v>
+      </c>
+      <c r="D310" s="3"/>
+      <c r="E310"/>
+    </row>
+    <row r="311" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A311" s="3">
         <v>16</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="21">
+        <v>298</v>
+      </c>
+      <c r="D311" s="3"/>
+      <c r="E311"/>
+    </row>
+    <row r="312" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A312" s="3">
         <v>17</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="21">
+        <v>299</v>
+      </c>
+      <c r="D312" s="3"/>
+      <c r="E312"/>
+    </row>
+    <row r="313" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A313" s="3">
         <v>18</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="21">
+        <v>300</v>
+      </c>
+      <c r="D313" s="3"/>
+      <c r="E313"/>
+    </row>
+    <row r="314" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A314" s="3">
         <v>19</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="21">
+        <v>301</v>
+      </c>
+      <c r="D314" s="3"/>
+      <c r="E314"/>
+    </row>
+    <row r="315" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A315" s="3">
         <v>20</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="21">
+        <v>302</v>
+      </c>
+      <c r="D315" s="3"/>
+      <c r="E315"/>
+    </row>
+    <row r="316" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A316" s="3">
         <v>21</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="21">
+        <v>303</v>
+      </c>
+      <c r="D316" s="3"/>
+      <c r="E316"/>
+    </row>
+    <row r="317" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A317" s="3">
         <v>22</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="21">
+        <v>304</v>
+      </c>
+      <c r="D317" s="3"/>
+      <c r="E317"/>
+    </row>
+    <row r="318" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A318" s="3">
         <v>23</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="21">
+        <v>305</v>
+      </c>
+      <c r="D318" s="3"/>
+      <c r="E318"/>
+    </row>
+    <row r="319" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A319" s="3">
         <v>24</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="21">
+        <v>306</v>
+      </c>
+      <c r="D319" s="3"/>
+      <c r="E319"/>
+    </row>
+    <row r="320" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A320" s="3">
         <v>25</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="21">
+        <v>307</v>
+      </c>
+      <c r="D320" s="3"/>
+      <c r="E320"/>
+    </row>
+    <row r="321" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A321" s="3">
         <v>26</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="21">
+        <v>308</v>
+      </c>
+      <c r="D321" s="3"/>
+      <c r="E321"/>
+    </row>
+    <row r="322" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A322" s="3">
         <v>27</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="21">
+        <v>309</v>
+      </c>
+      <c r="D322" s="3"/>
+      <c r="E322"/>
+    </row>
+    <row r="323" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A323" s="3">
         <v>28</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="21">
+        <v>310</v>
+      </c>
+      <c r="D323" s="3"/>
+      <c r="E323"/>
+    </row>
+    <row r="324" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A324" s="3">
         <v>29</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="21">
+        <v>311</v>
+      </c>
+      <c r="D324" s="3"/>
+      <c r="E324"/>
+    </row>
+    <row r="325" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A325" s="3">
         <v>30</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="21">
+        <v>312</v>
+      </c>
+      <c r="D325" s="3"/>
+      <c r="E325"/>
+    </row>
+    <row r="326" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A326" s="3">
         <v>31</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="21">
+        <v>313</v>
+      </c>
+      <c r="D326" s="3"/>
+      <c r="E326"/>
+    </row>
+    <row r="327" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A327" s="3">
         <v>32</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="21">
+        <v>314</v>
+      </c>
+      <c r="D327" s="3"/>
+      <c r="E327"/>
+    </row>
+    <row r="328" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A328" s="3">
         <v>33</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="21">
+        <v>315</v>
+      </c>
+      <c r="D328" s="3"/>
+      <c r="E328"/>
+    </row>
+    <row r="329" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A329" s="3">
         <v>34</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="21">
+        <v>316</v>
+      </c>
+      <c r="D329" s="3"/>
+      <c r="E329"/>
+    </row>
+    <row r="330" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A330" s="3">
         <v>35</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="21">
+        <v>317</v>
+      </c>
+      <c r="D330" s="3"/>
+      <c r="E330"/>
+    </row>
+    <row r="331" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A331" s="3">
         <v>36</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="21">
+        <v>318</v>
+      </c>
+      <c r="D331" s="3"/>
+      <c r="E331"/>
+    </row>
+    <row r="332" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A332" s="3">
         <v>37</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="21">
+        <v>319</v>
+      </c>
+      <c r="D332" s="3"/>
+      <c r="E332"/>
+    </row>
+    <row r="333" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A333" s="3">
         <v>38</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="21">
+        <v>320</v>
+      </c>
+      <c r="D333" s="3"/>
+      <c r="E333"/>
+    </row>
+    <row r="334" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A334" s="3"/>
+      <c r="B334"/>
       <c r="C334" s="6"/>
-    </row>
-    <row r="335" spans="1:3" ht="21">
+      <c r="D334" s="3"/>
+      <c r="E334"/>
+    </row>
+    <row r="335" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A335" s="3"/>
+      <c r="B335"/>
       <c r="C335" s="6"/>
-    </row>
-    <row r="336" spans="1:3" ht="21">
+      <c r="D335" s="3"/>
+      <c r="E335"/>
+    </row>
+    <row r="336" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A336" s="3">
         <v>1</v>
       </c>
       <c r="B336" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C336" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C336" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="21">
+      <c r="D336" s="3"/>
+      <c r="E336"/>
+    </row>
+    <row r="337" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A337" s="3">
         <v>2</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="21">
+        <v>323</v>
+      </c>
+      <c r="D337" s="3"/>
+      <c r="E337"/>
+    </row>
+    <row r="338" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A338" s="3">
         <v>3</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="21">
+        <v>324</v>
+      </c>
+      <c r="D338" s="3"/>
+      <c r="E338"/>
+    </row>
+    <row r="339" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A339" s="3">
         <v>4</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="21">
+        <v>325</v>
+      </c>
+      <c r="D339" s="3"/>
+      <c r="E339"/>
+    </row>
+    <row r="340" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A340" s="3">
         <v>5</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="21">
+        <v>326</v>
+      </c>
+      <c r="D340" s="3"/>
+      <c r="E340"/>
+    </row>
+    <row r="341" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A341" s="3">
         <v>6</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="21">
+        <v>327</v>
+      </c>
+      <c r="D341" s="3"/>
+      <c r="E341"/>
+    </row>
+    <row r="342" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A342" s="3">
         <v>7</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="21">
+        <v>328</v>
+      </c>
+      <c r="D342" s="3"/>
+      <c r="E342"/>
+    </row>
+    <row r="343" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A343" s="3">
         <v>8</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="21">
+        <v>329</v>
+      </c>
+      <c r="D343" s="3"/>
+      <c r="E343"/>
+    </row>
+    <row r="344" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A344" s="3">
         <v>9</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="21">
+        <v>330</v>
+      </c>
+      <c r="D344" s="3"/>
+      <c r="E344"/>
+    </row>
+    <row r="345" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A345" s="3">
         <v>10</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="21">
+        <v>331</v>
+      </c>
+      <c r="D345" s="3"/>
+      <c r="E345"/>
+    </row>
+    <row r="346" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A346" s="3">
         <v>11</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="21">
+        <v>332</v>
+      </c>
+      <c r="D346" s="3"/>
+      <c r="E346"/>
+    </row>
+    <row r="347" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A347" s="3">
         <v>12</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="21">
+        <v>333</v>
+      </c>
+      <c r="D347" s="3"/>
+      <c r="E347"/>
+    </row>
+    <row r="348" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A348" s="3">
         <v>13</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="21">
+        <v>334</v>
+      </c>
+      <c r="D348" s="3"/>
+      <c r="E348"/>
+    </row>
+    <row r="349" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A349" s="3">
         <v>14</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="21">
+        <v>335</v>
+      </c>
+      <c r="D349" s="3"/>
+      <c r="E349"/>
+    </row>
+    <row r="350" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A350" s="3">
         <v>15</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="21">
+        <v>336</v>
+      </c>
+      <c r="D350" s="3"/>
+      <c r="E350"/>
+    </row>
+    <row r="351" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A351" s="3">
         <v>16</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="21">
+        <v>337</v>
+      </c>
+      <c r="D351" s="3"/>
+      <c r="E351"/>
+    </row>
+    <row r="352" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A352" s="3">
         <v>17</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="21">
+        <v>338</v>
+      </c>
+      <c r="D352" s="3"/>
+      <c r="E352"/>
+    </row>
+    <row r="353" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A353" s="3">
         <v>18</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C353" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D353" s="3"/>
+      <c r="E353"/>
+    </row>
+    <row r="354" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A354" s="3"/>
+      <c r="B354"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="3"/>
+      <c r="E354"/>
+    </row>
+    <row r="355" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A355" s="3"/>
+      <c r="B355"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="3"/>
+      <c r="E355"/>
+    </row>
+    <row r="356" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A356" s="3">
+        <v>1</v>
+      </c>
+      <c r="B356" s="7" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" ht="21">
-      <c r="C354" s="6"/>
-    </row>
-    <row r="355" spans="1:3" ht="21">
-      <c r="C355" s="6"/>
-    </row>
-    <row r="356" spans="1:3" ht="21">
-      <c r="B356" s="7" t="s">
+      <c r="C356" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C356" s="5" t="s">
+      <c r="D356" s="3"/>
+      <c r="E356"/>
+    </row>
+    <row r="357" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A357" s="3">
+        <v>2</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C357" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="21">
-      <c r="B357" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C357" s="5" t="s">
+      <c r="D357" s="3"/>
+      <c r="E357"/>
+    </row>
+    <row r="358" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A358" s="3">
+        <v>3</v>
+      </c>
+      <c r="B358" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C358" s="5" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="21">
-      <c r="B358" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C358" s="5" t="s">
+      <c r="D358" s="3"/>
+      <c r="E358"/>
+    </row>
+    <row r="359" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A359" s="3">
+        <v>4</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C359" s="5" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="21">
-      <c r="B359" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C359" s="5" t="s">
+      <c r="D359" s="3"/>
+      <c r="E359"/>
+    </row>
+    <row r="360" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A360" s="3">
+        <v>5</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C360" s="5" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" ht="21">
-      <c r="B360" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C360" s="5" t="s">
+      <c r="D360" s="3"/>
+      <c r="E360"/>
+    </row>
+    <row r="361" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A361" s="3">
+        <v>6</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C361" s="5" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" ht="21">
-      <c r="B361" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C361" s="5" t="s">
+      <c r="D361" s="3"/>
+      <c r="E361"/>
+    </row>
+    <row r="362" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A362" s="3">
+        <v>7</v>
+      </c>
+      <c r="B362" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C362" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="21">
-      <c r="B362" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C362" s="5" t="s">
+      <c r="D362" s="3"/>
+      <c r="E362"/>
+    </row>
+    <row r="363" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A363" s="3">
+        <v>8</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C363" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="21">
-      <c r="B363" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C363" s="5" t="s">
+      <c r="D363" s="3"/>
+      <c r="E363"/>
+    </row>
+    <row r="364" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A364" s="3">
+        <v>9</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C364" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" ht="21">
-      <c r="B364" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C364" s="5" t="s">
+      <c r="D364" s="3"/>
+      <c r="E364"/>
+    </row>
+    <row r="365" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A365" s="3">
+        <v>10</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C365" s="5" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="21">
-      <c r="B365" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C365" s="5" t="s">
+      <c r="D365" s="3"/>
+      <c r="E365"/>
+    </row>
+    <row r="366" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A366" s="3">
+        <v>11</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C366" s="5" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="21">
-      <c r="B366" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C366" s="5" t="s">
+      <c r="D366" s="3"/>
+      <c r="E366"/>
+    </row>
+    <row r="367" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A367" s="3">
+        <v>12</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C367" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" ht="21">
-      <c r="B367" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C367" s="5" t="s">
+      <c r="D367" s="3"/>
+      <c r="E367"/>
+    </row>
+    <row r="368" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A368" s="3">
+        <v>13</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C368" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" ht="21">
-      <c r="B368" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C368" s="5" t="s">
+      <c r="D368" s="3"/>
+      <c r="E368"/>
+    </row>
+    <row r="369" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A369" s="3">
+        <v>14</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C369" s="5" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="369" spans="2:3" ht="21">
-      <c r="B369" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C369" s="5" t="s">
+      <c r="D369" s="3"/>
+      <c r="E369"/>
+    </row>
+    <row r="370" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A370" s="3">
+        <v>15</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C370" s="5" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="370" spans="2:3" ht="21">
-      <c r="B370" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C370" s="5" t="s">
+      <c r="D370" s="3"/>
+      <c r="E370"/>
+    </row>
+    <row r="371" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A371" s="3">
+        <v>16</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C371" s="5" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="371" spans="2:3" ht="21">
-      <c r="B371" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C371" s="5" t="s">
+      <c r="D371" s="3"/>
+      <c r="E371"/>
+    </row>
+    <row r="372" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A372" s="3">
+        <v>17</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C372" s="5" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="372" spans="2:3" ht="21">
-      <c r="B372" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C372" s="5" t="s">
+      <c r="D372" s="3"/>
+      <c r="E372"/>
+    </row>
+    <row r="373" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A373" s="3">
+        <v>18</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C373" s="5" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="373" spans="2:3" ht="21">
-      <c r="B373" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C373" s="5" t="s">
+      <c r="D373" s="3"/>
+      <c r="E373"/>
+    </row>
+    <row r="374" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A374" s="3">
+        <v>19</v>
+      </c>
+      <c r="B374" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C374" s="5" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="374" spans="2:3" ht="21">
-      <c r="B374" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C374" s="5" t="s">
+      <c r="D374" s="3"/>
+      <c r="E374"/>
+    </row>
+    <row r="375" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A375" s="3">
+        <v>20</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C375" s="5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="375" spans="2:3" ht="21">
-      <c r="B375" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C375" s="5" t="s">
+      <c r="D375" s="3"/>
+      <c r="E375"/>
+    </row>
+    <row r="376" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A376" s="3">
+        <v>21</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C376" s="5" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="376" spans="2:3" ht="21">
-      <c r="B376" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C376" s="5" t="s">
+      <c r="D376" s="3"/>
+      <c r="E376"/>
+    </row>
+    <row r="377" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A377" s="3">
+        <v>22</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C377" s="5" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="377" spans="2:3" ht="21">
-      <c r="B377" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C377" s="5" t="s">
+      <c r="D377" s="3"/>
+      <c r="E377"/>
+    </row>
+    <row r="378" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A378" s="3">
+        <v>23</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C378" s="5" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="378" spans="2:3" ht="21">
-      <c r="B378" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C378" s="5" t="s">
+      <c r="D378" s="3"/>
+      <c r="E378"/>
+    </row>
+    <row r="379" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A379" s="3">
+        <v>24</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C379" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="379" spans="2:3" ht="21">
-      <c r="B379" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C379" s="5" t="s">
+      <c r="D379" s="3"/>
+      <c r="E379"/>
+    </row>
+    <row r="380" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A380" s="3">
+        <v>25</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C380" s="5" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="380" spans="2:3" ht="21">
-      <c r="B380" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C380" s="5" t="s">
+      <c r="D380" s="3"/>
+      <c r="E380"/>
+    </row>
+    <row r="381" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A381" s="3">
+        <v>26</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C381" s="5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="381" spans="2:3" ht="21">
-      <c r="B381" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C381" s="5" t="s">
+      <c r="D381" s="3"/>
+      <c r="E381"/>
+    </row>
+    <row r="382" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A382" s="3">
+        <v>27</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C382" s="5" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="382" spans="2:3" ht="21">
-      <c r="B382" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C382" s="5" t="s">
+      <c r="D382" s="3"/>
+      <c r="E382"/>
+    </row>
+    <row r="383" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A383" s="3">
+        <v>28</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C383" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="383" spans="2:3" ht="21">
-      <c r="B383" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C383" s="5" t="s">
+      <c r="D383" s="3"/>
+      <c r="E383"/>
+    </row>
+    <row r="384" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A384" s="3">
+        <v>29</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C384" s="5" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="384" spans="2:3" ht="21">
-      <c r="B384" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C384" s="5" t="s">
+      <c r="D384" s="3"/>
+      <c r="E384"/>
+    </row>
+    <row r="385" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A385" s="3">
+        <v>30</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C385" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="385" spans="2:3" ht="21">
-      <c r="B385" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C385" s="5" t="s">
+      <c r="D385" s="3"/>
+      <c r="E385"/>
+    </row>
+    <row r="386" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A386" s="3">
+        <v>31</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C386" s="5" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="386" spans="2:3" ht="21">
-      <c r="B386" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C386" s="5" t="s">
+      <c r="D386" s="3"/>
+      <c r="E386"/>
+    </row>
+    <row r="387" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A387" s="3">
+        <v>32</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C387" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="387" spans="2:3" ht="21">
-      <c r="B387" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C387" s="5" t="s">
+      <c r="D387" s="3"/>
+      <c r="E387"/>
+    </row>
+    <row r="388" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A388" s="3">
+        <v>33</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C388" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="388" spans="2:3" ht="21">
-      <c r="B388" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C388" s="5" t="s">
+      <c r="D388" s="3"/>
+      <c r="E388"/>
+    </row>
+    <row r="389" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A389" s="3">
+        <v>34</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C389" s="5" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="389" spans="2:3" ht="21">
-      <c r="B389" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C389" s="5" t="s">
+      <c r="D389" s="3"/>
+      <c r="E389"/>
+    </row>
+    <row r="390" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A390" s="3">
+        <v>35</v>
+      </c>
+      <c r="B390" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D390" s="3"/>
+      <c r="E390"/>
+    </row>
+    <row r="391" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A391" s="3">
+        <v>36</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C391" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="390" spans="2:3" ht="21">
-      <c r="B390" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="391" spans="2:3" ht="21">
-      <c r="B391" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C391" s="5" t="s">
+      <c r="D391" s="3"/>
+      <c r="E391"/>
+    </row>
+    <row r="392" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A392" s="3">
+        <v>37</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C392" s="5" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="392" spans="2:3" ht="21">
-      <c r="B392" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C392" s="5" t="s">
+      <c r="D392" s="3"/>
+      <c r="E392"/>
+    </row>
+    <row r="393" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A393" s="3">
+        <v>38</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C393" s="5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="393" spans="2:3" ht="21">
-      <c r="B393" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C393" s="5" t="s">
+      <c r="D393" s="3"/>
+      <c r="E393"/>
+    </row>
+    <row r="394" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A394" s="3">
+        <v>39</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C394" s="5" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="394" spans="2:3" ht="21">
-      <c r="B394" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C394" s="5" t="s">
+      <c r="D394" s="3"/>
+      <c r="E394"/>
+    </row>
+    <row r="395" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A395" s="3">
+        <v>40</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C395" s="5" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="395" spans="2:3" ht="21">
-      <c r="B395" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C395" s="5" t="s">
+      <c r="D395" s="3"/>
+      <c r="E395"/>
+    </row>
+    <row r="396" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A396" s="3">
+        <v>41</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C396" s="5" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="396" spans="2:3" ht="21">
-      <c r="B396" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C396" s="5" t="s">
+      <c r="D396" s="3"/>
+      <c r="E396"/>
+    </row>
+    <row r="397" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A397" s="3">
+        <v>42</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C397" s="5" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="397" spans="2:3" ht="21">
-      <c r="B397" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C397" s="5" t="s">
+      <c r="D397" s="3"/>
+      <c r="E397"/>
+    </row>
+    <row r="398" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A398" s="3">
+        <v>43</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C398" s="5" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="398" spans="2:3" ht="21">
-      <c r="B398" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C398" s="5" t="s">
+      <c r="D398" s="3"/>
+      <c r="E398"/>
+    </row>
+    <row r="399" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A399" s="3">
+        <v>44</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C399" s="5" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="399" spans="2:3" ht="21">
-      <c r="B399" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C399" s="5" t="s">
+      <c r="D399" s="3"/>
+      <c r="E399"/>
+    </row>
+    <row r="400" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A400" s="3"/>
+      <c r="B400"/>
+      <c r="C400" s="6"/>
+      <c r="D400" s="3"/>
+      <c r="E400"/>
+    </row>
+    <row r="401" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A401" s="3"/>
+      <c r="B401"/>
+      <c r="C401" s="6"/>
+      <c r="D401" s="3"/>
+      <c r="E401"/>
+    </row>
+    <row r="402" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A402" s="3">
+        <v>1</v>
+      </c>
+      <c r="B402" s="7" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="400" spans="2:3" ht="21">
-      <c r="C400" s="6"/>
-    </row>
-    <row r="401" spans="2:3" ht="21">
-      <c r="C401" s="6"/>
-    </row>
-    <row r="402" spans="2:3" ht="21">
-      <c r="B402" s="7" t="s">
+      <c r="C402" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C402" s="5" t="s">
+      <c r="D402" s="3"/>
+      <c r="E402"/>
+    </row>
+    <row r="403" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A403" s="3">
+        <v>2</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C403" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="403" spans="2:3" ht="21">
-      <c r="B403" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C403" s="5" t="s">
+      <c r="D403" s="3"/>
+      <c r="E403"/>
+    </row>
+    <row r="404" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A404" s="3">
+        <v>3</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C404" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="404" spans="2:3" ht="21">
-      <c r="B404" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C404" s="5" t="s">
+      <c r="D404" s="3"/>
+      <c r="E404"/>
+    </row>
+    <row r="405" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A405" s="3">
+        <v>4</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D405" s="3"/>
+      <c r="E405"/>
+    </row>
+    <row r="406" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A406" s="3">
+        <v>5</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C406" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="405" spans="2:3" ht="21">
-      <c r="B405" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="406" spans="2:3" ht="21">
-      <c r="B406" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C406" s="5" t="s">
+      <c r="D406" s="3"/>
+      <c r="E406"/>
+    </row>
+    <row r="407" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A407" s="3">
+        <v>6</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C407" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="407" spans="2:3" ht="21">
-      <c r="B407" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C407" s="5" t="s">
+      <c r="D407" s="3"/>
+      <c r="E407"/>
+    </row>
+    <row r="408" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A408" s="3"/>
+      <c r="B408"/>
+      <c r="C408" s="6"/>
+      <c r="D408" s="3"/>
+      <c r="E408"/>
+    </row>
+    <row r="409" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A409" s="3"/>
+      <c r="B409"/>
+      <c r="C409" s="6"/>
+      <c r="D409" s="3"/>
+      <c r="E409"/>
+    </row>
+    <row r="410" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A410" s="3">
+        <v>1</v>
+      </c>
+      <c r="B410" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="408" spans="2:3" ht="21">
-      <c r="C408" s="6"/>
-    </row>
-    <row r="409" spans="2:3" ht="21">
-      <c r="C409" s="6"/>
-    </row>
-    <row r="410" spans="2:3" ht="21">
-      <c r="B410" s="4" t="s">
+      <c r="C410" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C410" s="5" t="s">
+      <c r="D410" s="3"/>
+      <c r="E410"/>
+    </row>
+    <row r="411" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A411" s="3">
+        <v>2</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C411" s="5" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="411" spans="2:3" ht="21">
-      <c r="B411" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C411" s="5" t="s">
+      <c r="D411" s="3"/>
+      <c r="E411"/>
+    </row>
+    <row r="412" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A412" s="3">
+        <v>3</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C412" s="5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="412" spans="2:3" ht="21">
-      <c r="B412" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C412" s="5" t="s">
+      <c r="D412" s="3"/>
+      <c r="E412"/>
+    </row>
+    <row r="413" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A413" s="3">
+        <v>4</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C413" s="5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="413" spans="2:3" ht="21">
-      <c r="B413" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C413" s="5" t="s">
+      <c r="D413" s="3"/>
+      <c r="E413"/>
+    </row>
+    <row r="414" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A414" s="3">
+        <v>5</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C414" s="5" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="414" spans="2:3" ht="21">
-      <c r="B414" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C414" s="5" t="s">
+      <c r="D414" s="3"/>
+      <c r="E414"/>
+    </row>
+    <row r="415" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A415" s="3">
+        <v>6</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C415" s="5" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="415" spans="2:3" ht="21">
-      <c r="B415" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C415" s="5" t="s">
+      <c r="D415" s="3"/>
+      <c r="E415"/>
+    </row>
+    <row r="416" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A416" s="3">
+        <v>7</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C416" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="416" spans="2:3" ht="21">
-      <c r="B416" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C416" s="5" t="s">
+      <c r="D416" s="3"/>
+      <c r="E416"/>
+    </row>
+    <row r="417" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A417" s="3">
+        <v>8</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D417" s="3"/>
+      <c r="E417"/>
+    </row>
+    <row r="418" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A418" s="3">
+        <v>9</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C418" s="5" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="417" spans="2:3" ht="21">
-      <c r="B417" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C417" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="418" spans="2:3" ht="21">
-      <c r="B418" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C418" s="5" t="s">
+      <c r="D418" s="3"/>
+      <c r="E418"/>
+    </row>
+    <row r="419" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A419" s="3">
+        <v>10</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C419" s="5" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="419" spans="2:3" ht="21">
-      <c r="B419" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C419" s="5" t="s">
+      <c r="D419" s="3"/>
+      <c r="E419"/>
+    </row>
+    <row r="420" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A420" s="3">
+        <v>11</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C420" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="420" spans="2:3" ht="21">
-      <c r="B420" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C420" s="5" t="s">
+      <c r="D420" s="3"/>
+      <c r="E420"/>
+    </row>
+    <row r="421" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A421" s="3">
+        <v>12</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C421" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="421" spans="2:3" ht="21">
-      <c r="B421" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C421" s="5" t="s">
+      <c r="D421" s="3"/>
+      <c r="E421"/>
+    </row>
+    <row r="422" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A422" s="3">
+        <v>13</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C422" s="5" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="422" spans="2:3" ht="21">
-      <c r="B422" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C422" s="5" t="s">
+      <c r="D422" s="3"/>
+      <c r="E422"/>
+    </row>
+    <row r="423" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A423" s="3">
+        <v>14</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C423" s="5" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="423" spans="2:3" ht="21">
-      <c r="B423" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C423" s="5" t="s">
+      <c r="D423" s="3"/>
+      <c r="E423"/>
+    </row>
+    <row r="424" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A424" s="3">
+        <v>15</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C424" s="5" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="424" spans="2:3" ht="21">
-      <c r="B424" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C424" s="5" t="s">
+      <c r="D424" s="3"/>
+      <c r="E424"/>
+    </row>
+    <row r="425" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A425" s="3">
+        <v>16</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C425" s="5" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="425" spans="2:3" ht="21">
-      <c r="B425" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C425" s="5" t="s">
+      <c r="D425" s="3"/>
+      <c r="E425"/>
+    </row>
+    <row r="426" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A426" s="3">
+        <v>17</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C426" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="426" spans="2:3" ht="21">
-      <c r="B426" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C426" s="5" t="s">
+      <c r="D426" s="3"/>
+      <c r="E426"/>
+    </row>
+    <row r="427" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A427" s="3">
+        <v>18</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C427" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="427" spans="2:3" ht="21">
-      <c r="B427" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C427" s="5" t="s">
+      <c r="D427" s="3"/>
+      <c r="E427"/>
+    </row>
+    <row r="428" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A428" s="3">
+        <v>19</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C428" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="428" spans="2:3" ht="21">
-      <c r="B428" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C428" s="5" t="s">
+      <c r="D428" s="3"/>
+      <c r="E428"/>
+    </row>
+    <row r="429" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A429" s="3">
+        <v>20</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C429" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="429" spans="2:3" ht="21">
-      <c r="B429" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C429" s="5" t="s">
+      <c r="D429" s="3"/>
+      <c r="E429"/>
+    </row>
+    <row r="430" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A430" s="3">
+        <v>21</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C430" s="5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="430" spans="2:3" ht="21">
-      <c r="B430" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C430" s="5" t="s">
+      <c r="D430" s="3"/>
+      <c r="E430"/>
+    </row>
+    <row r="431" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A431" s="3">
+        <v>22</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C431" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="431" spans="2:3" ht="21">
-      <c r="B431" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C431" s="5" t="s">
+      <c r="D431" s="3"/>
+      <c r="E431"/>
+    </row>
+    <row r="432" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A432" s="3">
+        <v>23</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C432" s="5" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="432" spans="2:3" ht="21">
-      <c r="B432" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C432" s="5" t="s">
+      <c r="D432" s="3"/>
+      <c r="E432"/>
+    </row>
+    <row r="433" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A433" s="3">
+        <v>24</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C433" s="5" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="433" spans="2:3" ht="21">
-      <c r="B433" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C433" s="5" t="s">
+      <c r="D433" s="3"/>
+      <c r="E433"/>
+    </row>
+    <row r="434" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A434" s="3">
+        <v>25</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C434" s="5" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="434" spans="2:3" ht="21">
-      <c r="B434" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C434" s="5" t="s">
+      <c r="D434" s="3"/>
+      <c r="E434"/>
+    </row>
+    <row r="435" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A435" s="3">
+        <v>26</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C435" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="435" spans="2:3" ht="21">
-      <c r="B435" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C435" s="5" t="s">
+      <c r="D435" s="3"/>
+      <c r="E435"/>
+    </row>
+    <row r="436" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A436" s="3">
+        <v>27</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C436" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="436" spans="2:3" ht="21">
-      <c r="B436" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C436" s="5" t="s">
+      <c r="D436" s="3"/>
+      <c r="E436"/>
+    </row>
+    <row r="437" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A437" s="3">
+        <v>28</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C437" s="5" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="437" spans="2:3" ht="21">
-      <c r="B437" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C437" s="5" t="s">
+      <c r="D437" s="3"/>
+      <c r="E437"/>
+    </row>
+    <row r="438" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A438" s="3">
+        <v>29</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C438" s="5" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="438" spans="2:3" ht="21">
-      <c r="B438" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C438" s="5" t="s">
+      <c r="D438" s="3"/>
+      <c r="E438"/>
+    </row>
+    <row r="439" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A439" s="3">
+        <v>30</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C439" s="5" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="439" spans="2:3" ht="21">
-      <c r="B439" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C439" s="5" t="s">
+      <c r="D439" s="3"/>
+      <c r="E439"/>
+    </row>
+    <row r="440" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A440" s="3">
+        <v>31</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C440" s="5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="440" spans="2:3" ht="21">
-      <c r="B440" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C440" s="5" t="s">
+      <c r="D440" s="3"/>
+      <c r="E440"/>
+    </row>
+    <row r="441" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A441" s="3">
+        <v>32</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C441" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="441" spans="2:3" ht="21">
-      <c r="B441" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C441" s="5" t="s">
+      <c r="D441" s="3"/>
+      <c r="E441"/>
+    </row>
+    <row r="442" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A442" s="3">
+        <v>33</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C442" s="5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="442" spans="2:3" ht="21">
-      <c r="B442" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C442" s="5" t="s">
+      <c r="D442" s="3"/>
+      <c r="E442"/>
+    </row>
+    <row r="443" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A443" s="3">
+        <v>34</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C443" s="5" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="443" spans="2:3" ht="21">
-      <c r="B443" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C443" s="5" t="s">
+      <c r="D443" s="3"/>
+      <c r="E443"/>
+    </row>
+    <row r="444" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A444" s="3">
+        <v>35</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C444" s="5" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="444" spans="2:3" ht="21">
-      <c r="B444" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C444" s="5" t="s">
+      <c r="D444" s="3"/>
+      <c r="E444"/>
+    </row>
+    <row r="445" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A445" s="3">
+        <v>36</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C445" s="5" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="445" spans="2:3" ht="21">
-      <c r="B445" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C445" s="5" t="s">
+      <c r="D445" s="3"/>
+      <c r="E445"/>
+    </row>
+    <row r="446" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A446" s="3">
+        <v>37</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C446" s="5" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="446" spans="2:3" ht="21">
-      <c r="B446" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C446" s="5" t="s">
+      <c r="D446" s="3"/>
+      <c r="E446"/>
+    </row>
+    <row r="447" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A447" s="3">
+        <v>38</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C447" s="5" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="447" spans="2:3" ht="21">
-      <c r="B447" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C447" s="5" t="s">
+      <c r="D447" s="3"/>
+      <c r="E447"/>
+    </row>
+    <row r="448" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A448" s="3">
+        <v>39</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C448" s="5" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="448" spans="2:3" ht="21">
-      <c r="B448" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C448" s="5" t="s">
+      <c r="D448" s="3"/>
+      <c r="E448"/>
+    </row>
+    <row r="449" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A449" s="3">
+        <v>40</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C449" s="5" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="449" spans="2:3" ht="21">
-      <c r="B449" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C449" s="5" t="s">
+      <c r="D449" s="3"/>
+      <c r="E449"/>
+    </row>
+    <row r="450" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A450" s="3">
+        <v>41</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C450" s="5" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="450" spans="2:3" ht="21">
-      <c r="B450" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C450" s="5" t="s">
+      <c r="D450" s="3"/>
+      <c r="E450"/>
+    </row>
+    <row r="451" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A451" s="3">
+        <v>42</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C451" s="5" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="451" spans="2:3" ht="21">
-      <c r="B451" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C451" s="5" t="s">
+      <c r="D451" s="3"/>
+      <c r="E451"/>
+    </row>
+    <row r="452" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A452" s="3">
+        <v>43</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C452" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="452" spans="2:3" ht="21">
-      <c r="B452" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C452" s="5" t="s">
+      <c r="D452" s="3"/>
+      <c r="E452"/>
+    </row>
+    <row r="453" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A453" s="3">
+        <v>44</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C453" s="5" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="453" spans="2:3" ht="21">
-      <c r="B453" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C453" s="5" t="s">
+      <c r="D453" s="3"/>
+      <c r="E453"/>
+    </row>
+    <row r="454" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A454" s="3">
+        <v>45</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C454" s="5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="454" spans="2:3" ht="21">
-      <c r="B454" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C454" s="5" t="s">
+      <c r="D454" s="3"/>
+      <c r="E454"/>
+    </row>
+    <row r="455" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A455" s="3">
+        <v>46</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C455" s="5" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="455" spans="2:3" ht="21">
-      <c r="B455" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C455" s="5" t="s">
+      <c r="D455" s="3"/>
+      <c r="E455"/>
+    </row>
+    <row r="456" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A456" s="3">
+        <v>47</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C456" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="456" spans="2:3" ht="21">
-      <c r="B456" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C456" s="5" t="s">
+      <c r="D456" s="3"/>
+      <c r="E456"/>
+    </row>
+    <row r="457" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A457" s="3">
+        <v>48</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C457" s="5" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="457" spans="2:3" ht="21">
-      <c r="B457" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C457" s="5" t="s">
+      <c r="D457" s="3"/>
+      <c r="E457"/>
+    </row>
+    <row r="458" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A458" s="3">
+        <v>49</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C458" s="5" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="458" spans="2:3" ht="21">
-      <c r="B458" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C458" s="5" t="s">
+      <c r="D458" s="3"/>
+      <c r="E458"/>
+    </row>
+    <row r="459" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A459" s="3">
+        <v>50</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C459" s="5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="459" spans="2:3" ht="21">
-      <c r="B459" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C459" s="5" t="s">
+      <c r="D459" s="3"/>
+      <c r="E459"/>
+    </row>
+    <row r="460" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A460" s="3">
+        <v>51</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C460" s="5" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="460" spans="2:3" ht="21">
-      <c r="B460" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C460" s="5" t="s">
+      <c r="D460" s="3"/>
+      <c r="E460"/>
+    </row>
+    <row r="461" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A461" s="3">
+        <v>52</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C461" s="5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="461" spans="2:3" ht="21">
-      <c r="B461" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C461" s="5" t="s">
+      <c r="D461" s="3"/>
+      <c r="E461"/>
+    </row>
+    <row r="462" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A462" s="3">
+        <v>53</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C462" s="5" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="462" spans="2:3" ht="21">
-      <c r="B462" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C462" s="5" t="s">
+      <c r="D462" s="3"/>
+      <c r="E462"/>
+    </row>
+    <row r="463" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A463" s="3">
+        <v>54</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C463" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="463" spans="2:3" ht="21">
-      <c r="B463" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C463" s="5" t="s">
+      <c r="D463" s="3"/>
+      <c r="E463"/>
+    </row>
+    <row r="464" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A464" s="3">
+        <v>55</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C464" s="5" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="464" spans="2:3" ht="21">
-      <c r="B464" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C464" s="5" t="s">
+      <c r="D464" s="3"/>
+      <c r="E464"/>
+    </row>
+    <row r="465" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A465" s="3">
+        <v>56</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C465" s="5" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="465" spans="2:3" ht="21">
-      <c r="B465" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C465" s="5" t="s">
+      <c r="D465" s="3"/>
+      <c r="E465"/>
+    </row>
+    <row r="466" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A466" s="3">
+        <v>57</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C466" s="5" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="466" spans="2:3" ht="21">
-      <c r="B466" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C466" s="5" t="s">
+      <c r="D466" s="3"/>
+      <c r="E466"/>
+    </row>
+    <row r="467" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A467" s="3">
+        <v>58</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C467" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="467" spans="2:3" ht="21">
-      <c r="B467" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C467" s="5" t="s">
+      <c r="D467" s="3"/>
+      <c r="E467"/>
+    </row>
+    <row r="468" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A468" s="3">
+        <v>59</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C468" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="468" spans="2:3" ht="21">
-      <c r="B468" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C468" s="5" t="s">
+      <c r="D468" s="3"/>
+      <c r="E468"/>
+    </row>
+    <row r="469" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A469" s="3">
+        <v>60</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C469" s="5" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="469" spans="2:3" ht="21">
-      <c r="B469" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C469" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="470" spans="2:3" ht="21">
+      <c r="D469" s="3"/>
+      <c r="E469"/>
+    </row>
+    <row r="470" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A470" s="3"/>
+      <c r="B470"/>
       <c r="C470" s="6"/>
-    </row>
-    <row r="471" spans="2:3" ht="21">
+      <c r="D470" s="3"/>
+      <c r="E470"/>
+    </row>
+    <row r="471" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A471" s="3"/>
       <c r="B471" s="7"/>
       <c r="C471" s="6"/>
-    </row>
-    <row r="472" spans="2:3" ht="21">
+      <c r="D471" s="3"/>
+      <c r="E471"/>
+    </row>
+    <row r="472" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A472" s="3">
+        <v>1</v>
+      </c>
       <c r="B472" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C472" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C472" s="5" t="s">
+      <c r="D472" s="3"/>
+      <c r="E472"/>
+    </row>
+    <row r="473" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A473" s="3">
+        <v>2</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C473" s="5" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="473" spans="2:3" ht="21">
-      <c r="B473" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C473" s="5" t="s">
+      <c r="D473" s="3"/>
+      <c r="E473"/>
+    </row>
+    <row r="474" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A474" s="3">
+        <v>3</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C474" s="5" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="474" spans="2:3" ht="21">
-      <c r="B474" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C474" s="5" t="s">
+      <c r="D474" s="3"/>
+      <c r="E474"/>
+    </row>
+    <row r="475" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A475" s="3">
+        <v>4</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C475" s="5" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="475" spans="2:3" ht="21">
-      <c r="B475" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C475" s="5" t="s">
+      <c r="D475" s="3"/>
+      <c r="E475"/>
+    </row>
+    <row r="476" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A476" s="3">
+        <v>5</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C476" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="476" spans="2:3" ht="21">
-      <c r="B476" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C476" s="5" t="s">
+      <c r="D476" s="3"/>
+      <c r="E476"/>
+    </row>
+    <row r="477" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A477" s="3">
+        <v>6</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C477" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="477" spans="2:3" ht="21">
-      <c r="B477" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C477" s="5" t="s">
+      <c r="D477" s="3"/>
+      <c r="E477"/>
+    </row>
+    <row r="478" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A478" s="3">
+        <v>7</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C478" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="478" spans="2:3" ht="21">
-      <c r="B478" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C478" s="5" t="s">
+      <c r="D478" s="3"/>
+      <c r="E478"/>
+    </row>
+    <row r="479" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A479" s="3">
+        <v>8</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C479" s="5" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="479" spans="2:3" ht="21">
-      <c r="B479" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C479" s="5" t="s">
+      <c r="D479" s="3"/>
+      <c r="E479"/>
+    </row>
+    <row r="480" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A480" s="3">
+        <v>9</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C480" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="480" spans="2:3" ht="21">
-      <c r="B480" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C480" s="5" t="s">
+      <c r="D480" s="3"/>
+      <c r="E480"/>
+    </row>
+    <row r="481" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A481" s="3">
+        <v>10</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C481" s="5" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="481" spans="2:3" ht="21">
-      <c r="B481" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>461</v>
-      </c>
+      <c r="D481" s="3"/>
+      <c r="E481"/>
+    </row>
+    <row r="482" spans="1:5" s="20" customFormat="1">
+      <c r="A482" s="3"/>
+      <c r="B482"/>
+      <c r="C482"/>
+      <c r="D482" s="3"/>
+      <c r="E482"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6890,374 +8389,374 @@
     <hyperlink ref="C87" r:id="rId76" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
     <hyperlink ref="C88" r:id="rId77" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
     <hyperlink ref="C89" r:id="rId78" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C90" r:id="rId79" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C91" r:id="rId80" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C92" r:id="rId81" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C93" r:id="rId82" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C94" r:id="rId83" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C95" r:id="rId84" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C96" r:id="rId85" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C97" r:id="rId86" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C98" r:id="rId87" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C101" r:id="rId88" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C102" r:id="rId89" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C103" r:id="rId90" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C104" r:id="rId91" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C106" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C107" r:id="rId93" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C108" r:id="rId94" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C109" r:id="rId95" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C110" r:id="rId96" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C111" r:id="rId97" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C113" r:id="rId98" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C114" r:id="rId99" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C115" r:id="rId100" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C116" r:id="rId101" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C117" r:id="rId102" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C118" r:id="rId103" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C119" r:id="rId104" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C120" r:id="rId105" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C121" r:id="rId106" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C122" r:id="rId107" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C123" r:id="rId108" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C124" r:id="rId109" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C125" r:id="rId110" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C126" r:id="rId111" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C127" r:id="rId112" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C128" r:id="rId113" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C129" r:id="rId114" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C130" r:id="rId115" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C131" r:id="rId116" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C132" r:id="rId117" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C133" r:id="rId118" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C134" r:id="rId119" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C135" r:id="rId120" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C136" r:id="rId121" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C105" r:id="rId122" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C112" r:id="rId123" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C139" r:id="rId124" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C140" r:id="rId125" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C141" r:id="rId126" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C142" r:id="rId127" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C143" r:id="rId128" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C144" r:id="rId129" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C145" r:id="rId130" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C146" r:id="rId131" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C147" r:id="rId132" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C148" r:id="rId133" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C149" r:id="rId134" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C150" r:id="rId135" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C151" r:id="rId136" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C152" r:id="rId137" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C153" r:id="rId138" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C154" r:id="rId139" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C155" r:id="rId140" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C156" r:id="rId141" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C157" r:id="rId142" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C158" r:id="rId143" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C159" r:id="rId144" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C160" r:id="rId145" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C161" r:id="rId146" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C162" r:id="rId147" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C163" r:id="rId148" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C166" r:id="rId149" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C167" r:id="rId150" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C168" r:id="rId151" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C169" r:id="rId152" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C170" r:id="rId153" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C171" r:id="rId154" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C172" r:id="rId155" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C173" r:id="rId156" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C174" r:id="rId157" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C177" r:id="rId158" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C178" r:id="rId159" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C179" r:id="rId160" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C180" r:id="rId161" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C181" r:id="rId162" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C182" r:id="rId163" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C183" r:id="rId164" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C184" r:id="rId165" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C185" r:id="rId166" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C186" r:id="rId167" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C187" r:id="rId168" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C188" r:id="rId169" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C189" r:id="rId170" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C190" r:id="rId171" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C191" r:id="rId172" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C192" r:id="rId173" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C193" r:id="rId174" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C194" r:id="rId175" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C195" r:id="rId176" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C196" r:id="rId177" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C198" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C199" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C200" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C201" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C202" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C204" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C205" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C206" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C207" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C208" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C209" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C210" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C211" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C214" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C215" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C216" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C217" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C218" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C219" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C220" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C221" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C222" r:id="rId201" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C223" r:id="rId202" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C224" r:id="rId203" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C225" r:id="rId204" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C226" r:id="rId205" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C227" r:id="rId206" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C228" r:id="rId207" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C229" r:id="rId208" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C230" r:id="rId209" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C231" r:id="rId210" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C232" r:id="rId211" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C233" r:id="rId212" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C234" r:id="rId213" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C235" r:id="rId214" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C238" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C239" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C240" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C241" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C242" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C243" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C244" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C245" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C246" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C247" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C248" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C249" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C250" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C251" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C252" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C253" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C254" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C255" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C256" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C258" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C259" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C260" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C261" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C262" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C263" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C264" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C265" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C266" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C267" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C268" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C269" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C270" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C271" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C272" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C275" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C276" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C277" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C278" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C279" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C280" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C281" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C282" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C283" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C284" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C285" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C286" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C287" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C288" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C289" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C290" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C291" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C292" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C293" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C296" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C297" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C298" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C299" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C300" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C301" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C302" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C303" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C304" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C305" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C307" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C308" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C309" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C310" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C311" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C312" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C313" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C314" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C315" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C316" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C317" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C318" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C319" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C320" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C321" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C322" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C323" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C324" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C325" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C326" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C327" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C328" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C329" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C330" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C331" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C332" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C333" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C336" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C337" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C338" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C339" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C340" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C341" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C342" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C343" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C344" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C345" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C346" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C347" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C348" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C349" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C350" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C351" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C352" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C353" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C357" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C358" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C359" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C360" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C361" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C362" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C363" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C364" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C365" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C366" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C367" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C368" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C369" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C370" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C371" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C372" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C373" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C374" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C375" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C376" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C377" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C378" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C380" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C381" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C382" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C383" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C384" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C385" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C386" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C387" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C388" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C389" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C390" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C391" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C392" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C393" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C394" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C396" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C395" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C397" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C398" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C399" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C402" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C403" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C404" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C405" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C406" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C407" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C410" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C411" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C412" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C413" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C414" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C415" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C416" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C417" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C418" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C419" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C420" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C421" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C422" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C423" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C424" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C425" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C426" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C427" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C428" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C429" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C430" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C431" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C432" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C433" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C434" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C435" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C436" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C437" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C438" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C439" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C440" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C441" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C442" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C443" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C444" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C445" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C446" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C447" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C448" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C449" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C451" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C450" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C452" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C453" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C454" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C455" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C456" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C457" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C458" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C459" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C460" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C461" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C462" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C469" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C468" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C467" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C466" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C465" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C464" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C463" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C472" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C473" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C474" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C475" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C476" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C477" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C478" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="C66" r:id="rId446" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C91" r:id="rId79" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C92" r:id="rId80" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C93" r:id="rId81" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C94" r:id="rId82" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C95" r:id="rId83" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C96" r:id="rId84" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C97" r:id="rId85" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C98" r:id="rId86" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C101" r:id="rId87" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C102" r:id="rId88" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C103" r:id="rId89" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C104" r:id="rId90" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C106" r:id="rId91" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C107" r:id="rId92" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C108" r:id="rId93" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C109" r:id="rId94" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C110" r:id="rId95" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C111" r:id="rId96" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C113" r:id="rId97" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C114" r:id="rId98" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C115" r:id="rId99" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C116" r:id="rId100" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C117" r:id="rId101" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C118" r:id="rId102" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C119" r:id="rId103" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C120" r:id="rId104" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C121" r:id="rId105" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C122" r:id="rId106" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C123" r:id="rId107" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C124" r:id="rId108" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C125" r:id="rId109" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C126" r:id="rId110" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C127" r:id="rId111" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C128" r:id="rId112" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C129" r:id="rId113" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C130" r:id="rId114" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C131" r:id="rId115" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C132" r:id="rId116" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C133" r:id="rId117" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C134" r:id="rId118" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C135" r:id="rId119" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C136" r:id="rId120" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C105" r:id="rId121" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C112" r:id="rId122" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C139" r:id="rId123" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C140" r:id="rId124" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C141" r:id="rId125" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C142" r:id="rId126" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C143" r:id="rId127" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C144" r:id="rId128" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C145" r:id="rId129" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C146" r:id="rId130" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C147" r:id="rId131" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C148" r:id="rId132" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C149" r:id="rId133" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C150" r:id="rId134" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C151" r:id="rId135" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C152" r:id="rId136" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C153" r:id="rId137" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C154" r:id="rId138" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C155" r:id="rId139" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C156" r:id="rId140" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C157" r:id="rId141" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C158" r:id="rId142" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C159" r:id="rId143" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C160" r:id="rId144" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C161" r:id="rId145" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C162" r:id="rId146" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C163" r:id="rId147" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C166" r:id="rId148" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C167" r:id="rId149" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C168" r:id="rId150" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C169" r:id="rId151" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C170" r:id="rId152" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C171" r:id="rId153" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C172" r:id="rId154" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C173" r:id="rId155" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C174" r:id="rId156" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C177" r:id="rId157" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C178" r:id="rId158" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C179" r:id="rId159" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C180" r:id="rId160" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C181" r:id="rId161" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C182" r:id="rId162" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C183" r:id="rId163" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C184" r:id="rId164" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C185" r:id="rId165" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C186" r:id="rId166" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C187" r:id="rId167" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C188" r:id="rId168" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C189" r:id="rId169" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C190" r:id="rId170" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C191" r:id="rId171" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C192" r:id="rId172" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C193" r:id="rId173" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C194" r:id="rId174" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C195" r:id="rId175" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C196" r:id="rId176" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C197" r:id="rId177" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C198" r:id="rId178" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C199" r:id="rId179" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C200" r:id="rId180" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C201" r:id="rId181" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C202" r:id="rId182" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C203" r:id="rId183" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C204" r:id="rId184" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C205" r:id="rId185" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C206" r:id="rId186" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C207" r:id="rId187" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C208" r:id="rId188" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C209" r:id="rId189" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C210" r:id="rId190" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C211" r:id="rId191" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C214" r:id="rId192" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C215" r:id="rId193" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C216" r:id="rId194" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C217" r:id="rId195" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C218" r:id="rId196" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C219" r:id="rId197" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C220" r:id="rId198" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C221" r:id="rId199" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C222" r:id="rId200" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C223" r:id="rId201" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C224" r:id="rId202" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C225" r:id="rId203" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C226" r:id="rId204" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C227" r:id="rId205" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C228" r:id="rId206" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C229" r:id="rId207" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C230" r:id="rId208" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C231" r:id="rId209" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C232" r:id="rId210" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C233" r:id="rId211" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C234" r:id="rId212" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C235" r:id="rId213" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C238" r:id="rId214" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C239" r:id="rId215" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C240" r:id="rId216" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C241" r:id="rId217" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C242" r:id="rId218" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C243" r:id="rId219" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C244" r:id="rId220" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C245" r:id="rId221" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C246" r:id="rId222" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C247" r:id="rId223" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C248" r:id="rId224" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C249" r:id="rId225" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C250" r:id="rId226" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C251" r:id="rId227" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C252" r:id="rId228" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C253" r:id="rId229" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C254" r:id="rId230" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C255" r:id="rId231" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C256" r:id="rId232" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C257" r:id="rId233" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C258" r:id="rId234" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C259" r:id="rId235" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C260" r:id="rId236" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C261" r:id="rId237" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C262" r:id="rId238" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C263" r:id="rId239" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C264" r:id="rId240" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C265" r:id="rId241" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C266" r:id="rId242" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C267" r:id="rId243" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C268" r:id="rId244" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C269" r:id="rId245" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C270" r:id="rId246" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C271" r:id="rId247" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C272" r:id="rId248" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C275" r:id="rId249" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C276" r:id="rId250" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C277" r:id="rId251" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C278" r:id="rId252" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C279" r:id="rId253" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C280" r:id="rId254" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C281" r:id="rId255" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C282" r:id="rId256" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C283" r:id="rId257" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C284" r:id="rId258" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C285" r:id="rId259" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C286" r:id="rId260" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C287" r:id="rId261" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C288" r:id="rId262" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C289" r:id="rId263" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C290" r:id="rId264" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C291" r:id="rId265" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C292" r:id="rId266" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C293" r:id="rId267" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C296" r:id="rId268" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C297" r:id="rId269" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C298" r:id="rId270" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C299" r:id="rId271" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C300" r:id="rId272" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C301" r:id="rId273" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C302" r:id="rId274" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C303" r:id="rId275" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C304" r:id="rId276" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C305" r:id="rId277" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C306" r:id="rId278" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C307" r:id="rId279" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C308" r:id="rId280" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C309" r:id="rId281" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C310" r:id="rId282" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C311" r:id="rId283" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C312" r:id="rId284" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C313" r:id="rId285" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C314" r:id="rId286" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C315" r:id="rId287" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C316" r:id="rId288" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C317" r:id="rId289" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C318" r:id="rId290" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C319" r:id="rId291" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C320" r:id="rId292" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C321" r:id="rId293" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C322" r:id="rId294" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C323" r:id="rId295" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C324" r:id="rId296" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C325" r:id="rId297" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C326" r:id="rId298" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C327" r:id="rId299" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C328" r:id="rId300" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C329" r:id="rId301" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C330" r:id="rId302" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C331" r:id="rId303" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C332" r:id="rId304" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C333" r:id="rId305" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C336" r:id="rId306" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C337" r:id="rId307" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C338" r:id="rId308" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C339" r:id="rId309" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C340" r:id="rId310" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C341" r:id="rId311" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C342" r:id="rId312" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C343" r:id="rId313" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C344" r:id="rId314" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C345" r:id="rId315" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C346" r:id="rId316" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C347" r:id="rId317" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C348" r:id="rId318" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C349" r:id="rId319" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C350" r:id="rId320" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C351" r:id="rId321" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C352" r:id="rId322" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C353" r:id="rId323" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C357" r:id="rId324" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C358" r:id="rId325" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C359" r:id="rId326" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C360" r:id="rId327" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C361" r:id="rId328" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C362" r:id="rId329" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C363" r:id="rId330" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C364" r:id="rId331" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C365" r:id="rId332" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C366" r:id="rId333" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C367" r:id="rId334" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C368" r:id="rId335" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C369" r:id="rId336" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C370" r:id="rId337" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C371" r:id="rId338" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C372" r:id="rId339" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C373" r:id="rId340" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C374" r:id="rId341" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C375" r:id="rId342" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C376" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C377" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C378" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C379" r:id="rId346" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C380" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C381" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C382" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C383" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C384" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C385" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C386" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C387" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C388" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C389" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C390" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C391" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C392" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C393" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C394" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C396" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C395" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C397" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C398" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C399" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C402" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C403" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C404" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C405" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C406" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C407" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C410" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C411" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C412" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C413" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C414" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C415" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C416" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C417" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C418" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C419" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C420" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C421" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C422" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C423" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C424" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C425" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C426" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C427" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C428" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C429" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C430" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C431" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C432" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C433" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C434" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C435" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C436" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C437" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C438" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C439" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C440" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C441" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C442" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C443" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C444" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C445" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C446" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C447" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C448" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C449" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C451" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C450" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C452" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C453" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C454" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C455" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C456" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C457" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C458" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C459" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C460" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C461" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C462" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C469" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C468" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C467" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C466" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C465" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C464" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C463" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C472" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C473" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C474" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C475" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C476" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C477" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C478" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C481" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C479" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C480" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C356" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C66" r:id="rId445" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C90" r:id="rId446" xr:uid="{E6BEE510-1E91-400E-AA3E-84C4045CB301}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA45C09-C477-482B-8C5B-0A96A558D3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0414E1D0-C10E-4F71-B9CA-32EA61E1B0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,13 +1441,34 @@
   </si>
   <si>
     <t>Recursion</t>
+  </si>
+  <si>
+    <t>Problems added By Parag Jain for extra Topic Based Practice</t>
+  </si>
+  <si>
+    <t>Traverse array and print all element using recursion</t>
+  </si>
+  <si>
+    <t>Reverse print an array using recursion</t>
+  </si>
+  <si>
+    <t>Determine whether or not a string is a palindrome</t>
+  </si>
+  <si>
+    <t>Find the power of x</t>
+  </si>
+  <si>
+    <t>print-all-possible-combinations-of-r-elements-in-a-given-array-of-size-n</t>
+  </si>
+  <si>
+    <t>program-chocolate-wrapper-puzzle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1512,6 +1533,13 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1597,7 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1645,6 +1673,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1962,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F482"/>
+  <dimension ref="A1:F490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="C185" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3313,16 +3356,18 @@
       <c r="A93" s="3">
         <v>38</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E93" t="s">
         <v>471</v>
       </c>
-      <c r="E93"/>
     </row>
     <row r="94" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A94" s="3">
@@ -3386,13 +3431,13 @@
       <c r="A98" s="3">
         <v>43</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="3" t="s">
         <v>463</v>
       </c>
       <c r="E98"/>
@@ -4449,182 +4494,210 @@
       <c r="A177" s="3">
         <v>1</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D177" s="3"/>
+      <c r="D177" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E177"/>
     </row>
     <row r="178" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A178" s="3">
         <v>2</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D178" s="3"/>
+      <c r="D178" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E178"/>
     </row>
     <row r="179" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A179" s="3">
         <v>3</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D179" s="3"/>
+      <c r="D179" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E179"/>
     </row>
     <row r="180" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A180" s="3">
         <v>4</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D180" s="3"/>
+      <c r="D180" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E180"/>
     </row>
     <row r="181" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A181" s="3">
+      <c r="A181" s="21">
         <v>5</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D181" s="3"/>
+      <c r="D181" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E181"/>
     </row>
     <row r="182" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A182" s="3">
+      <c r="A182" s="22">
         <v>6</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D182" s="3"/>
+      <c r="D182" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E182"/>
     </row>
     <row r="183" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A183" s="3">
+      <c r="A183" s="22">
         <v>7</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D183" s="3"/>
+      <c r="D183" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E183"/>
     </row>
     <row r="184" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A184" s="3">
+      <c r="A184" s="22">
         <v>8</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D184" s="3"/>
+      <c r="D184" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E184"/>
     </row>
     <row r="185" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A185" s="3">
+      <c r="A185" s="22">
         <v>9</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D185" s="3"/>
+      <c r="D185" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E185"/>
     </row>
     <row r="186" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A186" s="3">
+      <c r="A186" s="23">
         <v>10</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D186" s="3"/>
+      <c r="D186" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E186"/>
     </row>
     <row r="187" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A187" s="3">
+      <c r="A187" s="23">
         <v>11</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D187" s="3"/>
+      <c r="D187" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E187"/>
     </row>
     <row r="188" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A188" s="3">
+      <c r="A188" s="23">
         <v>12</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D188" s="3"/>
+      <c r="D188" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E188"/>
     </row>
     <row r="189" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A189" s="3">
+      <c r="A189" s="23">
         <v>13</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D189" s="3"/>
+      <c r="D189" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E189"/>
     </row>
     <row r="190" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A190" s="3">
+      <c r="A190" s="23">
         <v>14</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D190" s="3"/>
+      <c r="D190" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="E190"/>
     </row>
     <row r="191" spans="1:5" s="20" customFormat="1" ht="21">
@@ -8309,7 +8382,94 @@
       <c r="D482" s="3"/>
       <c r="E482"/>
     </row>
+    <row r="484" spans="1:5" ht="25.8">
+      <c r="B484" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="C484" s="25"/>
+    </row>
+    <row r="485" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A485" s="3">
+        <v>1</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D485" s="3"/>
+      <c r="E485"/>
+    </row>
+    <row r="486" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A486" s="3">
+        <v>2</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D486" s="3"/>
+      <c r="E486"/>
+    </row>
+    <row r="487" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A487" s="3">
+        <v>3</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D487" s="3"/>
+      <c r="E487"/>
+    </row>
+    <row r="488" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A488" s="3">
+        <v>4</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D488" s="3"/>
+      <c r="E488"/>
+    </row>
+    <row r="489" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A489" s="3">
+        <v>5</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D489" s="3"/>
+      <c r="E489"/>
+    </row>
+    <row r="490" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A490" s="3">
+        <v>6</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D490" s="3"/>
+      <c r="E490"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B484:C484"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
@@ -8757,8 +8917,9 @@
     <hyperlink ref="C2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="C66" r:id="rId445" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
     <hyperlink ref="C90" r:id="rId446" xr:uid="{E6BEE510-1E91-400E-AA3E-84C4045CB301}"/>
+    <hyperlink ref="C490" r:id="rId447" xr:uid="{19A7BFB1-FE69-485C-B01A-3D0FC3768D75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId448"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0414E1D0-C10E-4F71-B9CA-32EA61E1B0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038790F0-2AB0-46BC-BC24-B7541B6A3F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -597,9 +597,6 @@
     <t>Find minimum swaps required to convert a Binary tree into BST</t>
   </si>
   <si>
-    <t>Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
     <t>Check if all leaf nodes are at same level or not</t>
   </si>
   <si>
@@ -1462,6 +1459,18 @@
   </si>
   <si>
     <t>program-chocolate-wrapper-puzzle</t>
+  </si>
+  <si>
+    <t>Given a Binary Tree. Check whether it is a Sum Tree or not.</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>Best Recursive solution</t>
+  </si>
+  <si>
+    <t>Beautiful Recursion</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1673,6 +1682,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2007,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C185" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="B198" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2030,14 +2060,14 @@
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2"/>
       <c r="C2" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2"/>
@@ -2051,7 +2081,7 @@
     </row>
     <row r="4" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A4" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2060,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E4"/>
     </row>
@@ -2082,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E6"/>
     </row>
@@ -2097,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E7"/>
     </row>
@@ -2112,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E8"/>
     </row>
@@ -2127,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E9"/>
     </row>
@@ -2142,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2157,7 +2187,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E11"/>
     </row>
@@ -2172,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E12"/>
     </row>
@@ -2187,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E13"/>
     </row>
@@ -2202,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E14"/>
     </row>
@@ -2217,7 +2247,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E15"/>
     </row>
@@ -2232,7 +2262,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E16"/>
     </row>
@@ -2247,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E17" s="19"/>
     </row>
@@ -2262,7 +2292,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E18" s="19"/>
     </row>
@@ -2277,7 +2307,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E19" s="19"/>
     </row>
@@ -2292,7 +2322,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E20" s="19"/>
     </row>
@@ -2307,7 +2337,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E21" s="19"/>
     </row>
@@ -2322,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E22" s="19"/>
     </row>
@@ -2337,7 +2367,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E23" s="19"/>
     </row>
@@ -2352,7 +2382,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E24" s="19"/>
     </row>
@@ -2367,7 +2397,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E25" s="19"/>
     </row>
@@ -2382,7 +2412,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -2397,7 +2427,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E27" s="19"/>
     </row>
@@ -2412,7 +2442,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E28" s="19"/>
     </row>
@@ -2427,7 +2457,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E29" s="19"/>
     </row>
@@ -2442,7 +2472,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E30" s="19"/>
     </row>
@@ -2458,7 +2488,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2472,7 +2502,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E32" s="19"/>
     </row>
@@ -2487,7 +2517,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E33" s="19"/>
     </row>
@@ -2502,7 +2532,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E34" s="19"/>
     </row>
@@ -2517,7 +2547,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E35" s="19"/>
     </row>
@@ -2532,7 +2562,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E36" s="19"/>
     </row>
@@ -2547,7 +2577,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E37" s="19"/>
     </row>
@@ -2562,7 +2592,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E38" s="19"/>
     </row>
@@ -2577,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E39" s="19"/>
     </row>
@@ -2592,7 +2622,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E40" s="19"/>
     </row>
@@ -2607,7 +2637,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E41" s="19"/>
     </row>
@@ -2636,7 +2666,7 @@
         <v>41</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E44" s="19"/>
     </row>
@@ -2651,7 +2681,7 @@
         <v>42</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E45" s="19"/>
     </row>
@@ -2666,7 +2696,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E46" s="19"/>
     </row>
@@ -2681,7 +2711,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E47" s="19"/>
     </row>
@@ -2697,7 +2727,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2711,10 +2741,10 @@
         <v>46</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2728,7 +2758,7 @@
         <v>47</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E50" s="19"/>
     </row>
@@ -2743,7 +2773,7 @@
         <v>48</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E51" s="19"/>
     </row>
@@ -2758,10 +2788,10 @@
         <v>49</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2775,7 +2805,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E53" s="19"/>
     </row>
@@ -2804,7 +2834,7 @@
         <v>52</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E56" s="19"/>
     </row>
@@ -2819,7 +2849,7 @@
         <v>53</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E57" s="19"/>
     </row>
@@ -2834,7 +2864,7 @@
         <v>54</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E58" s="19"/>
     </row>
@@ -2849,7 +2879,7 @@
         <v>55</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E59" s="19"/>
     </row>
@@ -2864,7 +2894,7 @@
         <v>56</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E60" s="19"/>
     </row>
@@ -2879,7 +2909,7 @@
         <v>57</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E61" s="19"/>
     </row>
@@ -2894,7 +2924,7 @@
         <v>58</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E62" s="19"/>
     </row>
@@ -2909,7 +2939,7 @@
         <v>59</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E63" s="19"/>
     </row>
@@ -2925,7 +2955,7 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2939,10 +2969,10 @@
         <v>61</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2956,10 +2986,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2973,7 +3003,7 @@
         <v>63</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E67" s="19"/>
     </row>
@@ -2989,7 +3019,7 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3004,7 +3034,7 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3018,7 +3048,7 @@
         <v>66</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E70" s="19"/>
     </row>
@@ -3033,7 +3063,7 @@
         <v>67</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E71" s="19"/>
     </row>
@@ -3049,7 +3079,7 @@
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3063,7 +3093,7 @@
         <v>69</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E73" s="19"/>
     </row>
@@ -3078,7 +3108,7 @@
         <v>70</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E74" s="19"/>
     </row>
@@ -3093,7 +3123,7 @@
         <v>71</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E75" s="19"/>
     </row>
@@ -3108,7 +3138,7 @@
         <v>72</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E76" s="19"/>
     </row>
@@ -3124,7 +3154,7 @@
       </c>
       <c r="D77" s="3"/>
       <c r="E77" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3138,7 +3168,7 @@
         <v>74</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E78" s="19"/>
     </row>
@@ -3153,7 +3183,7 @@
         <v>75</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E79" s="19"/>
     </row>
@@ -3168,7 +3198,7 @@
         <v>76</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E80" s="19"/>
     </row>
@@ -3183,7 +3213,7 @@
         <v>77</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E81" s="19"/>
     </row>
@@ -3198,7 +3228,7 @@
         <v>78</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E82" s="19"/>
     </row>
@@ -3213,7 +3243,7 @@
         <v>79</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E83" s="19"/>
     </row>
@@ -3228,7 +3258,7 @@
         <v>80</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E84" s="19"/>
     </row>
@@ -3243,7 +3273,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E85" s="19"/>
     </row>
@@ -3258,7 +3288,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E86"/>
     </row>
@@ -3273,7 +3303,7 @@
         <v>83</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E87"/>
     </row>
@@ -3288,7 +3318,7 @@
         <v>84</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E88"/>
     </row>
@@ -3303,7 +3333,7 @@
         <v>85</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E89"/>
     </row>
@@ -3318,7 +3348,7 @@
         <v>84</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E90"/>
     </row>
@@ -3333,7 +3363,7 @@
         <v>86</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E91"/>
     </row>
@@ -3348,7 +3378,7 @@
         <v>87</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E92"/>
     </row>
@@ -3363,10 +3393,10 @@
         <v>88</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E93" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3393,7 +3423,7 @@
         <v>90</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E95"/>
     </row>
@@ -3408,7 +3438,7 @@
         <v>91</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E96"/>
     </row>
@@ -3423,7 +3453,7 @@
         <v>92</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E97"/>
     </row>
@@ -3438,7 +3468,7 @@
         <v>93</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E98"/>
     </row>
@@ -3949,7 +3979,7 @@
         <v>132</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E139"/>
     </row>
@@ -3964,7 +3994,7 @@
         <v>133</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E140"/>
     </row>
@@ -3979,7 +4009,7 @@
         <v>134</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E141"/>
     </row>
@@ -3994,7 +4024,7 @@
         <v>135</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E142"/>
     </row>
@@ -4009,7 +4039,7 @@
         <v>136</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E143"/>
     </row>
@@ -4024,7 +4054,7 @@
         <v>137</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E144"/>
     </row>
@@ -4039,7 +4069,7 @@
         <v>138</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E145"/>
     </row>
@@ -4054,7 +4084,7 @@
         <v>139</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E146"/>
     </row>
@@ -4069,7 +4099,7 @@
         <v>140</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E147"/>
     </row>
@@ -4084,7 +4114,7 @@
         <v>141</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E148"/>
     </row>
@@ -4099,7 +4129,7 @@
         <v>142</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E149"/>
     </row>
@@ -4114,7 +4144,7 @@
         <v>143</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E150"/>
     </row>
@@ -4129,7 +4159,7 @@
         <v>144</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E151"/>
     </row>
@@ -4144,7 +4174,7 @@
         <v>145</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E152"/>
     </row>
@@ -4159,7 +4189,7 @@
         <v>146</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E153"/>
     </row>
@@ -4174,7 +4204,7 @@
         <v>147</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E154"/>
     </row>
@@ -4189,7 +4219,7 @@
         <v>148</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E155"/>
     </row>
@@ -4204,7 +4234,7 @@
         <v>149</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E156"/>
     </row>
@@ -4219,7 +4249,7 @@
         <v>150</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E157"/>
     </row>
@@ -4234,7 +4264,7 @@
         <v>151</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E158"/>
     </row>
@@ -4249,7 +4279,7 @@
         <v>152</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E159"/>
     </row>
@@ -4264,7 +4294,7 @@
         <v>153</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E160"/>
     </row>
@@ -4292,7 +4322,7 @@
         <v>155</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E162"/>
     </row>
@@ -4307,7 +4337,7 @@
         <v>156</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E163"/>
     </row>
@@ -4322,7 +4352,7 @@
         <v>157</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E164"/>
     </row>
@@ -4337,7 +4367,7 @@
         <v>158</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E165"/>
     </row>
@@ -4352,7 +4382,7 @@
         <v>159</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E166"/>
     </row>
@@ -4367,7 +4397,7 @@
         <v>160</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E167"/>
     </row>
@@ -4382,7 +4412,7 @@
         <v>161</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E168"/>
     </row>
@@ -4397,7 +4427,7 @@
         <v>162</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E169"/>
     </row>
@@ -4412,7 +4442,7 @@
         <v>163</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E170"/>
     </row>
@@ -4427,7 +4457,7 @@
         <v>164</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E171"/>
     </row>
@@ -4442,7 +4472,7 @@
         <v>165</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E172"/>
     </row>
@@ -4457,7 +4487,7 @@
         <v>166</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E173"/>
     </row>
@@ -4472,7 +4502,7 @@
         <v>167</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E174"/>
     </row>
@@ -4501,7 +4531,7 @@
         <v>169</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E177"/>
     </row>
@@ -4516,7 +4546,7 @@
         <v>170</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E178"/>
     </row>
@@ -4531,7 +4561,7 @@
         <v>171</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E179"/>
     </row>
@@ -4546,7 +4576,7 @@
         <v>172</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E180"/>
     </row>
@@ -4561,7 +4591,7 @@
         <v>173</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E181"/>
     </row>
@@ -4576,7 +4606,7 @@
         <v>174</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E182"/>
     </row>
@@ -4591,7 +4621,7 @@
         <v>175</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E183"/>
     </row>
@@ -4606,7 +4636,7 @@
         <v>176</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E184"/>
     </row>
@@ -4621,7 +4651,7 @@
         <v>177</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E185"/>
     </row>
@@ -4636,7 +4666,7 @@
         <v>178</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E186"/>
     </row>
@@ -4651,7 +4681,7 @@
         <v>179</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E187"/>
     </row>
@@ -4666,7 +4696,7 @@
         <v>180</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E188"/>
     </row>
@@ -4681,7 +4711,7 @@
         <v>181</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E189"/>
     </row>
@@ -4696,86 +4726,98 @@
         <v>182</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E190"/>
     </row>
     <row r="191" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A191" s="3">
+      <c r="A191" s="24">
         <v>15</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D191" s="3"/>
+      <c r="D191" s="14" t="s">
+        <v>462</v>
+      </c>
       <c r="E191"/>
     </row>
     <row r="192" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A192" s="3">
+      <c r="A192" s="25">
         <v>16</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D192" s="3"/>
+      <c r="D192" s="14" t="s">
+        <v>462</v>
+      </c>
       <c r="E192"/>
     </row>
     <row r="193" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A193" s="3">
+      <c r="A193" s="25">
         <v>17</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D193" s="3"/>
+      <c r="D193" s="14" t="s">
+        <v>462</v>
+      </c>
       <c r="E193"/>
     </row>
     <row r="194" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A194" s="3">
+      <c r="A194" s="25">
         <v>18</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D194" s="3"/>
+      <c r="D194" s="14" t="s">
+        <v>462</v>
+      </c>
       <c r="E194"/>
     </row>
     <row r="195" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A195" s="3">
+      <c r="A195" s="25">
         <v>19</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D195" s="3"/>
+      <c r="D195" s="14" t="s">
+        <v>462</v>
+      </c>
       <c r="E195"/>
     </row>
     <row r="196" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A196" s="3">
+      <c r="A196" s="25">
         <v>20</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D196" s="3"/>
+      <c r="D196" s="14" t="s">
+        <v>462</v>
+      </c>
       <c r="E196"/>
     </row>
     <row r="197" spans="1:5" s="20" customFormat="1" ht="21">
@@ -4789,71 +4831,83 @@
         <v>189</v>
       </c>
       <c r="D197" s="3"/>
-      <c r="E197"/>
+      <c r="E197" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="198" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A198" s="3">
+      <c r="A198" s="26">
         <v>22</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D198" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A199" s="26">
+        <v>23</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C199" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D198" s="3"/>
-      <c r="E198"/>
-    </row>
-    <row r="199" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A199" s="3">
-        <v>23</v>
-      </c>
-      <c r="B199" s="4" t="s">
+      <c r="D199" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A200" s="26">
+        <v>24</v>
+      </c>
+      <c r="B200" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C200" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D199" s="3"/>
-      <c r="E199"/>
-    </row>
-    <row r="200" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A200" s="3">
-        <v>24</v>
-      </c>
-      <c r="B200" s="4" t="s">
+      <c r="D200" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A201" s="27">
+        <v>25</v>
+      </c>
+      <c r="B201" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C201" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D200" s="3"/>
-      <c r="E200"/>
-    </row>
-    <row r="201" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A201" s="3">
-        <v>25</v>
-      </c>
-      <c r="B201" s="4" t="s">
+      <c r="D201" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E201"/>
+    </row>
+    <row r="202" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A202" s="27">
+        <v>26</v>
+      </c>
+      <c r="B202" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C202" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D201" s="3"/>
-      <c r="E201"/>
-    </row>
-    <row r="202" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A202" s="3">
-        <v>26</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D202" s="3"/>
+      <c r="D202" s="14" t="s">
+        <v>462</v>
+      </c>
       <c r="E202"/>
     </row>
     <row r="203" spans="1:5" s="20" customFormat="1" ht="21">
@@ -4864,87 +4918,103 @@
         <v>168</v>
       </c>
       <c r="C203" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A204" s="28">
+        <v>28</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C204" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D203" s="3"/>
-      <c r="E203"/>
-    </row>
-    <row r="204" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A204" s="3">
-        <v>28</v>
-      </c>
-      <c r="B204" s="4" t="s">
+      <c r="D204" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A205" s="28">
+        <v>29</v>
+      </c>
+      <c r="B205" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C205" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D204" s="3"/>
-      <c r="E204"/>
-    </row>
-    <row r="205" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A205" s="3">
-        <v>29</v>
-      </c>
-      <c r="B205" s="4" t="s">
+      <c r="D205" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A206" s="29">
+        <v>30</v>
+      </c>
+      <c r="B206" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C206" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D205" s="3"/>
-      <c r="E205"/>
-    </row>
-    <row r="206" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A206" s="3">
-        <v>30</v>
-      </c>
-      <c r="B206" s="4" t="s">
+      <c r="D206" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A207" s="30">
+        <v>31</v>
+      </c>
+      <c r="B207" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C207" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D206" s="3"/>
-      <c r="E206"/>
-    </row>
-    <row r="207" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A207" s="3">
-        <v>31</v>
-      </c>
-      <c r="B207" s="4" t="s">
+      <c r="D207" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E207" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A208" s="30">
+        <v>32</v>
+      </c>
+      <c r="B208" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C208" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D207" s="3"/>
-      <c r="E207"/>
-    </row>
-    <row r="208" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A208" s="3">
-        <v>32</v>
-      </c>
-      <c r="B208" s="4" t="s">
+      <c r="D208" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="A209" s="30">
+        <v>33</v>
+      </c>
+      <c r="B209" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C209" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D208" s="3"/>
-      <c r="E208"/>
-    </row>
-    <row r="209" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A209" s="3">
-        <v>33</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D209" s="3"/>
+      <c r="D209" s="14" t="s">
+        <v>462</v>
+      </c>
       <c r="E209"/>
     </row>
     <row r="210" spans="1:5" s="20" customFormat="1" ht="21">
@@ -4955,23 +5025,27 @@
         <v>168</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210"/>
     </row>
     <row r="211" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A211" s="3">
+      <c r="A211" s="30">
         <v>35</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D211" s="3"/>
-      <c r="E211"/>
+      <c r="C211" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E211" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="212" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A212" s="3"/>
@@ -4992,10 +5066,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214"/>
@@ -5005,10 +5079,10 @@
         <v>2</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215"/>
@@ -5018,10 +5092,10 @@
         <v>3</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216"/>
@@ -5031,10 +5105,10 @@
         <v>4</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217"/>
@@ -5044,10 +5118,10 @@
         <v>5</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218"/>
@@ -5057,10 +5131,10 @@
         <v>6</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219"/>
@@ -5070,10 +5144,10 @@
         <v>7</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220"/>
@@ -5083,10 +5157,10 @@
         <v>8</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221"/>
@@ -5096,10 +5170,10 @@
         <v>9</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222"/>
@@ -5109,10 +5183,10 @@
         <v>10</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223"/>
@@ -5122,10 +5196,10 @@
         <v>11</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224"/>
@@ -5135,10 +5209,10 @@
         <v>12</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225"/>
@@ -5148,10 +5222,10 @@
         <v>13</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226"/>
@@ -5161,10 +5235,10 @@
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227"/>
@@ -5174,10 +5248,10 @@
         <v>15</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228"/>
@@ -5187,10 +5261,10 @@
         <v>16</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229"/>
@@ -5200,10 +5274,10 @@
         <v>17</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230"/>
@@ -5213,10 +5287,10 @@
         <v>18</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231"/>
@@ -5226,10 +5300,10 @@
         <v>19</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232"/>
@@ -5239,10 +5313,10 @@
         <v>20</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233"/>
@@ -5252,10 +5326,10 @@
         <v>21</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234"/>
@@ -5265,10 +5339,10 @@
         <v>22</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235"/>
@@ -5292,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C238" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238"/>
@@ -5305,10 +5379,10 @@
         <v>2</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239"/>
@@ -5318,10 +5392,10 @@
         <v>3</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240"/>
@@ -5331,10 +5405,10 @@
         <v>4</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241"/>
@@ -5344,10 +5418,10 @@
         <v>5</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242"/>
@@ -5357,10 +5431,10 @@
         <v>6</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D243" s="3"/>
       <c r="E243"/>
@@ -5370,10 +5444,10 @@
         <v>7</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244"/>
@@ -5383,10 +5457,10 @@
         <v>8</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245"/>
@@ -5396,10 +5470,10 @@
         <v>9</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246"/>
@@ -5409,10 +5483,10 @@
         <v>10</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D247" s="3"/>
       <c r="E247"/>
@@ -5422,10 +5496,10 @@
         <v>11</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248"/>
@@ -5435,10 +5509,10 @@
         <v>12</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249"/>
@@ -5448,10 +5522,10 @@
         <v>13</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D250" s="3"/>
       <c r="E250"/>
@@ -5461,10 +5535,10 @@
         <v>14</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251"/>
@@ -5474,10 +5548,10 @@
         <v>15</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252"/>
@@ -5487,10 +5561,10 @@
         <v>16</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253"/>
@@ -5500,10 +5574,10 @@
         <v>17</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254"/>
@@ -5513,10 +5587,10 @@
         <v>18</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255"/>
@@ -5526,10 +5600,10 @@
         <v>19</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D256" s="3"/>
       <c r="E256"/>
@@ -5539,10 +5613,10 @@
         <v>20</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257"/>
@@ -5552,10 +5626,10 @@
         <v>21</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258"/>
@@ -5565,10 +5639,10 @@
         <v>22</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259"/>
@@ -5578,10 +5652,10 @@
         <v>23</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260"/>
@@ -5591,10 +5665,10 @@
         <v>24</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261"/>
@@ -5604,10 +5678,10 @@
         <v>25</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262"/>
@@ -5617,10 +5691,10 @@
         <v>26</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263"/>
@@ -5630,10 +5704,10 @@
         <v>27</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264"/>
@@ -5643,10 +5717,10 @@
         <v>28</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265"/>
@@ -5656,10 +5730,10 @@
         <v>29</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266"/>
@@ -5669,10 +5743,10 @@
         <v>30</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267"/>
@@ -5682,10 +5756,10 @@
         <v>31</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268"/>
@@ -5695,10 +5769,10 @@
         <v>32</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269"/>
@@ -5708,10 +5782,10 @@
         <v>33</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270"/>
@@ -5721,7 +5795,7 @@
         <v>34</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>85</v>
@@ -5734,10 +5808,10 @@
         <v>35</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D272" s="3"/>
       <c r="E272"/>
@@ -5761,10 +5835,10 @@
         <v>1</v>
       </c>
       <c r="B275" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275"/>
@@ -5774,10 +5848,10 @@
         <v>2</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276"/>
@@ -5787,10 +5861,10 @@
         <v>3</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277"/>
@@ -5800,10 +5874,10 @@
         <v>4</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278"/>
@@ -5813,10 +5887,10 @@
         <v>5</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D279" s="3"/>
       <c r="E279"/>
@@ -5826,10 +5900,10 @@
         <v>6</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280"/>
@@ -5839,10 +5913,10 @@
         <v>7</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281"/>
@@ -5852,10 +5926,10 @@
         <v>8</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282"/>
@@ -5865,10 +5939,10 @@
         <v>9</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D283" s="3"/>
       <c r="E283"/>
@@ -5878,10 +5952,10 @@
         <v>10</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D284" s="3"/>
       <c r="E284"/>
@@ -5891,10 +5965,10 @@
         <v>11</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285"/>
@@ -5904,10 +5978,10 @@
         <v>12</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286"/>
@@ -5917,10 +5991,10 @@
         <v>13</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287"/>
@@ -5930,10 +6004,10 @@
         <v>14</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D288" s="3"/>
       <c r="E288"/>
@@ -5943,10 +6017,10 @@
         <v>15</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D289" s="3"/>
       <c r="E289"/>
@@ -5956,10 +6030,10 @@
         <v>16</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290"/>
@@ -5969,10 +6043,10 @@
         <v>17</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D291" s="3"/>
       <c r="E291"/>
@@ -5982,10 +6056,10 @@
         <v>18</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D292" s="3"/>
       <c r="E292"/>
@@ -5995,10 +6069,10 @@
         <v>19</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D293" s="3"/>
       <c r="E293"/>
@@ -6022,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C296" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="D296" s="3"/>
       <c r="E296"/>
@@ -6035,10 +6109,10 @@
         <v>2</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D297" s="3"/>
       <c r="E297"/>
@@ -6048,10 +6122,10 @@
         <v>3</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298"/>
@@ -6061,10 +6135,10 @@
         <v>4</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299"/>
@@ -6074,10 +6148,10 @@
         <v>5</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300"/>
@@ -6087,10 +6161,10 @@
         <v>6</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301"/>
@@ -6100,10 +6174,10 @@
         <v>7</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D302" s="3"/>
       <c r="E302"/>
@@ -6113,10 +6187,10 @@
         <v>8</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303"/>
@@ -6126,10 +6200,10 @@
         <v>9</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304"/>
@@ -6139,10 +6213,10 @@
         <v>10</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D305" s="3"/>
       <c r="E305"/>
@@ -6152,10 +6226,10 @@
         <v>11</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D306" s="3"/>
       <c r="E306"/>
@@ -6165,10 +6239,10 @@
         <v>12</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307"/>
@@ -6178,10 +6252,10 @@
         <v>13</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308"/>
@@ -6191,10 +6265,10 @@
         <v>14</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309"/>
@@ -6204,10 +6278,10 @@
         <v>15</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D310" s="3"/>
       <c r="E310"/>
@@ -6217,10 +6291,10 @@
         <v>16</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D311" s="3"/>
       <c r="E311"/>
@@ -6230,10 +6304,10 @@
         <v>17</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D312" s="3"/>
       <c r="E312"/>
@@ -6243,10 +6317,10 @@
         <v>18</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313"/>
@@ -6256,10 +6330,10 @@
         <v>19</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314"/>
@@ -6269,10 +6343,10 @@
         <v>20</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D315" s="3"/>
       <c r="E315"/>
@@ -6282,10 +6356,10 @@
         <v>21</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D316" s="3"/>
       <c r="E316"/>
@@ -6295,10 +6369,10 @@
         <v>22</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317"/>
@@ -6308,10 +6382,10 @@
         <v>23</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318"/>
@@ -6321,10 +6395,10 @@
         <v>24</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319"/>
@@ -6334,10 +6408,10 @@
         <v>25</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320"/>
@@ -6347,10 +6421,10 @@
         <v>26</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321"/>
@@ -6360,10 +6434,10 @@
         <v>27</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D322" s="3"/>
       <c r="E322"/>
@@ -6373,10 +6447,10 @@
         <v>28</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323"/>
@@ -6386,10 +6460,10 @@
         <v>29</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D324" s="3"/>
       <c r="E324"/>
@@ -6399,10 +6473,10 @@
         <v>30</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D325" s="3"/>
       <c r="E325"/>
@@ -6412,10 +6486,10 @@
         <v>31</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326"/>
@@ -6425,10 +6499,10 @@
         <v>32</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327"/>
@@ -6438,10 +6512,10 @@
         <v>33</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D328" s="3"/>
       <c r="E328"/>
@@ -6451,10 +6525,10 @@
         <v>34</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329"/>
@@ -6464,10 +6538,10 @@
         <v>35</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330"/>
@@ -6477,10 +6551,10 @@
         <v>36</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D331" s="3"/>
       <c r="E331"/>
@@ -6490,10 +6564,10 @@
         <v>37</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D332" s="3"/>
       <c r="E332"/>
@@ -6503,10 +6577,10 @@
         <v>38</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333"/>
@@ -6530,10 +6604,10 @@
         <v>1</v>
       </c>
       <c r="B336" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C336" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="D336" s="3"/>
       <c r="E336"/>
@@ -6543,10 +6617,10 @@
         <v>2</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D337" s="3"/>
       <c r="E337"/>
@@ -6556,10 +6630,10 @@
         <v>3</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338"/>
@@ -6569,10 +6643,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D339" s="3"/>
       <c r="E339"/>
@@ -6582,10 +6656,10 @@
         <v>5</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D340" s="3"/>
       <c r="E340"/>
@@ -6595,10 +6669,10 @@
         <v>6</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D341" s="3"/>
       <c r="E341"/>
@@ -6608,10 +6682,10 @@
         <v>7</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D342" s="3"/>
       <c r="E342"/>
@@ -6621,10 +6695,10 @@
         <v>8</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D343" s="3"/>
       <c r="E343"/>
@@ -6634,10 +6708,10 @@
         <v>9</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D344" s="3"/>
       <c r="E344"/>
@@ -6647,10 +6721,10 @@
         <v>10</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D345" s="3"/>
       <c r="E345"/>
@@ -6660,10 +6734,10 @@
         <v>11</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D346" s="3"/>
       <c r="E346"/>
@@ -6673,10 +6747,10 @@
         <v>12</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D347" s="3"/>
       <c r="E347"/>
@@ -6686,10 +6760,10 @@
         <v>13</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D348" s="3"/>
       <c r="E348"/>
@@ -6699,10 +6773,10 @@
         <v>14</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349"/>
@@ -6712,10 +6786,10 @@
         <v>15</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D350" s="3"/>
       <c r="E350"/>
@@ -6725,10 +6799,10 @@
         <v>16</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D351" s="3"/>
       <c r="E351"/>
@@ -6738,10 +6812,10 @@
         <v>17</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D352" s="3"/>
       <c r="E352"/>
@@ -6751,10 +6825,10 @@
         <v>18</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D353" s="3"/>
       <c r="E353"/>
@@ -6778,10 +6852,10 @@
         <v>1</v>
       </c>
       <c r="B356" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C356" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="D356" s="3"/>
       <c r="E356"/>
@@ -6791,10 +6865,10 @@
         <v>2</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D357" s="3"/>
       <c r="E357"/>
@@ -6804,10 +6878,10 @@
         <v>3</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D358" s="3"/>
       <c r="E358"/>
@@ -6817,10 +6891,10 @@
         <v>4</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D359" s="3"/>
       <c r="E359"/>
@@ -6830,10 +6904,10 @@
         <v>5</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D360" s="3"/>
       <c r="E360"/>
@@ -6843,10 +6917,10 @@
         <v>6</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D361" s="3"/>
       <c r="E361"/>
@@ -6856,10 +6930,10 @@
         <v>7</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D362" s="3"/>
       <c r="E362"/>
@@ -6869,10 +6943,10 @@
         <v>8</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D363" s="3"/>
       <c r="E363"/>
@@ -6882,10 +6956,10 @@
         <v>9</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D364" s="3"/>
       <c r="E364"/>
@@ -6895,10 +6969,10 @@
         <v>10</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365"/>
@@ -6908,10 +6982,10 @@
         <v>11</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366"/>
@@ -6921,10 +6995,10 @@
         <v>12</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D367" s="3"/>
       <c r="E367"/>
@@ -6934,10 +7008,10 @@
         <v>13</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D368" s="3"/>
       <c r="E368"/>
@@ -6947,10 +7021,10 @@
         <v>14</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D369" s="3"/>
       <c r="E369"/>
@@ -6960,10 +7034,10 @@
         <v>15</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370"/>
@@ -6973,10 +7047,10 @@
         <v>16</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371"/>
@@ -6986,10 +7060,10 @@
         <v>17</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372"/>
@@ -6999,10 +7073,10 @@
         <v>18</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D373" s="3"/>
       <c r="E373"/>
@@ -7012,10 +7086,10 @@
         <v>19</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D374" s="3"/>
       <c r="E374"/>
@@ -7025,10 +7099,10 @@
         <v>20</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D375" s="3"/>
       <c r="E375"/>
@@ -7038,10 +7112,10 @@
         <v>21</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376"/>
@@ -7051,10 +7125,10 @@
         <v>22</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D377" s="3"/>
       <c r="E377"/>
@@ -7064,10 +7138,10 @@
         <v>23</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D378" s="3"/>
       <c r="E378"/>
@@ -7077,10 +7151,10 @@
         <v>24</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379"/>
@@ -7090,10 +7164,10 @@
         <v>25</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380"/>
@@ -7103,10 +7177,10 @@
         <v>26</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D381" s="3"/>
       <c r="E381"/>
@@ -7116,10 +7190,10 @@
         <v>27</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D382" s="3"/>
       <c r="E382"/>
@@ -7129,10 +7203,10 @@
         <v>28</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D383" s="3"/>
       <c r="E383"/>
@@ -7142,10 +7216,10 @@
         <v>29</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384"/>
@@ -7155,10 +7229,10 @@
         <v>30</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385"/>
@@ -7168,10 +7242,10 @@
         <v>31</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386"/>
@@ -7181,10 +7255,10 @@
         <v>32</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387"/>
@@ -7194,10 +7268,10 @@
         <v>33</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D388" s="3"/>
       <c r="E388"/>
@@ -7207,10 +7281,10 @@
         <v>34</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389"/>
@@ -7220,10 +7294,10 @@
         <v>35</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390"/>
@@ -7233,10 +7307,10 @@
         <v>36</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D391" s="3"/>
       <c r="E391"/>
@@ -7246,10 +7320,10 @@
         <v>37</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392"/>
@@ -7259,10 +7333,10 @@
         <v>38</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D393" s="3"/>
       <c r="E393"/>
@@ -7272,10 +7346,10 @@
         <v>39</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D394" s="3"/>
       <c r="E394"/>
@@ -7285,10 +7359,10 @@
         <v>40</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395"/>
@@ -7298,10 +7372,10 @@
         <v>41</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D396" s="3"/>
       <c r="E396"/>
@@ -7311,10 +7385,10 @@
         <v>42</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D397" s="3"/>
       <c r="E397"/>
@@ -7324,10 +7398,10 @@
         <v>43</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D398" s="3"/>
       <c r="E398"/>
@@ -7337,10 +7411,10 @@
         <v>44</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D399" s="3"/>
       <c r="E399"/>
@@ -7364,10 +7438,10 @@
         <v>1</v>
       </c>
       <c r="B402" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C402" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="D402" s="3"/>
       <c r="E402"/>
@@ -7377,10 +7451,10 @@
         <v>2</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D403" s="3"/>
       <c r="E403"/>
@@ -7390,10 +7464,10 @@
         <v>3</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D404" s="3"/>
       <c r="E404"/>
@@ -7403,7 +7477,7 @@
         <v>4</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>86</v>
@@ -7416,10 +7490,10 @@
         <v>5</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D406" s="3"/>
       <c r="E406"/>
@@ -7429,10 +7503,10 @@
         <v>6</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D407" s="3"/>
       <c r="E407"/>
@@ -7456,10 +7530,10 @@
         <v>1</v>
       </c>
       <c r="B410" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C410" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="C410" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="D410" s="3"/>
       <c r="E410"/>
@@ -7469,10 +7543,10 @@
         <v>2</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D411" s="3"/>
       <c r="E411"/>
@@ -7482,10 +7556,10 @@
         <v>3</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D412" s="3"/>
       <c r="E412"/>
@@ -7495,10 +7569,10 @@
         <v>4</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D413" s="3"/>
       <c r="E413"/>
@@ -7508,10 +7582,10 @@
         <v>5</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D414" s="3"/>
       <c r="E414"/>
@@ -7521,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D415" s="3"/>
       <c r="E415"/>
@@ -7534,10 +7608,10 @@
         <v>7</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D416" s="3"/>
       <c r="E416"/>
@@ -7547,10 +7621,10 @@
         <v>8</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417"/>
@@ -7560,10 +7634,10 @@
         <v>9</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D418" s="3"/>
       <c r="E418"/>
@@ -7573,10 +7647,10 @@
         <v>10</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D419" s="3"/>
       <c r="E419"/>
@@ -7586,10 +7660,10 @@
         <v>11</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D420" s="3"/>
       <c r="E420"/>
@@ -7599,10 +7673,10 @@
         <v>12</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D421" s="3"/>
       <c r="E421"/>
@@ -7612,10 +7686,10 @@
         <v>13</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D422" s="3"/>
       <c r="E422"/>
@@ -7625,10 +7699,10 @@
         <v>14</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D423" s="3"/>
       <c r="E423"/>
@@ -7638,10 +7712,10 @@
         <v>15</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D424" s="3"/>
       <c r="E424"/>
@@ -7651,10 +7725,10 @@
         <v>16</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425"/>
@@ -7664,10 +7738,10 @@
         <v>17</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D426" s="3"/>
       <c r="E426"/>
@@ -7677,10 +7751,10 @@
         <v>18</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D427" s="3"/>
       <c r="E427"/>
@@ -7690,10 +7764,10 @@
         <v>19</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428"/>
@@ -7703,10 +7777,10 @@
         <v>20</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D429" s="3"/>
       <c r="E429"/>
@@ -7716,10 +7790,10 @@
         <v>21</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D430" s="3"/>
       <c r="E430"/>
@@ -7729,10 +7803,10 @@
         <v>22</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D431" s="3"/>
       <c r="E431"/>
@@ -7742,10 +7816,10 @@
         <v>23</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D432" s="3"/>
       <c r="E432"/>
@@ -7755,10 +7829,10 @@
         <v>24</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D433" s="3"/>
       <c r="E433"/>
@@ -7768,10 +7842,10 @@
         <v>25</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D434" s="3"/>
       <c r="E434"/>
@@ -7781,10 +7855,10 @@
         <v>26</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D435" s="3"/>
       <c r="E435"/>
@@ -7794,10 +7868,10 @@
         <v>27</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D436" s="3"/>
       <c r="E436"/>
@@ -7807,10 +7881,10 @@
         <v>28</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D437" s="3"/>
       <c r="E437"/>
@@ -7820,10 +7894,10 @@
         <v>29</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D438" s="3"/>
       <c r="E438"/>
@@ -7833,10 +7907,10 @@
         <v>30</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D439" s="3"/>
       <c r="E439"/>
@@ -7846,10 +7920,10 @@
         <v>31</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D440" s="3"/>
       <c r="E440"/>
@@ -7859,10 +7933,10 @@
         <v>32</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D441" s="3"/>
       <c r="E441"/>
@@ -7872,10 +7946,10 @@
         <v>33</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D442" s="3"/>
       <c r="E442"/>
@@ -7885,10 +7959,10 @@
         <v>34</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D443" s="3"/>
       <c r="E443"/>
@@ -7898,10 +7972,10 @@
         <v>35</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D444" s="3"/>
       <c r="E444"/>
@@ -7911,10 +7985,10 @@
         <v>36</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D445" s="3"/>
       <c r="E445"/>
@@ -7924,10 +7998,10 @@
         <v>37</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D446" s="3"/>
       <c r="E446"/>
@@ -7937,10 +8011,10 @@
         <v>38</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D447" s="3"/>
       <c r="E447"/>
@@ -7950,10 +8024,10 @@
         <v>39</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D448" s="3"/>
       <c r="E448"/>
@@ -7963,10 +8037,10 @@
         <v>40</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D449" s="3"/>
       <c r="E449"/>
@@ -7976,10 +8050,10 @@
         <v>41</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D450" s="3"/>
       <c r="E450"/>
@@ -7989,10 +8063,10 @@
         <v>42</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D451" s="3"/>
       <c r="E451"/>
@@ -8002,10 +8076,10 @@
         <v>43</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D452" s="3"/>
       <c r="E452"/>
@@ -8015,10 +8089,10 @@
         <v>44</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D453" s="3"/>
       <c r="E453"/>
@@ -8028,10 +8102,10 @@
         <v>45</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D454" s="3"/>
       <c r="E454"/>
@@ -8041,10 +8115,10 @@
         <v>46</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D455" s="3"/>
       <c r="E455"/>
@@ -8054,10 +8128,10 @@
         <v>47</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D456" s="3"/>
       <c r="E456"/>
@@ -8067,10 +8141,10 @@
         <v>48</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D457" s="3"/>
       <c r="E457"/>
@@ -8080,10 +8154,10 @@
         <v>49</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D458" s="3"/>
       <c r="E458"/>
@@ -8093,10 +8167,10 @@
         <v>50</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D459" s="3"/>
       <c r="E459"/>
@@ -8106,10 +8180,10 @@
         <v>51</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D460" s="3"/>
       <c r="E460"/>
@@ -8119,10 +8193,10 @@
         <v>52</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D461" s="3"/>
       <c r="E461"/>
@@ -8132,10 +8206,10 @@
         <v>53</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D462" s="3"/>
       <c r="E462"/>
@@ -8145,10 +8219,10 @@
         <v>54</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D463" s="3"/>
       <c r="E463"/>
@@ -8158,10 +8232,10 @@
         <v>55</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D464" s="3"/>
       <c r="E464"/>
@@ -8171,10 +8245,10 @@
         <v>56</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D465" s="3"/>
       <c r="E465"/>
@@ -8184,10 +8258,10 @@
         <v>57</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D466" s="3"/>
       <c r="E466"/>
@@ -8197,10 +8271,10 @@
         <v>58</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D467" s="3"/>
       <c r="E467"/>
@@ -8210,10 +8284,10 @@
         <v>59</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D468" s="3"/>
       <c r="E468"/>
@@ -8223,10 +8297,10 @@
         <v>60</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D469" s="3"/>
       <c r="E469"/>
@@ -8250,10 +8324,10 @@
         <v>1</v>
       </c>
       <c r="B472" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C472" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="C472" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="D472" s="3"/>
       <c r="E472"/>
@@ -8263,10 +8337,10 @@
         <v>2</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D473" s="3"/>
       <c r="E473"/>
@@ -8276,10 +8350,10 @@
         <v>3</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D474" s="3"/>
       <c r="E474"/>
@@ -8289,10 +8363,10 @@
         <v>4</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D475" s="3"/>
       <c r="E475"/>
@@ -8302,10 +8376,10 @@
         <v>5</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D476" s="3"/>
       <c r="E476"/>
@@ -8315,10 +8389,10 @@
         <v>6</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D477" s="3"/>
       <c r="E477"/>
@@ -8328,10 +8402,10 @@
         <v>7</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D478" s="3"/>
       <c r="E478"/>
@@ -8341,10 +8415,10 @@
         <v>8</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D479" s="3"/>
       <c r="E479"/>
@@ -8354,10 +8428,10 @@
         <v>9</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D480" s="3"/>
       <c r="E480"/>
@@ -8367,10 +8441,10 @@
         <v>10</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D481" s="3"/>
       <c r="E481"/>
@@ -8383,20 +8457,20 @@
       <c r="E482"/>
     </row>
     <row r="484" spans="1:5" ht="25.8">
-      <c r="B484" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="C484" s="25"/>
+      <c r="B484" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="C484" s="32"/>
     </row>
     <row r="485" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A485" s="3">
         <v>1</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D485" s="3"/>
       <c r="E485"/>
@@ -8406,10 +8480,10 @@
         <v>2</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D486" s="3"/>
       <c r="E486"/>
@@ -8419,10 +8493,10 @@
         <v>3</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D487" s="3"/>
       <c r="E487"/>
@@ -8432,10 +8506,10 @@
         <v>4</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D488" s="3"/>
       <c r="E488"/>
@@ -8445,10 +8519,10 @@
         <v>5</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D489" s="3"/>
       <c r="E489"/>
@@ -8458,10 +8532,10 @@
         <v>6</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490"/>
@@ -8648,7 +8722,7 @@
     <hyperlink ref="C195" r:id="rId175" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
     <hyperlink ref="C196" r:id="rId176" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
     <hyperlink ref="C197" r:id="rId177" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C198" r:id="rId178" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C198" r:id="rId178" display="Check if Binary tree is Sum tree or not" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
     <hyperlink ref="C199" r:id="rId179" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
     <hyperlink ref="C200" r:id="rId180" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
     <hyperlink ref="C201" r:id="rId181" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038790F0-2AB0-46BC-BC24-B7541B6A3F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60030E5-F955-437F-8ACE-F905A8141C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1634,7 +1634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1682,6 +1682,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2038,7 +2041,7 @@
   <dimension ref="A1:F490"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B198" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5018,16 +5021,18 @@
       <c r="E209"/>
     </row>
     <row r="210" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A210" s="3">
+      <c r="A210" s="31">
         <v>34</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D210" s="3"/>
+      <c r="D210" s="14" t="s">
+        <v>462</v>
+      </c>
       <c r="E210"/>
     </row>
     <row r="211" spans="1:5" s="20" customFormat="1" ht="21">
@@ -8457,10 +8462,10 @@
       <c r="E482"/>
     </row>
     <row r="484" spans="1:5" ht="25.8">
-      <c r="B484" s="31" t="s">
+      <c r="B484" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="C484" s="32"/>
+      <c r="C484" s="33"/>
     </row>
     <row r="485" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A485" s="3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60030E5-F955-437F-8ACE-F905A8141C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE5D5C1-AFD9-499D-A01B-DE5EF5E63F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="486">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -417,9 +417,6 @@
     <t>Implement Merge-sort in-place</t>
   </si>
   <si>
-    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
     <t>LinkedList</t>
   </si>
   <si>
@@ -1471,6 +1468,21 @@
   </si>
   <si>
     <t>Beautiful Recursion</t>
+  </si>
+  <si>
+    <t>Geomatry</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Bitwise</t>
+  </si>
+  <si>
+    <t>Redo with dp</t>
+  </si>
+  <si>
+    <t>Partitioning and Sorting Arrays</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1576,6 +1588,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,7 +1652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1711,6 +1729,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2040,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B198" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="B406" zoomScale="105" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2063,14 +2121,14 @@
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2"/>
       <c r="C2" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2"/>
@@ -2084,7 +2142,7 @@
     </row>
     <row r="4" spans="1:6" s="20" customFormat="1" ht="21">
       <c r="A4" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2093,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E4"/>
     </row>
@@ -2115,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E6"/>
     </row>
@@ -2130,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E7"/>
     </row>
@@ -2145,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E8"/>
     </row>
@@ -2160,7 +2218,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E9"/>
     </row>
@@ -2175,7 +2233,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2190,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E11"/>
     </row>
@@ -2205,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E12"/>
     </row>
@@ -2220,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E13"/>
     </row>
@@ -2235,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E14"/>
     </row>
@@ -2250,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E15"/>
     </row>
@@ -2265,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E16"/>
     </row>
@@ -2280,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E17" s="19"/>
     </row>
@@ -2295,7 +2353,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E18" s="19"/>
     </row>
@@ -2310,7 +2368,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E19" s="19"/>
     </row>
@@ -2325,7 +2383,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E20" s="19"/>
     </row>
@@ -2340,7 +2398,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E21" s="19"/>
     </row>
@@ -2355,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E22" s="19"/>
     </row>
@@ -2370,7 +2428,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E23" s="19"/>
     </row>
@@ -2385,7 +2443,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E24" s="19"/>
     </row>
@@ -2400,7 +2458,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E25" s="19"/>
     </row>
@@ -2415,7 +2473,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -2430,7 +2488,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E27" s="19"/>
     </row>
@@ -2445,7 +2503,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E28" s="19"/>
     </row>
@@ -2460,7 +2518,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E29" s="19"/>
     </row>
@@ -2475,7 +2533,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E30" s="19"/>
     </row>
@@ -2491,7 +2549,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2505,7 +2563,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E32" s="19"/>
     </row>
@@ -2520,7 +2578,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E33" s="19"/>
     </row>
@@ -2535,7 +2593,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E34" s="19"/>
     </row>
@@ -2550,7 +2608,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E35" s="19"/>
     </row>
@@ -2565,7 +2623,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E36" s="19"/>
     </row>
@@ -2580,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E37" s="19"/>
     </row>
@@ -2595,7 +2653,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E38" s="19"/>
     </row>
@@ -2610,7 +2668,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E39" s="19"/>
     </row>
@@ -2625,7 +2683,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E40" s="19"/>
     </row>
@@ -2640,7 +2698,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E41" s="19"/>
     </row>
@@ -2669,7 +2727,7 @@
         <v>41</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E44" s="19"/>
     </row>
@@ -2684,7 +2742,7 @@
         <v>42</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E45" s="19"/>
     </row>
@@ -2699,7 +2757,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E46" s="19"/>
     </row>
@@ -2714,7 +2772,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E47" s="19"/>
     </row>
@@ -2730,7 +2788,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2744,10 +2802,10 @@
         <v>46</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2761,7 +2819,7 @@
         <v>47</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E50" s="19"/>
     </row>
@@ -2776,7 +2834,7 @@
         <v>48</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E51" s="19"/>
     </row>
@@ -2791,10 +2849,10 @@
         <v>49</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2808,7 +2866,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E53" s="19"/>
     </row>
@@ -2837,7 +2895,7 @@
         <v>52</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E56" s="19"/>
     </row>
@@ -2852,7 +2910,7 @@
         <v>53</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E57" s="19"/>
     </row>
@@ -2867,7 +2925,7 @@
         <v>54</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E58" s="19"/>
     </row>
@@ -2882,7 +2940,7 @@
         <v>55</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E59" s="19"/>
     </row>
@@ -2897,7 +2955,7 @@
         <v>56</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E60" s="19"/>
     </row>
@@ -2912,7 +2970,7 @@
         <v>57</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E61" s="19"/>
     </row>
@@ -2927,7 +2985,7 @@
         <v>58</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E62" s="19"/>
     </row>
@@ -2942,7 +3000,7 @@
         <v>59</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E63" s="19"/>
     </row>
@@ -2958,7 +3016,7 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2972,10 +3030,10 @@
         <v>61</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="20" customFormat="1" ht="21">
@@ -2989,10 +3047,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3006,7 +3064,7 @@
         <v>63</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E67" s="19"/>
     </row>
@@ -3022,7 +3080,7 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3037,7 +3095,7 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3051,7 +3109,7 @@
         <v>66</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E70" s="19"/>
     </row>
@@ -3066,7 +3124,7 @@
         <v>67</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E71" s="19"/>
     </row>
@@ -3082,7 +3140,7 @@
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3096,7 +3154,7 @@
         <v>69</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E73" s="19"/>
     </row>
@@ -3111,7 +3169,7 @@
         <v>70</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E74" s="19"/>
     </row>
@@ -3126,7 +3184,7 @@
         <v>71</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E75" s="19"/>
     </row>
@@ -3141,7 +3199,7 @@
         <v>72</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E76" s="19"/>
     </row>
@@ -3157,7 +3215,7 @@
       </c>
       <c r="D77" s="3"/>
       <c r="E77" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3171,7 +3229,7 @@
         <v>74</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E78" s="19"/>
     </row>
@@ -3186,7 +3244,7 @@
         <v>75</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E79" s="19"/>
     </row>
@@ -3201,7 +3259,7 @@
         <v>76</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E80" s="19"/>
     </row>
@@ -3216,7 +3274,7 @@
         <v>77</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E81" s="19"/>
     </row>
@@ -3231,7 +3289,7 @@
         <v>78</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E82" s="19"/>
     </row>
@@ -3246,7 +3304,7 @@
         <v>79</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E83" s="19"/>
     </row>
@@ -3261,7 +3319,7 @@
         <v>80</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E84" s="19"/>
     </row>
@@ -3276,7 +3334,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E85" s="19"/>
     </row>
@@ -3291,7 +3349,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E86"/>
     </row>
@@ -3306,7 +3364,7 @@
         <v>83</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E87"/>
     </row>
@@ -3321,7 +3379,7 @@
         <v>84</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E88"/>
     </row>
@@ -3336,7 +3394,7 @@
         <v>85</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E89"/>
     </row>
@@ -3351,7 +3409,7 @@
         <v>84</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E90"/>
     </row>
@@ -3366,7 +3424,7 @@
         <v>86</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E91"/>
     </row>
@@ -3381,7 +3439,7 @@
         <v>87</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E92"/>
     </row>
@@ -3396,10 +3454,10 @@
         <v>88</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E93" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3426,7 +3484,7 @@
         <v>90</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E95"/>
     </row>
@@ -3441,7 +3499,7 @@
         <v>91</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E96"/>
     </row>
@@ -3456,7 +3514,7 @@
         <v>92</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E97"/>
     </row>
@@ -3471,7 +3529,7 @@
         <v>93</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E98"/>
     </row>
@@ -3490,68 +3548,78 @@
       <c r="E100"/>
     </row>
     <row r="101" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A101" s="3">
+      <c r="A101" s="32">
         <v>1</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D101" s="3"/>
+      <c r="D101" s="13" t="s">
+        <v>460</v>
+      </c>
       <c r="E101"/>
     </row>
     <row r="102" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A102" s="3">
+      <c r="A102" s="32">
         <v>2</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D102" s="3"/>
+      <c r="D102" s="13" t="s">
+        <v>460</v>
+      </c>
       <c r="E102"/>
     </row>
     <row r="103" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A103" s="3">
+      <c r="A103" s="33">
         <v>3</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E103"/>
     </row>
     <row r="104" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A104" s="3">
+      <c r="A104" s="33">
         <v>4</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D104" s="3"/>
+      <c r="D104" s="13" t="s">
+        <v>460</v>
+      </c>
       <c r="E104"/>
     </row>
     <row r="105" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A105" s="3">
+      <c r="A105" s="33">
         <v>5</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D105" s="3"/>
+      <c r="D105" s="13" t="s">
+        <v>460</v>
+      </c>
       <c r="E105"/>
     </row>
     <row r="106" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3565,58 +3633,68 @@
         <v>100</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106"/>
+      <c r="E106" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="107" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A107" s="3">
+      <c r="A107" s="34">
         <v>7</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D107" s="3"/>
+      <c r="D107" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E107"/>
     </row>
     <row r="108" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A108" s="3">
+      <c r="A108" s="34">
         <v>8</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E108"/>
     </row>
     <row r="109" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A109" s="3">
+      <c r="A109" s="34">
         <v>9</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E109"/>
     </row>
     <row r="110" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A110" s="3">
+      <c r="A110" s="34">
         <v>10</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D110" s="3"/>
+      <c r="D110" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E110"/>
     </row>
     <row r="111" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3630,7 +3708,9 @@
         <v>105</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111"/>
+      <c r="E111" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="112" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A112" s="3">
@@ -3643,58 +3723,68 @@
         <v>106</v>
       </c>
       <c r="D112" s="3"/>
-      <c r="E112"/>
+      <c r="E112" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="113" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A113" s="3">
+      <c r="A113" s="35">
         <v>13</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E113"/>
     </row>
     <row r="114" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A114" s="3">
+      <c r="A114" s="35">
         <v>14</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D114" s="3"/>
+      <c r="D114" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E114"/>
     </row>
     <row r="115" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A115" s="3">
+      <c r="A115" s="35">
         <v>15</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D115" s="3"/>
+      <c r="D115" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E115"/>
     </row>
     <row r="116" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A116" s="3">
+      <c r="A116" s="36">
         <v>16</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E116"/>
     </row>
     <row r="117" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3708,7 +3798,9 @@
         <v>111</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117"/>
+      <c r="E117" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="118" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A118" s="3">
@@ -3724,16 +3816,18 @@
       <c r="E118"/>
     </row>
     <row r="119" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A119" s="3">
+      <c r="A119" s="37">
         <v>19</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D119" s="3"/>
+      <c r="D119" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E119"/>
     </row>
     <row r="120" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3763,68 +3857,78 @@
       <c r="E121"/>
     </row>
     <row r="122" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A122" s="3">
+      <c r="A122" s="38">
         <v>22</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D122" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E122"/>
     </row>
     <row r="123" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A123" s="3">
+      <c r="A123" s="38">
         <v>23</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D123" s="3"/>
+      <c r="D123" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E123"/>
     </row>
     <row r="124" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A124" s="3">
+      <c r="A124" s="39">
         <v>24</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D124" s="3"/>
+      <c r="D124" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E124"/>
     </row>
     <row r="125" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A125" s="3">
+      <c r="A125" s="39">
         <v>25</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="3"/>
+      <c r="D125" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E125"/>
     </row>
     <row r="126" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A126" s="3">
+      <c r="A126" s="39">
         <v>26</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D126" s="3"/>
+      <c r="D126" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E126"/>
     </row>
     <row r="127" spans="1:5" s="20" customFormat="1" ht="21">
@@ -3838,72 +3942,86 @@
         <v>121</v>
       </c>
       <c r="D127" s="3"/>
-      <c r="E127"/>
+      <c r="E127" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="128" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A128" s="3">
+      <c r="A128" s="39">
         <v>28</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D128" s="3"/>
+      <c r="D128" s="13" t="s">
+        <v>460</v>
+      </c>
       <c r="E128"/>
     </row>
     <row r="129" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A129" s="3">
+      <c r="A129" s="40">
         <v>29</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D129" s="3"/>
+      <c r="D129" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E129"/>
     </row>
     <row r="130" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A130" s="3">
+      <c r="A130" s="41">
         <v>30</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D130" s="3"/>
+      <c r="D130" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E130"/>
     </row>
     <row r="131" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A131" s="3">
+      <c r="A131" s="41">
         <v>31</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D131" s="3"/>
+      <c r="D131" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E131"/>
     </row>
     <row r="132" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A132" s="3">
         <v>32</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D132" s="3"/>
-      <c r="E132"/>
+      <c r="D132" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E132" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="133" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A133" s="3">
@@ -3919,42 +4037,48 @@
       <c r="E133"/>
     </row>
     <row r="134" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A134" s="3">
+      <c r="A134" s="44">
         <v>34</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E134"/>
     </row>
     <row r="135" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A135" s="3">
+      <c r="A135" s="44">
         <v>35</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="3"/>
+      <c r="D135" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E135"/>
     </row>
     <row r="136" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A136" s="3">
+      <c r="A136" s="44">
         <v>36</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D136" s="3"/>
+      <c r="C136" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E136"/>
     </row>
     <row r="137" spans="1:5" s="20" customFormat="1">
@@ -3976,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C139" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="D139" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E139"/>
     </row>
@@ -3991,13 +4115,13 @@
         <v>2</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E140"/>
     </row>
@@ -4006,13 +4130,13 @@
         <v>3</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E141"/>
     </row>
@@ -4021,13 +4145,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E142"/>
     </row>
@@ -4036,13 +4160,13 @@
         <v>5</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E143"/>
     </row>
@@ -4051,13 +4175,13 @@
         <v>6</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E144"/>
     </row>
@@ -4066,13 +4190,13 @@
         <v>7</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E145"/>
     </row>
@@ -4081,13 +4205,13 @@
         <v>8</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E146"/>
     </row>
@@ -4096,13 +4220,13 @@
         <v>9</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E147"/>
     </row>
@@ -4111,13 +4235,13 @@
         <v>10</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E148"/>
     </row>
@@ -4126,13 +4250,13 @@
         <v>11</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E149"/>
     </row>
@@ -4141,13 +4265,13 @@
         <v>12</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E150"/>
     </row>
@@ -4156,13 +4280,13 @@
         <v>13</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E151"/>
     </row>
@@ -4171,13 +4295,13 @@
         <v>14</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E152"/>
     </row>
@@ -4186,13 +4310,13 @@
         <v>15</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E153"/>
     </row>
@@ -4201,13 +4325,13 @@
         <v>16</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E154"/>
     </row>
@@ -4216,13 +4340,13 @@
         <v>17</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E155"/>
     </row>
@@ -4231,13 +4355,13 @@
         <v>18</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E156"/>
     </row>
@@ -4246,13 +4370,13 @@
         <v>19</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E157"/>
     </row>
@@ -4261,13 +4385,13 @@
         <v>20</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E158"/>
     </row>
@@ -4276,13 +4400,13 @@
         <v>21</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E159"/>
     </row>
@@ -4291,13 +4415,13 @@
         <v>22</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E160"/>
     </row>
@@ -4306,10 +4430,10 @@
         <v>23</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161"/>
@@ -4319,13 +4443,13 @@
         <v>24</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E162"/>
     </row>
@@ -4334,13 +4458,13 @@
         <v>25</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E163"/>
     </row>
@@ -4349,13 +4473,13 @@
         <v>26</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E164"/>
     </row>
@@ -4364,13 +4488,13 @@
         <v>27</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E165"/>
     </row>
@@ -4379,13 +4503,13 @@
         <v>28</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E166"/>
     </row>
@@ -4394,13 +4518,13 @@
         <v>29</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E167"/>
     </row>
@@ -4409,13 +4533,13 @@
         <v>30</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E168"/>
     </row>
@@ -4424,13 +4548,13 @@
         <v>31</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E169"/>
     </row>
@@ -4439,13 +4563,13 @@
         <v>32</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E170"/>
     </row>
@@ -4454,13 +4578,13 @@
         <v>33</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E171"/>
     </row>
@@ -4469,13 +4593,13 @@
         <v>34</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E172"/>
     </row>
@@ -4484,13 +4608,13 @@
         <v>35</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E173"/>
     </row>
@@ -4499,13 +4623,13 @@
         <v>36</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E174"/>
     </row>
@@ -4528,13 +4652,13 @@
         <v>1</v>
       </c>
       <c r="B177" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C177" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="D177" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E177"/>
     </row>
@@ -4543,13 +4667,13 @@
         <v>2</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E178"/>
     </row>
@@ -4558,13 +4682,13 @@
         <v>3</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E179"/>
     </row>
@@ -4573,13 +4697,13 @@
         <v>4</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E180"/>
     </row>
@@ -4588,13 +4712,13 @@
         <v>5</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E181"/>
     </row>
@@ -4603,13 +4727,13 @@
         <v>6</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E182"/>
     </row>
@@ -4618,13 +4742,13 @@
         <v>7</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E183"/>
     </row>
@@ -4633,13 +4757,13 @@
         <v>8</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E184"/>
     </row>
@@ -4648,13 +4772,13 @@
         <v>9</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E185"/>
     </row>
@@ -4663,13 +4787,13 @@
         <v>10</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E186"/>
     </row>
@@ -4678,13 +4802,13 @@
         <v>11</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E187"/>
     </row>
@@ -4693,13 +4817,13 @@
         <v>12</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E188"/>
     </row>
@@ -4708,13 +4832,13 @@
         <v>13</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E189"/>
     </row>
@@ -4723,13 +4847,13 @@
         <v>14</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E190"/>
     </row>
@@ -4738,13 +4862,13 @@
         <v>15</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E191"/>
     </row>
@@ -4753,13 +4877,13 @@
         <v>16</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E192"/>
     </row>
@@ -4768,13 +4892,13 @@
         <v>17</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E193"/>
     </row>
@@ -4783,13 +4907,13 @@
         <v>18</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E194"/>
     </row>
@@ -4798,13 +4922,13 @@
         <v>19</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E195"/>
     </row>
@@ -4813,13 +4937,13 @@
         <v>20</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E196"/>
     </row>
@@ -4828,14 +4952,14 @@
         <v>21</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="198" spans="1:5" s="20" customFormat="1" ht="21">
@@ -4843,13 +4967,13 @@
         <v>22</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E198"/>
     </row>
@@ -4858,13 +4982,13 @@
         <v>23</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E199"/>
     </row>
@@ -4873,13 +4997,13 @@
         <v>24</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E200"/>
     </row>
@@ -4888,13 +5012,13 @@
         <v>25</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E201"/>
     </row>
@@ -4903,13 +5027,13 @@
         <v>26</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E202"/>
     </row>
@@ -4918,14 +5042,14 @@
         <v>27</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="20" customFormat="1" ht="21">
@@ -4933,13 +5057,13 @@
         <v>28</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E204"/>
     </row>
@@ -4948,13 +5072,13 @@
         <v>29</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E205"/>
     </row>
@@ -4963,13 +5087,13 @@
         <v>30</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E206"/>
     </row>
@@ -4978,16 +5102,16 @@
         <v>31</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D207" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E207" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="208" spans="1:5" s="20" customFormat="1" ht="21">
@@ -4995,13 +5119,13 @@
         <v>32</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E208"/>
     </row>
@@ -5010,13 +5134,13 @@
         <v>33</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E209"/>
     </row>
@@ -5025,13 +5149,13 @@
         <v>34</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E210"/>
     </row>
@@ -5040,16 +5164,16 @@
         <v>35</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E211" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="20" customFormat="1" ht="21">
@@ -5067,16 +5191,16 @@
       <c r="E213"/>
     </row>
     <row r="214" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A214" s="3">
+      <c r="A214" s="44">
         <v>1</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C214" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D214" s="3"/>
+      <c r="D214" s="14"/>
       <c r="E214"/>
     </row>
     <row r="215" spans="1:5" s="20" customFormat="1" ht="21">
@@ -5084,10 +5208,10 @@
         <v>2</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215"/>
@@ -5097,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216"/>
@@ -5110,10 +5234,10 @@
         <v>4</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217"/>
@@ -5123,10 +5247,10 @@
         <v>5</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218"/>
@@ -5136,10 +5260,10 @@
         <v>6</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219"/>
@@ -5149,10 +5273,10 @@
         <v>7</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220"/>
@@ -5162,10 +5286,10 @@
         <v>8</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221"/>
@@ -5175,10 +5299,10 @@
         <v>9</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222"/>
@@ -5188,10 +5312,10 @@
         <v>10</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223"/>
@@ -5201,10 +5325,10 @@
         <v>11</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224"/>
@@ -5214,10 +5338,10 @@
         <v>12</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225"/>
@@ -5227,10 +5351,10 @@
         <v>13</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226"/>
@@ -5240,10 +5364,10 @@
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227"/>
@@ -5253,10 +5377,10 @@
         <v>15</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228"/>
@@ -5266,10 +5390,10 @@
         <v>16</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229"/>
@@ -5279,10 +5403,10 @@
         <v>17</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230"/>
@@ -5292,10 +5416,10 @@
         <v>18</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231"/>
@@ -5305,10 +5429,10 @@
         <v>19</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232"/>
@@ -5318,10 +5442,10 @@
         <v>20</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233"/>
@@ -5331,10 +5455,10 @@
         <v>21</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234"/>
@@ -5344,10 +5468,10 @@
         <v>22</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235"/>
@@ -5371,10 +5495,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C238" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238"/>
@@ -5384,10 +5508,10 @@
         <v>2</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239"/>
@@ -5397,10 +5521,10 @@
         <v>3</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240"/>
@@ -5410,10 +5534,10 @@
         <v>4</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241"/>
@@ -5423,10 +5547,10 @@
         <v>5</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242"/>
@@ -5436,10 +5560,10 @@
         <v>6</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D243" s="3"/>
       <c r="E243"/>
@@ -5449,10 +5573,10 @@
         <v>7</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244"/>
@@ -5462,10 +5586,10 @@
         <v>8</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245"/>
@@ -5475,10 +5599,10 @@
         <v>9</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246"/>
@@ -5488,10 +5612,10 @@
         <v>10</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D247" s="3"/>
       <c r="E247"/>
@@ -5501,10 +5625,10 @@
         <v>11</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248"/>
@@ -5514,10 +5638,10 @@
         <v>12</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249"/>
@@ -5527,10 +5651,10 @@
         <v>13</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D250" s="3"/>
       <c r="E250"/>
@@ -5540,10 +5664,10 @@
         <v>14</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251"/>
@@ -5553,10 +5677,10 @@
         <v>15</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252"/>
@@ -5566,10 +5690,10 @@
         <v>16</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253"/>
@@ -5579,10 +5703,10 @@
         <v>17</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254"/>
@@ -5592,10 +5716,10 @@
         <v>18</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255"/>
@@ -5605,10 +5729,10 @@
         <v>19</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D256" s="3"/>
       <c r="E256"/>
@@ -5618,10 +5742,10 @@
         <v>20</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257"/>
@@ -5631,10 +5755,10 @@
         <v>21</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258"/>
@@ -5644,10 +5768,10 @@
         <v>22</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259"/>
@@ -5657,10 +5781,10 @@
         <v>23</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260"/>
@@ -5670,10 +5794,10 @@
         <v>24</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261"/>
@@ -5683,10 +5807,10 @@
         <v>25</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262"/>
@@ -5696,10 +5820,10 @@
         <v>26</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263"/>
@@ -5709,10 +5833,10 @@
         <v>27</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264"/>
@@ -5722,10 +5846,10 @@
         <v>28</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265"/>
@@ -5735,10 +5859,10 @@
         <v>29</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266"/>
@@ -5748,10 +5872,10 @@
         <v>30</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267"/>
@@ -5761,10 +5885,10 @@
         <v>31</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268"/>
@@ -5774,10 +5898,10 @@
         <v>32</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269"/>
@@ -5787,10 +5911,10 @@
         <v>33</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270"/>
@@ -5800,7 +5924,7 @@
         <v>34</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>85</v>
@@ -5813,10 +5937,10 @@
         <v>35</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D272" s="3"/>
       <c r="E272"/>
@@ -5840,10 +5964,10 @@
         <v>1</v>
       </c>
       <c r="B275" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275"/>
@@ -5853,10 +5977,10 @@
         <v>2</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276"/>
@@ -5866,10 +5990,10 @@
         <v>3</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277"/>
@@ -5879,10 +6003,10 @@
         <v>4</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278"/>
@@ -5892,10 +6016,10 @@
         <v>5</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D279" s="3"/>
       <c r="E279"/>
@@ -5905,10 +6029,10 @@
         <v>6</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280"/>
@@ -5918,10 +6042,10 @@
         <v>7</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281"/>
@@ -5931,10 +6055,10 @@
         <v>8</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282"/>
@@ -5944,10 +6068,10 @@
         <v>9</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D283" s="3"/>
       <c r="E283"/>
@@ -5957,10 +6081,10 @@
         <v>10</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D284" s="3"/>
       <c r="E284"/>
@@ -5970,10 +6094,10 @@
         <v>11</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285"/>
@@ -5983,10 +6107,10 @@
         <v>12</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286"/>
@@ -5996,10 +6120,10 @@
         <v>13</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287"/>
@@ -6009,10 +6133,10 @@
         <v>14</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D288" s="3"/>
       <c r="E288"/>
@@ -6022,10 +6146,10 @@
         <v>15</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D289" s="3"/>
       <c r="E289"/>
@@ -6035,10 +6159,10 @@
         <v>16</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290"/>
@@ -6048,10 +6172,10 @@
         <v>17</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D291" s="3"/>
       <c r="E291"/>
@@ -6061,10 +6185,10 @@
         <v>18</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D292" s="3"/>
       <c r="E292"/>
@@ -6074,10 +6198,10 @@
         <v>19</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D293" s="3"/>
       <c r="E293"/>
@@ -6101,10 +6225,10 @@
         <v>1</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C296" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="D296" s="3"/>
       <c r="E296"/>
@@ -6114,10 +6238,10 @@
         <v>2</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D297" s="3"/>
       <c r="E297"/>
@@ -6127,10 +6251,10 @@
         <v>3</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298"/>
@@ -6140,10 +6264,10 @@
         <v>4</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299"/>
@@ -6153,10 +6277,10 @@
         <v>5</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300"/>
@@ -6166,10 +6290,10 @@
         <v>6</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301"/>
@@ -6179,10 +6303,10 @@
         <v>7</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D302" s="3"/>
       <c r="E302"/>
@@ -6192,10 +6316,10 @@
         <v>8</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303"/>
@@ -6205,10 +6329,10 @@
         <v>9</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304"/>
@@ -6218,10 +6342,10 @@
         <v>10</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D305" s="3"/>
       <c r="E305"/>
@@ -6231,10 +6355,10 @@
         <v>11</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D306" s="3"/>
       <c r="E306"/>
@@ -6244,10 +6368,10 @@
         <v>12</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307"/>
@@ -6257,10 +6381,10 @@
         <v>13</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308"/>
@@ -6270,10 +6394,10 @@
         <v>14</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309"/>
@@ -6283,10 +6407,10 @@
         <v>15</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D310" s="3"/>
       <c r="E310"/>
@@ -6296,10 +6420,10 @@
         <v>16</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D311" s="3"/>
       <c r="E311"/>
@@ -6309,10 +6433,10 @@
         <v>17</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D312" s="3"/>
       <c r="E312"/>
@@ -6322,10 +6446,10 @@
         <v>18</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313"/>
@@ -6335,10 +6459,10 @@
         <v>19</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314"/>
@@ -6348,10 +6472,10 @@
         <v>20</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D315" s="3"/>
       <c r="E315"/>
@@ -6361,10 +6485,10 @@
         <v>21</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D316" s="3"/>
       <c r="E316"/>
@@ -6374,10 +6498,10 @@
         <v>22</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317"/>
@@ -6387,10 +6511,10 @@
         <v>23</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318"/>
@@ -6400,10 +6524,10 @@
         <v>24</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319"/>
@@ -6413,10 +6537,10 @@
         <v>25</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320"/>
@@ -6426,10 +6550,10 @@
         <v>26</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321"/>
@@ -6439,10 +6563,10 @@
         <v>27</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D322" s="3"/>
       <c r="E322"/>
@@ -6452,10 +6576,10 @@
         <v>28</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323"/>
@@ -6465,10 +6589,10 @@
         <v>29</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D324" s="3"/>
       <c r="E324"/>
@@ -6478,10 +6602,10 @@
         <v>30</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D325" s="3"/>
       <c r="E325"/>
@@ -6491,10 +6615,10 @@
         <v>31</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326"/>
@@ -6504,10 +6628,10 @@
         <v>32</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327"/>
@@ -6517,10 +6641,10 @@
         <v>33</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D328" s="3"/>
       <c r="E328"/>
@@ -6530,10 +6654,10 @@
         <v>34</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329"/>
@@ -6543,10 +6667,10 @@
         <v>35</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330"/>
@@ -6556,10 +6680,10 @@
         <v>36</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D331" s="3"/>
       <c r="E331"/>
@@ -6569,10 +6693,10 @@
         <v>37</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D332" s="3"/>
       <c r="E332"/>
@@ -6582,10 +6706,10 @@
         <v>38</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333"/>
@@ -6609,10 +6733,10 @@
         <v>1</v>
       </c>
       <c r="B336" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C336" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="D336" s="3"/>
       <c r="E336"/>
@@ -6622,10 +6746,10 @@
         <v>2</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D337" s="3"/>
       <c r="E337"/>
@@ -6635,10 +6759,10 @@
         <v>3</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338"/>
@@ -6648,10 +6772,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D339" s="3"/>
       <c r="E339"/>
@@ -6661,10 +6785,10 @@
         <v>5</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D340" s="3"/>
       <c r="E340"/>
@@ -6674,10 +6798,10 @@
         <v>6</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D341" s="3"/>
       <c r="E341"/>
@@ -6687,10 +6811,10 @@
         <v>7</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D342" s="3"/>
       <c r="E342"/>
@@ -6700,10 +6824,10 @@
         <v>8</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D343" s="3"/>
       <c r="E343"/>
@@ -6713,10 +6837,10 @@
         <v>9</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D344" s="3"/>
       <c r="E344"/>
@@ -6726,10 +6850,10 @@
         <v>10</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D345" s="3"/>
       <c r="E345"/>
@@ -6739,10 +6863,10 @@
         <v>11</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D346" s="3"/>
       <c r="E346"/>
@@ -6752,10 +6876,10 @@
         <v>12</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D347" s="3"/>
       <c r="E347"/>
@@ -6765,10 +6889,10 @@
         <v>13</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D348" s="3"/>
       <c r="E348"/>
@@ -6778,10 +6902,10 @@
         <v>14</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349"/>
@@ -6791,10 +6915,10 @@
         <v>15</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D350" s="3"/>
       <c r="E350"/>
@@ -6804,10 +6928,10 @@
         <v>16</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D351" s="3"/>
       <c r="E351"/>
@@ -6817,10 +6941,10 @@
         <v>17</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D352" s="3"/>
       <c r="E352"/>
@@ -6830,10 +6954,10 @@
         <v>18</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D353" s="3"/>
       <c r="E353"/>
@@ -6853,16 +6977,16 @@
       <c r="E355"/>
     </row>
     <row r="356" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A356" s="3">
+      <c r="A356" s="44">
         <v>1</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C356" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C356" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D356" s="3"/>
+      <c r="D356" s="14"/>
       <c r="E356"/>
     </row>
     <row r="357" spans="1:5" s="20" customFormat="1" ht="21">
@@ -6870,10 +6994,10 @@
         <v>2</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D357" s="3"/>
       <c r="E357"/>
@@ -6883,10 +7007,10 @@
         <v>3</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D358" s="3"/>
       <c r="E358"/>
@@ -6896,10 +7020,10 @@
         <v>4</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D359" s="3"/>
       <c r="E359"/>
@@ -6909,10 +7033,10 @@
         <v>5</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D360" s="3"/>
       <c r="E360"/>
@@ -6922,10 +7046,10 @@
         <v>6</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D361" s="3"/>
       <c r="E361"/>
@@ -6935,10 +7059,10 @@
         <v>7</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D362" s="3"/>
       <c r="E362"/>
@@ -6948,10 +7072,10 @@
         <v>8</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D363" s="3"/>
       <c r="E363"/>
@@ -6961,10 +7085,10 @@
         <v>9</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D364" s="3"/>
       <c r="E364"/>
@@ -6974,10 +7098,10 @@
         <v>10</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365"/>
@@ -6987,10 +7111,10 @@
         <v>11</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366"/>
@@ -7000,10 +7124,10 @@
         <v>12</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D367" s="3"/>
       <c r="E367"/>
@@ -7013,10 +7137,10 @@
         <v>13</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D368" s="3"/>
       <c r="E368"/>
@@ -7026,10 +7150,10 @@
         <v>14</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D369" s="3"/>
       <c r="E369"/>
@@ -7039,10 +7163,10 @@
         <v>15</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370"/>
@@ -7052,10 +7176,10 @@
         <v>16</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371"/>
@@ -7065,10 +7189,10 @@
         <v>17</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372"/>
@@ -7078,10 +7202,10 @@
         <v>18</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D373" s="3"/>
       <c r="E373"/>
@@ -7091,10 +7215,10 @@
         <v>19</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D374" s="3"/>
       <c r="E374"/>
@@ -7104,10 +7228,10 @@
         <v>20</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D375" s="3"/>
       <c r="E375"/>
@@ -7117,10 +7241,10 @@
         <v>21</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376"/>
@@ -7130,10 +7254,10 @@
         <v>22</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D377" s="3"/>
       <c r="E377"/>
@@ -7143,10 +7267,10 @@
         <v>23</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D378" s="3"/>
       <c r="E378"/>
@@ -7156,10 +7280,10 @@
         <v>24</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379"/>
@@ -7169,10 +7293,10 @@
         <v>25</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380"/>
@@ -7182,10 +7306,10 @@
         <v>26</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D381" s="3"/>
       <c r="E381"/>
@@ -7195,10 +7319,10 @@
         <v>27</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D382" s="3"/>
       <c r="E382"/>
@@ -7208,10 +7332,10 @@
         <v>28</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D383" s="3"/>
       <c r="E383"/>
@@ -7221,10 +7345,10 @@
         <v>29</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384"/>
@@ -7234,10 +7358,10 @@
         <v>30</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385"/>
@@ -7247,10 +7371,10 @@
         <v>31</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386"/>
@@ -7260,10 +7384,10 @@
         <v>32</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387"/>
@@ -7273,10 +7397,10 @@
         <v>33</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D388" s="3"/>
       <c r="E388"/>
@@ -7286,10 +7410,10 @@
         <v>34</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389"/>
@@ -7299,10 +7423,10 @@
         <v>35</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390"/>
@@ -7312,10 +7436,10 @@
         <v>36</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D391" s="3"/>
       <c r="E391"/>
@@ -7325,10 +7449,10 @@
         <v>37</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392"/>
@@ -7338,10 +7462,10 @@
         <v>38</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D393" s="3"/>
       <c r="E393"/>
@@ -7351,10 +7475,10 @@
         <v>39</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D394" s="3"/>
       <c r="E394"/>
@@ -7364,10 +7488,10 @@
         <v>40</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395"/>
@@ -7377,10 +7501,10 @@
         <v>41</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D396" s="3"/>
       <c r="E396"/>
@@ -7390,10 +7514,10 @@
         <v>42</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D397" s="3"/>
       <c r="E397"/>
@@ -7403,10 +7527,10 @@
         <v>43</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D398" s="3"/>
       <c r="E398"/>
@@ -7416,10 +7540,10 @@
         <v>44</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D399" s="3"/>
       <c r="E399"/>
@@ -7443,10 +7567,10 @@
         <v>1</v>
       </c>
       <c r="B402" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C402" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="D402" s="3"/>
       <c r="E402"/>
@@ -7456,10 +7580,10 @@
         <v>2</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D403" s="3"/>
       <c r="E403"/>
@@ -7469,10 +7593,10 @@
         <v>3</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D404" s="3"/>
       <c r="E404"/>
@@ -7482,7 +7606,7 @@
         <v>4</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>86</v>
@@ -7495,10 +7619,10 @@
         <v>5</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D406" s="3"/>
       <c r="E406"/>
@@ -7508,10 +7632,10 @@
         <v>6</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D407" s="3"/>
       <c r="E407"/>
@@ -7531,16 +7655,18 @@
       <c r="E409"/>
     </row>
     <row r="410" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A410" s="3">
+      <c r="A410" s="45">
         <v>1</v>
       </c>
-      <c r="B410" s="4" t="s">
+      <c r="B410" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C410" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C410" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D410" s="3"/>
+      <c r="D410" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E410"/>
     </row>
     <row r="411" spans="1:5" s="20" customFormat="1" ht="21">
@@ -7548,10 +7674,10 @@
         <v>2</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D411" s="3"/>
       <c r="E411"/>
@@ -7561,10 +7687,10 @@
         <v>3</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D412" s="3"/>
       <c r="E412"/>
@@ -7574,10 +7700,10 @@
         <v>4</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D413" s="3"/>
       <c r="E413"/>
@@ -7587,10 +7713,10 @@
         <v>5</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D414" s="3"/>
       <c r="E414"/>
@@ -7600,10 +7726,10 @@
         <v>6</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D415" s="3"/>
       <c r="E415"/>
@@ -7613,10 +7739,10 @@
         <v>7</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D416" s="3"/>
       <c r="E416"/>
@@ -7626,10 +7752,10 @@
         <v>8</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417"/>
@@ -7639,10 +7765,10 @@
         <v>9</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D418" s="3"/>
       <c r="E418"/>
@@ -7652,10 +7778,10 @@
         <v>10</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D419" s="3"/>
       <c r="E419"/>
@@ -7665,10 +7791,10 @@
         <v>11</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D420" s="3"/>
       <c r="E420"/>
@@ -7678,10 +7804,10 @@
         <v>12</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D421" s="3"/>
       <c r="E421"/>
@@ -7691,10 +7817,10 @@
         <v>13</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D422" s="3"/>
       <c r="E422"/>
@@ -7704,10 +7830,10 @@
         <v>14</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D423" s="3"/>
       <c r="E423"/>
@@ -7717,10 +7843,10 @@
         <v>15</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D424" s="3"/>
       <c r="E424"/>
@@ -7730,10 +7856,10 @@
         <v>16</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425"/>
@@ -7743,10 +7869,10 @@
         <v>17</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D426" s="3"/>
       <c r="E426"/>
@@ -7756,10 +7882,10 @@
         <v>18</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D427" s="3"/>
       <c r="E427"/>
@@ -7769,10 +7895,10 @@
         <v>19</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428"/>
@@ -7782,10 +7908,10 @@
         <v>20</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D429" s="3"/>
       <c r="E429"/>
@@ -7795,10 +7921,10 @@
         <v>21</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D430" s="3"/>
       <c r="E430"/>
@@ -7808,10 +7934,10 @@
         <v>22</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D431" s="3"/>
       <c r="E431"/>
@@ -7821,10 +7947,10 @@
         <v>23</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D432" s="3"/>
       <c r="E432"/>
@@ -7834,10 +7960,10 @@
         <v>24</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D433" s="3"/>
       <c r="E433"/>
@@ -7847,10 +7973,10 @@
         <v>25</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D434" s="3"/>
       <c r="E434"/>
@@ -7860,10 +7986,10 @@
         <v>26</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D435" s="3"/>
       <c r="E435"/>
@@ -7873,10 +7999,10 @@
         <v>27</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D436" s="3"/>
       <c r="E436"/>
@@ -7886,10 +8012,10 @@
         <v>28</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D437" s="3"/>
       <c r="E437"/>
@@ -7899,10 +8025,10 @@
         <v>29</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D438" s="3"/>
       <c r="E438"/>
@@ -7912,10 +8038,10 @@
         <v>30</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D439" s="3"/>
       <c r="E439"/>
@@ -7925,10 +8051,10 @@
         <v>31</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D440" s="3"/>
       <c r="E440"/>
@@ -7938,10 +8064,10 @@
         <v>32</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D441" s="3"/>
       <c r="E441"/>
@@ -7951,10 +8077,10 @@
         <v>33</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D442" s="3"/>
       <c r="E442"/>
@@ -7964,10 +8090,10 @@
         <v>34</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D443" s="3"/>
       <c r="E443"/>
@@ -7977,10 +8103,10 @@
         <v>35</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D444" s="3"/>
       <c r="E444"/>
@@ -7990,10 +8116,10 @@
         <v>36</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D445" s="3"/>
       <c r="E445"/>
@@ -8003,10 +8129,10 @@
         <v>37</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D446" s="3"/>
       <c r="E446"/>
@@ -8016,10 +8142,10 @@
         <v>38</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D447" s="3"/>
       <c r="E447"/>
@@ -8029,10 +8155,10 @@
         <v>39</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D448" s="3"/>
       <c r="E448"/>
@@ -8042,10 +8168,10 @@
         <v>40</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D449" s="3"/>
       <c r="E449"/>
@@ -8055,10 +8181,10 @@
         <v>41</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D450" s="3"/>
       <c r="E450"/>
@@ -8068,10 +8194,10 @@
         <v>42</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D451" s="3"/>
       <c r="E451"/>
@@ -8081,10 +8207,10 @@
         <v>43</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D452" s="3"/>
       <c r="E452"/>
@@ -8094,10 +8220,10 @@
         <v>44</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D453" s="3"/>
       <c r="E453"/>
@@ -8107,10 +8233,10 @@
         <v>45</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D454" s="3"/>
       <c r="E454"/>
@@ -8120,10 +8246,10 @@
         <v>46</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D455" s="3"/>
       <c r="E455"/>
@@ -8133,10 +8259,10 @@
         <v>47</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D456" s="3"/>
       <c r="E456"/>
@@ -8146,10 +8272,10 @@
         <v>48</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D457" s="3"/>
       <c r="E457"/>
@@ -8159,10 +8285,10 @@
         <v>49</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D458" s="3"/>
       <c r="E458"/>
@@ -8172,10 +8298,10 @@
         <v>50</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D459" s="3"/>
       <c r="E459"/>
@@ -8185,10 +8311,10 @@
         <v>51</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D460" s="3"/>
       <c r="E460"/>
@@ -8198,10 +8324,10 @@
         <v>52</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D461" s="3"/>
       <c r="E461"/>
@@ -8211,10 +8337,10 @@
         <v>53</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D462" s="3"/>
       <c r="E462"/>
@@ -8224,10 +8350,10 @@
         <v>54</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D463" s="3"/>
       <c r="E463"/>
@@ -8237,10 +8363,10 @@
         <v>55</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D464" s="3"/>
       <c r="E464"/>
@@ -8250,10 +8376,10 @@
         <v>56</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D465" s="3"/>
       <c r="E465"/>
@@ -8263,10 +8389,10 @@
         <v>57</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D466" s="3"/>
       <c r="E466"/>
@@ -8276,10 +8402,10 @@
         <v>58</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D467" s="3"/>
       <c r="E467"/>
@@ -8289,10 +8415,10 @@
         <v>59</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D468" s="3"/>
       <c r="E468"/>
@@ -8302,10 +8428,10 @@
         <v>60</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D469" s="3"/>
       <c r="E469"/>
@@ -8329,10 +8455,10 @@
         <v>1</v>
       </c>
       <c r="B472" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C472" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="C472" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="D472" s="3"/>
       <c r="E472"/>
@@ -8342,10 +8468,10 @@
         <v>2</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D473" s="3"/>
       <c r="E473"/>
@@ -8355,10 +8481,10 @@
         <v>3</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D474" s="3"/>
       <c r="E474"/>
@@ -8368,10 +8494,10 @@
         <v>4</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D475" s="3"/>
       <c r="E475"/>
@@ -8381,10 +8507,10 @@
         <v>5</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D476" s="3"/>
       <c r="E476"/>
@@ -8394,10 +8520,10 @@
         <v>6</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D477" s="3"/>
       <c r="E477"/>
@@ -8407,10 +8533,10 @@
         <v>7</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D478" s="3"/>
       <c r="E478"/>
@@ -8420,10 +8546,10 @@
         <v>8</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D479" s="3"/>
       <c r="E479"/>
@@ -8433,10 +8559,10 @@
         <v>9</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D480" s="3"/>
       <c r="E480"/>
@@ -8446,10 +8572,10 @@
         <v>10</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D481" s="3"/>
       <c r="E481"/>
@@ -8462,20 +8588,20 @@
       <c r="E482"/>
     </row>
     <row r="484" spans="1:5" ht="25.8">
-      <c r="B484" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="C484" s="33"/>
+      <c r="B484" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="C484" s="47"/>
     </row>
     <row r="485" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A485" s="3">
         <v>1</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D485" s="3"/>
       <c r="E485"/>
@@ -8485,10 +8611,10 @@
         <v>2</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D486" s="3"/>
       <c r="E486"/>
@@ -8498,10 +8624,10 @@
         <v>3</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D487" s="3"/>
       <c r="E487"/>
@@ -8511,10 +8637,10 @@
         <v>4</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D488" s="3"/>
       <c r="E488"/>
@@ -8524,10 +8650,10 @@
         <v>5</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D489" s="3"/>
       <c r="E489"/>
@@ -8537,10 +8663,10 @@
         <v>6</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490"/>
@@ -8669,7 +8795,7 @@
     <hyperlink ref="C133" r:id="rId117" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
     <hyperlink ref="C134" r:id="rId118" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
     <hyperlink ref="C135" r:id="rId119" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C136" r:id="rId120" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C136" r:id="rId120" display="Partitioning and Sorting Arrays with Many Repeated Entries" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
     <hyperlink ref="C105" r:id="rId121" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
     <hyperlink ref="C112" r:id="rId122" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
     <hyperlink ref="C139" r:id="rId123" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag jain\Desktop\DSA_CRACK_SHEET_SOLUTION_LOVE_BABBER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE5D5C1-AFD9-499D-A01B-DE5EF5E63F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7EC10-AA5C-4F6F-92C9-7AB0B19D09A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="486">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1652,7 +1652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1769,6 +1769,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2098,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B406" zoomScale="105" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="D413" sqref="D413"/>
+    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="110" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="B465" sqref="B465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7670,16 +7682,18 @@
       <c r="E410"/>
     </row>
     <row r="411" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A411" s="3">
+      <c r="A411" s="45">
         <v>2</v>
       </c>
-      <c r="B411" s="4" t="s">
+      <c r="B411" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C411" s="5" t="s">
+      <c r="C411" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D411" s="3"/>
+      <c r="D411" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E411"/>
     </row>
     <row r="412" spans="1:5" s="20" customFormat="1" ht="21">
@@ -7722,42 +7736,48 @@
       <c r="E414"/>
     </row>
     <row r="415" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A415" s="3">
+      <c r="A415" s="46">
         <v>6</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B415" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C415" s="5" t="s">
+      <c r="C415" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="D415" s="3"/>
+      <c r="D415" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E415"/>
     </row>
     <row r="416" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A416" s="3">
+      <c r="A416" s="46">
         <v>7</v>
       </c>
-      <c r="B416" s="4" t="s">
+      <c r="B416" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C416" s="5" t="s">
+      <c r="C416" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D416" s="3"/>
+      <c r="D416" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E416"/>
     </row>
     <row r="417" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A417" s="3">
+      <c r="A417" s="47">
         <v>8</v>
       </c>
-      <c r="B417" s="4" t="s">
+      <c r="B417" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C417" s="5" t="s">
+      <c r="C417" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D417" s="3"/>
+      <c r="D417" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E417"/>
     </row>
     <row r="418" spans="1:5" s="20" customFormat="1" ht="21">
@@ -7774,16 +7794,18 @@
       <c r="E418"/>
     </row>
     <row r="419" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A419" s="3">
+      <c r="A419" s="47">
         <v>10</v>
       </c>
-      <c r="B419" s="4" t="s">
+      <c r="B419" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C419" s="5" t="s">
+      <c r="C419" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D419" s="3"/>
+      <c r="D419" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E419"/>
     </row>
     <row r="420" spans="1:5" s="20" customFormat="1" ht="21">
@@ -7826,29 +7848,33 @@
       <c r="E422"/>
     </row>
     <row r="423" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A423" s="3">
+      <c r="A423" s="48">
         <v>14</v>
       </c>
-      <c r="B423" s="4" t="s">
+      <c r="B423" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C423" s="5" t="s">
+      <c r="C423" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D423" s="3"/>
+      <c r="D423" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E423"/>
     </row>
     <row r="424" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A424" s="3">
+      <c r="A424" s="48">
         <v>15</v>
       </c>
-      <c r="B424" s="4" t="s">
+      <c r="B424" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C424" s="5" t="s">
+      <c r="C424" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D424" s="3"/>
+      <c r="D424" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E424"/>
     </row>
     <row r="425" spans="1:5" s="20" customFormat="1" ht="21">
@@ -8451,16 +8477,16 @@
       <c r="E471"/>
     </row>
     <row r="472" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="A472" s="3">
+      <c r="A472" s="49">
         <v>1</v>
       </c>
-      <c r="B472" s="4" t="s">
+      <c r="B472" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C472" s="5" t="s">
+      <c r="C472" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="D472" s="3"/>
+      <c r="D472" s="14"/>
       <c r="E472"/>
     </row>
     <row r="473" spans="1:5" s="20" customFormat="1" ht="21">
@@ -8588,10 +8614,10 @@
       <c r="E482"/>
     </row>
     <row r="484" spans="1:5" ht="25.8">
-      <c r="B484" s="46" t="s">
+      <c r="B484" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="C484" s="47"/>
+      <c r="C484" s="51"/>
     </row>
     <row r="485" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="A485" s="3">
